--- a/ManualTC_FitnessBlender.xlsx
+++ b/ManualTC_FitnessBlender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwelter\Documents\UFT Training\RFP_ACT Test Scripts\FitnessBlender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ACB14E9C-1967-452A-B059-9FCDAF925BFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07DF55C9-9713-41F9-8404-D5539BB35561}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4CC0C176-19A5-4717-83F2-409659588908}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="218">
   <si>
     <t>Test Case Number:</t>
   </si>
@@ -616,6 +616,69 @@
   </si>
   <si>
     <t>There are programs filter section and all available workout videos grid-list.</t>
+  </si>
+  <si>
+    <t>Adding single product to Cart</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Verify that logged user can add Meal Plan to Cart.</t>
+  </si>
+  <si>
+    <t>Logged user added single product to Cart successfully.</t>
+  </si>
+  <si>
+    <t>There is a Meal Plans list in main section:</t>
+  </si>
+  <si>
+    <t>- Calendar Based Plans</t>
+  </si>
+  <si>
+    <t>- Ebook Based Plans</t>
+  </si>
+  <si>
+    <t>Click on first Meal Plan header link under Calendar Based Plans.</t>
+  </si>
+  <si>
+    <t>Meal Plan details subpage is displayed.</t>
+  </si>
+  <si>
+    <t>There is Program Details section with Add To Bag button on the right.</t>
+  </si>
+  <si>
+    <t>Click on Add To Bag button.</t>
+  </si>
+  <si>
+    <t>- Shopping Bag header;</t>
+  </si>
+  <si>
+    <t>- Cart panel with fields:</t>
+  </si>
+  <si>
+    <t>+ Item;</t>
+  </si>
+  <si>
+    <t>+ Remove with 'X' symbol;</t>
+  </si>
+  <si>
+    <t>+ Price;</t>
+  </si>
+  <si>
+    <t>+ Order Total;</t>
+  </si>
+  <si>
+    <t>+ Continue Shopping button;</t>
+  </si>
+  <si>
+    <t>+ Proceed To Checkout button;</t>
+  </si>
+  <si>
+    <t>Added Meal Plan is presented in Cart panel.</t>
+  </si>
+  <si>
+    <t>In the Shopping Bag icon on header navbar, number 1 is displayed.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +754,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1046,11 +1109,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1253,6 +1327,126 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1268,20 +1462,198 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1292,266 +1664,88 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1868,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A10664C-B3CD-4D4F-8F59-712D1301AA7F}">
-  <dimension ref="B3:R255"/>
+  <dimension ref="B3:R277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R113" sqref="R113"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,17 +2082,17 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1923,11 +2117,11 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="57">
         <v>1</v>
       </c>
@@ -1961,25 +2155,25 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="131"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="62"/>
@@ -1999,82 +2193,82 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="106"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="109"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="103"/>
     </row>
     <row r="12" spans="2:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="129" t="s">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="131"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
     </row>
     <row r="13" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="131"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
@@ -2094,8 +2288,8 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2126,49 +2320,49 @@
     </row>
     <row r="17" spans="2:16" s="65" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="163"/>
-      <c r="E17" s="162" t="s">
+      <c r="D17" s="116"/>
+      <c r="E17" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="165" t="s">
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="165"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="165"/>
-      <c r="O17" s="165"/>
-      <c r="P17" s="166"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="119"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70" t="s">
+      <c r="D18" s="109"/>
+      <c r="E18" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71" t="s">
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="73"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="120"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -2180,14 +2374,14 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="77"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="121"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
@@ -2199,31 +2393,31 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
       <c r="O20" s="27"/>
       <c r="P20" s="52"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="98" t="s">
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
       <c r="O21" s="44"/>
       <c r="P21" s="50"/>
     </row>
@@ -2237,12 +2431,12 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
       <c r="O22" s="44"/>
       <c r="P22" s="50"/>
     </row>
@@ -2256,12 +2450,12 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="75" t="s">
+      <c r="K23" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
       <c r="O23" s="44"/>
       <c r="P23" s="50"/>
     </row>
@@ -2275,12 +2469,12 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
       <c r="O24" s="44"/>
       <c r="P24" s="50"/>
     </row>
@@ -2294,12 +2488,12 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
       <c r="O25" s="44"/>
       <c r="P25" s="50"/>
     </row>
@@ -2313,12 +2507,12 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="45"/>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
       <c r="O26" s="44"/>
       <c r="P26" s="50"/>
     </row>
@@ -2332,12 +2526,12 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="45"/>
-      <c r="K27" s="75" t="s">
+      <c r="K27" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
       <c r="O27" s="44"/>
       <c r="P27" s="50"/>
     </row>
@@ -2351,12 +2545,12 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="45"/>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
       <c r="O28" s="44"/>
       <c r="P28" s="50"/>
     </row>
@@ -2370,35 +2564,35 @@
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="48"/>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
       <c r="O29" s="47"/>
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70" t="s">
+      <c r="D30" s="109"/>
+      <c r="E30" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="71" t="s">
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
       <c r="O30" s="42"/>
       <c r="P30" s="49"/>
     </row>
@@ -2412,12 +2606,12 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
       <c r="J31" s="45"/>
-      <c r="K31" s="75" t="s">
+      <c r="K31" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
       <c r="O31" s="44"/>
       <c r="P31" s="50"/>
     </row>
@@ -2431,12 +2625,12 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="75" t="s">
+      <c r="K32" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
       <c r="O32" s="44"/>
       <c r="P32" s="50"/>
     </row>
@@ -2450,12 +2644,12 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="75" t="s">
+      <c r="K33" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
       <c r="O33" s="44"/>
       <c r="P33" s="50"/>
     </row>
@@ -2469,12 +2663,12 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
       <c r="J34" s="45"/>
-      <c r="K34" s="75" t="s">
+      <c r="K34" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
       <c r="O34" s="44"/>
       <c r="P34" s="50"/>
     </row>
@@ -2488,12 +2682,12 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
       <c r="J35" s="45"/>
-      <c r="K35" s="75" t="s">
+      <c r="K35" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
       <c r="O35" s="44"/>
       <c r="P35" s="50"/>
     </row>
@@ -2507,12 +2701,12 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
       <c r="J36" s="45"/>
-      <c r="K36" s="75" t="s">
+      <c r="K36" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
       <c r="O36" s="44"/>
       <c r="P36" s="50"/>
     </row>
@@ -2526,12 +2720,12 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
       <c r="J37" s="45"/>
-      <c r="K37" s="75" t="s">
+      <c r="K37" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
       <c r="O37" s="44"/>
       <c r="P37" s="50"/>
     </row>
@@ -2545,35 +2739,35 @@
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="48"/>
-      <c r="K38" s="82" t="s">
+      <c r="K38" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
       <c r="O38" s="47"/>
       <c r="P38" s="51"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="70" t="s">
+      <c r="D39" s="112"/>
+      <c r="E39" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="71" t="s">
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
       <c r="O39" s="42"/>
       <c r="P39" s="49"/>
     </row>
@@ -2587,12 +2781,12 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="45"/>
-      <c r="K40" s="75" t="s">
+      <c r="K40" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
       <c r="O40" s="44"/>
       <c r="P40" s="50"/>
     </row>
@@ -2600,18 +2794,18 @@
       <c r="B41" s="7"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="75" t="s">
+      <c r="E41" s="130"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
       <c r="O41" s="44"/>
       <c r="P41" s="50"/>
     </row>
@@ -2625,12 +2819,12 @@
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
       <c r="J42" s="45"/>
-      <c r="K42" s="75" t="s">
+      <c r="K42" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
       <c r="O42" s="44"/>
       <c r="P42" s="50"/>
     </row>
@@ -2644,79 +2838,79 @@
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
       <c r="J43" s="45"/>
-      <c r="K43" s="75" t="s">
+      <c r="K43" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
       <c r="O43" s="44"/>
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70" t="s">
+      <c r="D44" s="109"/>
+      <c r="E44" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="70" t="s">
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
       <c r="O44" s="42"/>
       <c r="P44" s="49"/>
-      <c r="Q44" s="157"/>
-      <c r="R44" s="157"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
     </row>
     <row r="45" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="155"/>
-      <c r="D45" s="156"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="133"/>
       <c r="E45" s="46"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
       <c r="J45" s="48"/>
-      <c r="K45" s="81" t="s">
+      <c r="K45" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
       <c r="O45" s="47"/>
       <c r="P45" s="51"/>
     </row>
     <row r="46" spans="2:18" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="70" t="s">
+      <c r="D46" s="112"/>
+      <c r="E46" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="71" t="s">
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
       <c r="O46" s="42"/>
       <c r="P46" s="49"/>
     </row>
@@ -2724,20 +2918,20 @@
       <c r="B47" s="7"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="75" t="s">
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
       <c r="O47" s="44"/>
       <c r="P47" s="50"/>
     </row>
@@ -2751,35 +2945,35 @@
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="82" t="s">
+      <c r="K48" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="114"/>
       <c r="O48" s="47"/>
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="2:18" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70" t="s">
+      <c r="D49" s="109"/>
+      <c r="E49" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="71" t="s">
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
       <c r="O49" s="42"/>
       <c r="P49" s="49"/>
     </row>
@@ -2787,20 +2981,20 @@
       <c r="B50" s="7"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="75" t="s">
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="113"/>
       <c r="O50" s="44"/>
       <c r="P50" s="50"/>
     </row>
@@ -2814,12 +3008,12 @@
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
       <c r="J51" s="45"/>
-      <c r="K51" s="75" t="s">
+      <c r="K51" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
       <c r="O51" s="44"/>
       <c r="P51" s="50"/>
     </row>
@@ -2833,36 +3027,36 @@
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="81" t="s">
+      <c r="K52" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="83"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="134"/>
       <c r="R52"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="70" t="s">
+      <c r="D53" s="112"/>
+      <c r="E53" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="71" t="s">
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="111"/>
       <c r="O53" s="42"/>
       <c r="P53" s="49"/>
     </row>
@@ -2876,12 +3070,12 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
       <c r="J54" s="45"/>
-      <c r="K54" s="75" t="s">
+      <c r="K54" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
       <c r="O54" s="44"/>
       <c r="P54" s="50"/>
     </row>
@@ -2895,12 +3089,12 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
       <c r="J55" s="45"/>
-      <c r="K55" s="75" t="s">
+      <c r="K55" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
       <c r="O55" s="44"/>
       <c r="P55" s="50"/>
     </row>
@@ -2914,12 +3108,12 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
       <c r="J56" s="45"/>
-      <c r="K56" s="75" t="s">
+      <c r="K56" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
       <c r="O56" s="44"/>
       <c r="P56" s="50"/>
     </row>
@@ -2933,12 +3127,12 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
       <c r="J57" s="45"/>
-      <c r="K57" s="75" t="s">
+      <c r="K57" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
+      <c r="L57" s="113"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="113"/>
       <c r="O57" s="44"/>
       <c r="P57" s="50"/>
     </row>
@@ -2952,12 +3146,12 @@
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
       <c r="J58" s="45"/>
-      <c r="K58" s="75" t="s">
+      <c r="K58" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
       <c r="O58" s="44"/>
       <c r="P58" s="50"/>
     </row>
@@ -2971,35 +3165,35 @@
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
       <c r="J59" s="48"/>
-      <c r="K59" s="82" t="s">
+      <c r="K59" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
       <c r="O59" s="47"/>
       <c r="P59" s="51"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="69"/>
-      <c r="E60" s="70" t="s">
+      <c r="D60" s="109"/>
+      <c r="E60" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="71" t="s">
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
       <c r="O60" s="42"/>
       <c r="P60" s="49"/>
     </row>
@@ -3007,18 +3201,18 @@
       <c r="B61" s="7"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="75" t="s">
+      <c r="E61" s="125"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
       <c r="O61" s="44"/>
       <c r="P61" s="50"/>
     </row>
@@ -3032,12 +3226,12 @@
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
       <c r="J62" s="45"/>
-      <c r="K62" s="75" t="s">
+      <c r="K62" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
       <c r="O62" s="44"/>
       <c r="P62" s="50"/>
     </row>
@@ -3051,12 +3245,12 @@
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
       <c r="J63" s="45"/>
-      <c r="K63" s="75" t="s">
+      <c r="K63" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
       <c r="O63" s="44"/>
       <c r="P63" s="50"/>
     </row>
@@ -3070,12 +3264,12 @@
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
       <c r="J64" s="45"/>
-      <c r="K64" s="75" t="s">
+      <c r="K64" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
+      <c r="L64" s="113"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
       <c r="O64" s="44"/>
       <c r="P64" s="50"/>
     </row>
@@ -3089,12 +3283,12 @@
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
       <c r="J65" s="45"/>
-      <c r="K65" s="75" t="s">
+      <c r="K65" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
       <c r="O65" s="44"/>
       <c r="P65" s="50"/>
     </row>
@@ -3108,35 +3302,35 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
       <c r="J66" s="45"/>
-      <c r="K66" s="75" t="s">
+      <c r="K66" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
       <c r="O66" s="44"/>
       <c r="P66" s="50"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="69"/>
-      <c r="E67" s="70" t="s">
+      <c r="D67" s="109"/>
+      <c r="E67" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="71" t="s">
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
       <c r="O67" s="42"/>
       <c r="P67" s="49"/>
     </row>
@@ -3150,35 +3344,35 @@
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
       <c r="J68" s="48"/>
-      <c r="K68" s="82" t="s">
+      <c r="K68" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="114"/>
       <c r="O68" s="47"/>
       <c r="P68" s="51"/>
     </row>
     <row r="69" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="70" t="s">
+      <c r="D69" s="109"/>
+      <c r="E69" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="72"/>
-      <c r="K69" s="71" t="s">
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="L69" s="71"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="111"/>
+      <c r="N69" s="111"/>
       <c r="O69" s="42"/>
       <c r="P69" s="49"/>
     </row>
@@ -3186,20 +3380,20 @@
       <c r="B70" s="7"/>
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="74" t="s">
+      <c r="E70" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="76"/>
-      <c r="K70" s="75" t="s">
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="131"/>
+      <c r="K70" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
       <c r="O70" s="44"/>
       <c r="P70" s="50"/>
     </row>
@@ -3213,35 +3407,35 @@
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
       <c r="J71" s="48"/>
-      <c r="K71" s="82" t="s">
+      <c r="K71" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="L71" s="82"/>
-      <c r="M71" s="82"/>
-      <c r="N71" s="82"/>
+      <c r="L71" s="114"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="114"/>
       <c r="O71" s="47"/>
       <c r="P71" s="51"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
-      <c r="C72" s="68" t="s">
+      <c r="C72" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="69"/>
-      <c r="E72" s="70" t="s">
+      <c r="D72" s="109"/>
+      <c r="E72" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="71" t="s">
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="111"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
+      <c r="L72" s="111"/>
+      <c r="M72" s="111"/>
+      <c r="N72" s="111"/>
       <c r="O72" s="42"/>
       <c r="P72" s="49"/>
     </row>
@@ -3249,20 +3443,20 @@
       <c r="B73" s="7"/>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="75"/>
-      <c r="J73" s="76"/>
-      <c r="K73" s="75" t="s">
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="131"/>
+      <c r="K73" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
       <c r="O73" s="44"/>
       <c r="P73" s="50"/>
     </row>
@@ -3276,35 +3470,35 @@
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
       <c r="J74" s="48"/>
-      <c r="K74" s="81" t="s">
+      <c r="K74" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="L74" s="82"/>
-      <c r="M74" s="82"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="82"/>
-      <c r="P74" s="83"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="114"/>
+      <c r="N74" s="114"/>
+      <c r="O74" s="114"/>
+      <c r="P74" s="134"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="70" t="s">
+      <c r="D75" s="109"/>
+      <c r="E75" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="71" t="s">
+      <c r="F75" s="111"/>
+      <c r="G75" s="111"/>
+      <c r="H75" s="111"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
+      <c r="L75" s="111"/>
+      <c r="M75" s="111"/>
+      <c r="N75" s="111"/>
       <c r="O75" s="42"/>
       <c r="P75" s="49"/>
     </row>
@@ -3312,20 +3506,20 @@
       <c r="B76" s="7"/>
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="74" t="s">
+      <c r="E76" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="75" t="s">
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="113"/>
       <c r="O76" s="44"/>
       <c r="P76" s="50"/>
     </row>
@@ -3339,35 +3533,35 @@
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
       <c r="J77" s="48"/>
-      <c r="K77" s="81" t="s">
+      <c r="K77" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="L77" s="82"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="82"/>
-      <c r="O77" s="82"/>
-      <c r="P77" s="83"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="134"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="69"/>
-      <c r="E78" s="70" t="s">
+      <c r="D78" s="109"/>
+      <c r="E78" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="71" t="s">
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="112"/>
+      <c r="K78" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="L78" s="71"/>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71"/>
+      <c r="L78" s="111"/>
+      <c r="M78" s="111"/>
+      <c r="N78" s="111"/>
       <c r="O78" s="42"/>
       <c r="P78" s="49"/>
     </row>
@@ -3375,20 +3569,20 @@
       <c r="B79" s="7"/>
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="75" t="s">
+      <c r="F79" s="113"/>
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
       <c r="O79" s="44"/>
       <c r="P79" s="50"/>
     </row>
@@ -3402,35 +3596,35 @@
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
       <c r="J80" s="48"/>
-      <c r="K80" s="81" t="s">
+      <c r="K80" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="L80" s="82"/>
-      <c r="M80" s="82"/>
-      <c r="N80" s="82"/>
-      <c r="O80" s="82"/>
-      <c r="P80" s="83"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="134"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
-      <c r="C81" s="68" t="s">
+      <c r="C81" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="70" t="s">
+      <c r="D81" s="109"/>
+      <c r="E81" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="72"/>
-      <c r="K81" s="71" t="s">
+      <c r="F81" s="111"/>
+      <c r="G81" s="111"/>
+      <c r="H81" s="111"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="112"/>
+      <c r="K81" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
+      <c r="L81" s="111"/>
+      <c r="M81" s="111"/>
+      <c r="N81" s="111"/>
       <c r="O81" s="42"/>
       <c r="P81" s="49"/>
     </row>
@@ -3444,35 +3638,35 @@
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
       <c r="J82" s="48"/>
-      <c r="K82" s="82" t="s">
+      <c r="K82" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="L82" s="82"/>
-      <c r="M82" s="82"/>
-      <c r="N82" s="82"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114"/>
       <c r="O82" s="47"/>
       <c r="P82" s="51"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
-      <c r="C83" s="68" t="s">
+      <c r="C83" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="71" t="s">
+      <c r="D83" s="109"/>
+      <c r="E83" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71" t="s">
+      <c r="F83" s="111"/>
+      <c r="G83" s="111"/>
+      <c r="H83" s="111"/>
+      <c r="I83" s="111"/>
+      <c r="J83" s="111"/>
+      <c r="K83" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="L83" s="71"/>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71"/>
+      <c r="L83" s="111"/>
+      <c r="M83" s="111"/>
+      <c r="N83" s="111"/>
       <c r="O83" s="42"/>
       <c r="P83" s="49"/>
     </row>
@@ -3486,12 +3680,12 @@
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
       <c r="J84" s="45"/>
-      <c r="K84" s="75" t="s">
+      <c r="K84" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
+      <c r="L84" s="113"/>
+      <c r="M84" s="113"/>
+      <c r="N84" s="113"/>
       <c r="O84" s="44"/>
       <c r="P84" s="50"/>
     </row>
@@ -3505,35 +3699,35 @@
       <c r="H85" s="47"/>
       <c r="I85" s="47"/>
       <c r="J85" s="48"/>
-      <c r="K85" s="81" t="s">
+      <c r="K85" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="L85" s="82"/>
-      <c r="M85" s="82"/>
-      <c r="N85" s="82"/>
-      <c r="O85" s="82"/>
-      <c r="P85" s="83"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="134"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
-      <c r="C86" s="68" t="s">
+      <c r="C86" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="D86" s="69"/>
-      <c r="E86" s="70" t="s">
+      <c r="D86" s="109"/>
+      <c r="E86" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="72"/>
-      <c r="K86" s="71" t="s">
+      <c r="F86" s="111"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="112"/>
+      <c r="K86" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
+      <c r="L86" s="111"/>
+      <c r="M86" s="111"/>
+      <c r="N86" s="111"/>
       <c r="O86" s="42"/>
       <c r="P86" s="49"/>
     </row>
@@ -3547,14 +3741,14 @@
       <c r="H87" s="44"/>
       <c r="I87" s="44"/>
       <c r="J87" s="45"/>
-      <c r="K87" s="74" t="s">
+      <c r="K87" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="77"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="113"/>
+      <c r="N87" s="113"/>
+      <c r="O87" s="113"/>
+      <c r="P87" s="121"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
@@ -3566,14 +3760,14 @@
       <c r="H88" s="44"/>
       <c r="I88" s="44"/>
       <c r="J88" s="45"/>
-      <c r="K88" s="74" t="s">
+      <c r="K88" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="77"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="113"/>
+      <c r="N88" s="113"/>
+      <c r="O88" s="113"/>
+      <c r="P88" s="121"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
@@ -3585,14 +3779,14 @@
       <c r="H89" s="44"/>
       <c r="I89" s="44"/>
       <c r="J89" s="45"/>
-      <c r="K89" s="74" t="s">
+      <c r="K89" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="77"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113"/>
+      <c r="O89" s="113"/>
+      <c r="P89" s="121"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
@@ -3604,14 +3798,14 @@
       <c r="H90" s="44"/>
       <c r="I90" s="44"/>
       <c r="J90" s="45"/>
-      <c r="K90" s="74" t="s">
+      <c r="K90" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="77"/>
+      <c r="L90" s="113"/>
+      <c r="M90" s="113"/>
+      <c r="N90" s="113"/>
+      <c r="O90" s="113"/>
+      <c r="P90" s="121"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
@@ -3623,14 +3817,14 @@
       <c r="H91" s="44"/>
       <c r="I91" s="44"/>
       <c r="J91" s="45"/>
-      <c r="K91" s="74" t="s">
+      <c r="K91" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="77"/>
+      <c r="L91" s="113"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="113"/>
+      <c r="O91" s="113"/>
+      <c r="P91" s="121"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
@@ -3642,14 +3836,14 @@
       <c r="H92" s="44"/>
       <c r="I92" s="44"/>
       <c r="J92" s="45"/>
-      <c r="K92" s="74" t="s">
+      <c r="K92" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="77"/>
+      <c r="L92" s="113"/>
+      <c r="M92" s="113"/>
+      <c r="N92" s="113"/>
+      <c r="O92" s="113"/>
+      <c r="P92" s="121"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
@@ -3661,14 +3855,14 @@
       <c r="H93" s="44"/>
       <c r="I93" s="44"/>
       <c r="J93" s="45"/>
-      <c r="K93" s="74" t="s">
+      <c r="K93" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="77"/>
+      <c r="L93" s="113"/>
+      <c r="M93" s="113"/>
+      <c r="N93" s="113"/>
+      <c r="O93" s="113"/>
+      <c r="P93" s="121"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
@@ -3680,14 +3874,14 @@
       <c r="H94" s="44"/>
       <c r="I94" s="44"/>
       <c r="J94" s="45"/>
-      <c r="K94" s="74" t="s">
+      <c r="K94" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="77"/>
+      <c r="L94" s="113"/>
+      <c r="M94" s="113"/>
+      <c r="N94" s="113"/>
+      <c r="O94" s="113"/>
+      <c r="P94" s="121"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
@@ -3699,35 +3893,35 @@
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
       <c r="J95" s="48"/>
-      <c r="K95" s="81" t="s">
+      <c r="K95" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="L95" s="82"/>
-      <c r="M95" s="82"/>
-      <c r="N95" s="82"/>
-      <c r="O95" s="82"/>
-      <c r="P95" s="83"/>
+      <c r="L95" s="114"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="114"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="134"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
-      <c r="C96" s="68" t="s">
+      <c r="C96" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="69"/>
-      <c r="E96" s="70" t="s">
+      <c r="D96" s="109"/>
+      <c r="E96" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="72"/>
-      <c r="K96" s="153" t="s">
+      <c r="F96" s="111"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="111"/>
+      <c r="I96" s="111"/>
+      <c r="J96" s="112"/>
+      <c r="K96" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L96" s="153"/>
-      <c r="M96" s="153"/>
-      <c r="N96" s="153"/>
+      <c r="L96" s="135"/>
+      <c r="M96" s="135"/>
+      <c r="N96" s="135"/>
       <c r="O96" s="42"/>
       <c r="P96" s="49"/>
     </row>
@@ -3735,18 +3929,18 @@
       <c r="B97" s="7"/>
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="86"/>
-      <c r="K97" s="98" t="s">
+      <c r="E97" s="125"/>
+      <c r="F97" s="126"/>
+      <c r="G97" s="126"/>
+      <c r="H97" s="126"/>
+      <c r="I97" s="126"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="L97" s="98"/>
-      <c r="M97" s="98"/>
-      <c r="N97" s="98"/>
+      <c r="L97" s="122"/>
+      <c r="M97" s="122"/>
+      <c r="N97" s="122"/>
       <c r="O97" s="44"/>
       <c r="P97" s="50"/>
     </row>
@@ -3760,12 +3954,12 @@
       <c r="H98" s="44"/>
       <c r="I98" s="44"/>
       <c r="J98" s="45"/>
-      <c r="K98" s="98" t="s">
+      <c r="K98" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="L98" s="98"/>
-      <c r="M98" s="98"/>
-      <c r="N98" s="98"/>
+      <c r="L98" s="122"/>
+      <c r="M98" s="122"/>
+      <c r="N98" s="122"/>
       <c r="O98" s="44"/>
       <c r="P98" s="50"/>
     </row>
@@ -3779,35 +3973,35 @@
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
       <c r="J99" s="48"/>
-      <c r="K99" s="154" t="s">
+      <c r="K99" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="L99" s="154"/>
-      <c r="M99" s="154"/>
-      <c r="N99" s="154"/>
+      <c r="L99" s="136"/>
+      <c r="M99" s="136"/>
+      <c r="N99" s="136"/>
       <c r="O99" s="47"/>
       <c r="P99" s="51"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
-      <c r="C100" s="68" t="s">
+      <c r="C100" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="70" t="s">
+      <c r="D100" s="109"/>
+      <c r="E100" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="72"/>
-      <c r="K100" s="71" t="s">
+      <c r="F100" s="111"/>
+      <c r="G100" s="111"/>
+      <c r="H100" s="111"/>
+      <c r="I100" s="111"/>
+      <c r="J100" s="112"/>
+      <c r="K100" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="L100" s="71"/>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71"/>
+      <c r="L100" s="111"/>
+      <c r="M100" s="111"/>
+      <c r="N100" s="111"/>
       <c r="O100" s="42"/>
       <c r="P100" s="49"/>
     </row>
@@ -3821,12 +4015,12 @@
       <c r="H101" s="44"/>
       <c r="I101" s="44"/>
       <c r="J101" s="45"/>
-      <c r="K101" s="75" t="s">
+      <c r="K101" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="L101" s="75"/>
-      <c r="M101" s="75"/>
-      <c r="N101" s="75"/>
+      <c r="L101" s="113"/>
+      <c r="M101" s="113"/>
+      <c r="N101" s="113"/>
       <c r="O101" s="44"/>
       <c r="P101" s="50"/>
     </row>
@@ -3840,12 +4034,12 @@
       <c r="H102" s="44"/>
       <c r="I102" s="44"/>
       <c r="J102" s="45"/>
-      <c r="K102" s="75" t="s">
+      <c r="K102" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
-      <c r="N102" s="75"/>
+      <c r="L102" s="113"/>
+      <c r="M102" s="113"/>
+      <c r="N102" s="113"/>
       <c r="O102" s="44"/>
       <c r="P102" s="50"/>
     </row>
@@ -3859,12 +4053,12 @@
       <c r="H103" s="44"/>
       <c r="I103" s="44"/>
       <c r="J103" s="45"/>
-      <c r="K103" s="75" t="s">
+      <c r="K103" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="L103" s="75"/>
-      <c r="M103" s="75"/>
-      <c r="N103" s="75"/>
+      <c r="L103" s="113"/>
+      <c r="M103" s="113"/>
+      <c r="N103" s="113"/>
       <c r="O103" s="44"/>
       <c r="P103" s="50"/>
     </row>
@@ -3878,12 +4072,12 @@
       <c r="H104" s="44"/>
       <c r="I104" s="44"/>
       <c r="J104" s="45"/>
-      <c r="K104" s="75" t="s">
+      <c r="K104" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="113"/>
+      <c r="N104" s="113"/>
       <c r="O104" s="44"/>
       <c r="P104" s="50"/>
     </row>
@@ -3897,35 +4091,35 @@
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
       <c r="J105" s="48"/>
-      <c r="K105" s="82" t="s">
+      <c r="K105" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="L105" s="82"/>
-      <c r="M105" s="82"/>
-      <c r="N105" s="82"/>
+      <c r="L105" s="114"/>
+      <c r="M105" s="114"/>
+      <c r="N105" s="114"/>
       <c r="O105" s="47"/>
       <c r="P105" s="51"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
-      <c r="C106" s="68" t="s">
+      <c r="C106" s="108" t="s">
         <v>159</v>
       </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="70" t="s">
+      <c r="D106" s="109"/>
+      <c r="E106" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="72"/>
-      <c r="K106" s="153" t="s">
+      <c r="F106" s="111"/>
+      <c r="G106" s="111"/>
+      <c r="H106" s="111"/>
+      <c r="I106" s="111"/>
+      <c r="J106" s="112"/>
+      <c r="K106" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="135"/>
+      <c r="N106" s="135"/>
       <c r="O106" s="42"/>
       <c r="P106" s="49"/>
     </row>
@@ -3933,20 +4127,20 @@
       <c r="B107" s="7"/>
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
-      <c r="E107" s="74" t="s">
+      <c r="E107" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="75"/>
-      <c r="G107" s="75"/>
-      <c r="H107" s="75"/>
-      <c r="I107" s="75"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="75" t="s">
+      <c r="F107" s="113"/>
+      <c r="G107" s="113"/>
+      <c r="H107" s="113"/>
+      <c r="I107" s="113"/>
+      <c r="J107" s="131"/>
+      <c r="K107" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="L107" s="75"/>
-      <c r="M107" s="75"/>
-      <c r="N107" s="75"/>
+      <c r="L107" s="113"/>
+      <c r="M107" s="113"/>
+      <c r="N107" s="113"/>
       <c r="O107" s="44"/>
       <c r="P107" s="50"/>
     </row>
@@ -3960,12 +4154,12 @@
       <c r="H108" s="44"/>
       <c r="I108" s="44"/>
       <c r="J108" s="45"/>
-      <c r="K108" s="75" t="s">
+      <c r="K108" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="L108" s="75"/>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
+      <c r="L108" s="113"/>
+      <c r="M108" s="113"/>
+      <c r="N108" s="113"/>
       <c r="O108" s="44"/>
       <c r="P108" s="50"/>
     </row>
@@ -3979,12 +4173,12 @@
       <c r="H109" s="44"/>
       <c r="I109" s="44"/>
       <c r="J109" s="45"/>
-      <c r="K109" s="75" t="s">
+      <c r="K109" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
+      <c r="L109" s="113"/>
+      <c r="M109" s="113"/>
+      <c r="N109" s="113"/>
       <c r="O109" s="44"/>
       <c r="P109" s="50"/>
     </row>
@@ -3998,12 +4192,12 @@
       <c r="H110" s="44"/>
       <c r="I110" s="44"/>
       <c r="J110" s="45"/>
-      <c r="K110" s="75" t="s">
+      <c r="K110" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="L110" s="75"/>
-      <c r="M110" s="75"/>
-      <c r="N110" s="75"/>
+      <c r="L110" s="113"/>
+      <c r="M110" s="113"/>
+      <c r="N110" s="113"/>
       <c r="O110" s="44"/>
       <c r="P110" s="50"/>
     </row>
@@ -4017,12 +4211,12 @@
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
       <c r="J111" s="45"/>
-      <c r="K111" s="75" t="s">
+      <c r="K111" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
+      <c r="L111" s="113"/>
+      <c r="M111" s="113"/>
+      <c r="N111" s="113"/>
       <c r="O111" s="44"/>
       <c r="P111" s="50"/>
     </row>
@@ -4036,12 +4230,12 @@
       <c r="H112" s="44"/>
       <c r="I112" s="44"/>
       <c r="J112" s="45"/>
-      <c r="K112" s="75" t="s">
+      <c r="K112" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="L112" s="75"/>
-      <c r="M112" s="75"/>
-      <c r="N112" s="75"/>
+      <c r="L112" s="113"/>
+      <c r="M112" s="113"/>
+      <c r="N112" s="113"/>
       <c r="O112" s="44"/>
       <c r="P112" s="50"/>
     </row>
@@ -4055,35 +4249,35 @@
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
       <c r="J113" s="48"/>
-      <c r="K113" s="82" t="s">
+      <c r="K113" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="L113" s="82"/>
-      <c r="M113" s="82"/>
-      <c r="N113" s="82"/>
+      <c r="L113" s="114"/>
+      <c r="M113" s="114"/>
+      <c r="N113" s="114"/>
       <c r="O113" s="47"/>
       <c r="P113" s="51"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
-      <c r="C114" s="68" t="s">
+      <c r="C114" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="D114" s="69"/>
-      <c r="E114" s="70" t="s">
+      <c r="D114" s="109"/>
+      <c r="E114" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="F114" s="71"/>
-      <c r="G114" s="71"/>
-      <c r="H114" s="71"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="72"/>
-      <c r="K114" s="71" t="s">
+      <c r="F114" s="111"/>
+      <c r="G114" s="111"/>
+      <c r="H114" s="111"/>
+      <c r="I114" s="111"/>
+      <c r="J114" s="112"/>
+      <c r="K114" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="L114" s="71"/>
-      <c r="M114" s="71"/>
-      <c r="N114" s="71"/>
+      <c r="L114" s="111"/>
+      <c r="M114" s="111"/>
+      <c r="N114" s="111"/>
       <c r="O114" s="42"/>
       <c r="P114" s="49"/>
     </row>
@@ -4097,35 +4291,35 @@
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
       <c r="J115" s="48"/>
-      <c r="K115" s="81" t="s">
+      <c r="K115" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="L115" s="82"/>
-      <c r="M115" s="82"/>
-      <c r="N115" s="82"/>
-      <c r="O115" s="82"/>
-      <c r="P115" s="83"/>
+      <c r="L115" s="114"/>
+      <c r="M115" s="114"/>
+      <c r="N115" s="114"/>
+      <c r="O115" s="114"/>
+      <c r="P115" s="134"/>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
-      <c r="C116" s="146" t="s">
+      <c r="C116" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="D116" s="147"/>
-      <c r="E116" s="148" t="s">
+      <c r="D116" s="138"/>
+      <c r="E116" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="F116" s="149"/>
-      <c r="G116" s="149"/>
-      <c r="H116" s="149"/>
-      <c r="I116" s="149"/>
-      <c r="J116" s="150"/>
-      <c r="K116" s="149" t="s">
+      <c r="F116" s="140"/>
+      <c r="G116" s="140"/>
+      <c r="H116" s="140"/>
+      <c r="I116" s="140"/>
+      <c r="J116" s="141"/>
+      <c r="K116" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="L116" s="149"/>
-      <c r="M116" s="149"/>
-      <c r="N116" s="149"/>
+      <c r="L116" s="140"/>
+      <c r="M116" s="140"/>
+      <c r="N116" s="140"/>
       <c r="O116" s="66"/>
       <c r="P116" s="67"/>
     </row>
@@ -4148,17 +4342,17 @@
     </row>
     <row r="118" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
-      <c r="C118" s="151" t="s">
+      <c r="C118" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="D118" s="151"/>
-      <c r="E118" s="151"/>
-      <c r="F118" s="151"/>
-      <c r="G118" s="151"/>
-      <c r="H118" s="151"/>
-      <c r="I118" s="151"/>
-      <c r="J118" s="151"/>
-      <c r="K118" s="151"/>
+      <c r="D118" s="90"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
+      <c r="H118" s="90"/>
+      <c r="I118" s="90"/>
+      <c r="J118" s="90"/>
+      <c r="K118" s="90"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -4183,19 +4377,19 @@
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
-      <c r="C120" s="128" t="s">
+      <c r="C120" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D120" s="128"/>
-      <c r="E120" s="128"/>
-      <c r="F120" s="129">
+      <c r="D120" s="92"/>
+      <c r="E120" s="92"/>
+      <c r="F120" s="93">
         <v>2</v>
       </c>
-      <c r="G120" s="130"/>
-      <c r="H120" s="130"/>
-      <c r="I120" s="130"/>
-      <c r="J120" s="130"/>
-      <c r="K120" s="152"/>
+      <c r="G120" s="94"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="94"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="142"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
@@ -4221,19 +4415,19 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
-      <c r="C122" s="128" t="s">
+      <c r="C122" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="128"/>
-      <c r="E122" s="128"/>
-      <c r="F122" s="136" t="s">
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="G122" s="136"/>
-      <c r="H122" s="136"/>
-      <c r="I122" s="136"/>
-      <c r="J122" s="136"/>
-      <c r="K122" s="136"/>
+      <c r="G122" s="155"/>
+      <c r="H122" s="155"/>
+      <c r="I122" s="155"/>
+      <c r="J122" s="155"/>
+      <c r="K122" s="155"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
@@ -4259,19 +4453,19 @@
     </row>
     <row r="124" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
-      <c r="C124" s="101" t="s">
+      <c r="C124" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="102"/>
-      <c r="E124" s="103"/>
-      <c r="F124" s="104" t="s">
+      <c r="D124" s="105"/>
+      <c r="E124" s="106"/>
+      <c r="F124" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="135"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="99"/>
+      <c r="K124" s="150"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
@@ -4280,15 +4474,15 @@
     </row>
     <row r="125" spans="2:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
-      <c r="C125" s="114"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="116"/>
-      <c r="F125" s="120"/>
-      <c r="G125" s="121"/>
-      <c r="H125" s="121"/>
-      <c r="I125" s="121"/>
-      <c r="J125" s="121"/>
-      <c r="K125" s="126"/>
+      <c r="C125" s="144"/>
+      <c r="D125" s="145"/>
+      <c r="E125" s="146"/>
+      <c r="F125" s="151"/>
+      <c r="G125" s="152"/>
+      <c r="H125" s="152"/>
+      <c r="I125" s="152"/>
+      <c r="J125" s="152"/>
+      <c r="K125" s="153"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
       <c r="N125" s="8"/>
@@ -4297,17 +4491,17 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="115"/>
-      <c r="E126" s="116"/>
-      <c r="F126" s="137" t="s">
+      <c r="C126" s="144"/>
+      <c r="D126" s="145"/>
+      <c r="E126" s="146"/>
+      <c r="F126" s="156" t="s">
         <v>173</v>
       </c>
-      <c r="G126" s="138"/>
-      <c r="H126" s="138"/>
-      <c r="I126" s="138"/>
-      <c r="J126" s="138"/>
-      <c r="K126" s="139"/>
+      <c r="G126" s="157"/>
+      <c r="H126" s="157"/>
+      <c r="I126" s="157"/>
+      <c r="J126" s="157"/>
+      <c r="K126" s="158"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -4316,17 +4510,17 @@
     </row>
     <row r="127" spans="2:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
-      <c r="C127" s="114"/>
-      <c r="D127" s="115"/>
-      <c r="E127" s="116"/>
-      <c r="F127" s="140" t="s">
+      <c r="C127" s="144"/>
+      <c r="D127" s="145"/>
+      <c r="E127" s="146"/>
+      <c r="F127" s="159" t="s">
         <v>174</v>
       </c>
-      <c r="G127" s="141"/>
-      <c r="H127" s="141"/>
-      <c r="I127" s="141"/>
-      <c r="J127" s="141"/>
-      <c r="K127" s="142"/>
+      <c r="G127" s="160"/>
+      <c r="H127" s="160"/>
+      <c r="I127" s="160"/>
+      <c r="J127" s="160"/>
+      <c r="K127" s="161"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -4335,17 +4529,17 @@
     </row>
     <row r="128" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
-      <c r="C128" s="117"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="119"/>
-      <c r="F128" s="143" t="s">
+      <c r="C128" s="147"/>
+      <c r="D128" s="148"/>
+      <c r="E128" s="149"/>
+      <c r="F128" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="G128" s="144"/>
-      <c r="H128" s="144"/>
-      <c r="I128" s="144"/>
-      <c r="J128" s="144"/>
-      <c r="K128" s="145"/>
+      <c r="G128" s="163"/>
+      <c r="H128" s="163"/>
+      <c r="I128" s="163"/>
+      <c r="J128" s="163"/>
+      <c r="K128" s="164"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -4354,19 +4548,19 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
-      <c r="C129" s="101" t="s">
+      <c r="C129" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="102"/>
-      <c r="E129" s="103"/>
-      <c r="F129" s="104" t="s">
+      <c r="D129" s="105"/>
+      <c r="E129" s="106"/>
+      <c r="F129" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G129" s="105"/>
-      <c r="H129" s="105"/>
-      <c r="I129" s="105"/>
-      <c r="J129" s="105"/>
-      <c r="K129" s="135"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="150"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -4375,17 +4569,17 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
-      <c r="C130" s="114"/>
-      <c r="D130" s="115"/>
-      <c r="E130" s="116"/>
-      <c r="F130" s="120" t="s">
+      <c r="C130" s="144"/>
+      <c r="D130" s="145"/>
+      <c r="E130" s="146"/>
+      <c r="F130" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="G130" s="121"/>
-      <c r="H130" s="121"/>
-      <c r="I130" s="121"/>
-      <c r="J130" s="121"/>
-      <c r="K130" s="126"/>
+      <c r="G130" s="152"/>
+      <c r="H130" s="152"/>
+      <c r="I130" s="152"/>
+      <c r="J130" s="152"/>
+      <c r="K130" s="153"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
@@ -4394,17 +4588,17 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
-      <c r="C131" s="117"/>
-      <c r="D131" s="118"/>
-      <c r="E131" s="119"/>
-      <c r="F131" s="107" t="s">
+      <c r="C131" s="147"/>
+      <c r="D131" s="148"/>
+      <c r="E131" s="149"/>
+      <c r="F131" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="G131" s="108"/>
-      <c r="H131" s="108"/>
-      <c r="I131" s="108"/>
-      <c r="J131" s="108"/>
-      <c r="K131" s="134"/>
+      <c r="G131" s="102"/>
+      <c r="H131" s="102"/>
+      <c r="I131" s="102"/>
+      <c r="J131" s="102"/>
+      <c r="K131" s="154"/>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
@@ -4413,19 +4607,19 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
-      <c r="C132" s="101" t="s">
+      <c r="C132" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="102"/>
-      <c r="E132" s="103"/>
-      <c r="F132" s="104" t="s">
+      <c r="D132" s="105"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="G132" s="105"/>
-      <c r="H132" s="105"/>
-      <c r="I132" s="105"/>
-      <c r="J132" s="105"/>
-      <c r="K132" s="135"/>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
+      <c r="I132" s="99"/>
+      <c r="J132" s="99"/>
+      <c r="K132" s="150"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
@@ -4437,12 +4631,12 @@
       <c r="C133" s="17"/>
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="107"/>
-      <c r="G133" s="108"/>
-      <c r="H133" s="108"/>
-      <c r="I133" s="108"/>
-      <c r="J133" s="108"/>
-      <c r="K133" s="134"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="102"/>
+      <c r="H133" s="102"/>
+      <c r="I133" s="102"/>
+      <c r="J133" s="102"/>
+      <c r="K133" s="154"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
@@ -4483,110 +4677,110 @@
     </row>
     <row r="136" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
-      <c r="C136" s="110" t="s">
+      <c r="C136" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="111"/>
-      <c r="E136" s="110" t="s">
+      <c r="D136" s="169"/>
+      <c r="E136" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="112"/>
-      <c r="G136" s="112"/>
-      <c r="H136" s="112"/>
-      <c r="I136" s="112"/>
-      <c r="J136" s="111"/>
-      <c r="K136" s="110" t="s">
+      <c r="F136" s="170"/>
+      <c r="G136" s="170"/>
+      <c r="H136" s="170"/>
+      <c r="I136" s="170"/>
+      <c r="J136" s="169"/>
+      <c r="K136" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="L136" s="112"/>
-      <c r="M136" s="112"/>
-      <c r="N136" s="112"/>
-      <c r="O136" s="112"/>
-      <c r="P136" s="113"/>
+      <c r="L136" s="170"/>
+      <c r="M136" s="170"/>
+      <c r="N136" s="170"/>
+      <c r="O136" s="170"/>
+      <c r="P136" s="171"/>
     </row>
     <row r="137" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
-      <c r="C137" s="68" t="s">
+      <c r="C137" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="69"/>
-      <c r="E137" s="70" t="s">
+      <c r="D137" s="109"/>
+      <c r="E137" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="71"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="70" t="s">
+      <c r="F137" s="111"/>
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
+      <c r="I137" s="111"/>
+      <c r="J137" s="112"/>
+      <c r="K137" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="L137" s="71"/>
-      <c r="M137" s="71"/>
-      <c r="N137" s="71"/>
-      <c r="O137" s="71"/>
-      <c r="P137" s="73"/>
+      <c r="L137" s="111"/>
+      <c r="M137" s="111"/>
+      <c r="N137" s="111"/>
+      <c r="O137" s="111"/>
+      <c r="P137" s="120"/>
     </row>
     <row r="138" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" s="20"/>
       <c r="D138" s="21"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="75"/>
-      <c r="G138" s="75"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="75"/>
-      <c r="J138" s="76"/>
-      <c r="K138" s="74" t="s">
+      <c r="E138" s="130"/>
+      <c r="F138" s="113"/>
+      <c r="G138" s="113"/>
+      <c r="H138" s="113"/>
+      <c r="I138" s="113"/>
+      <c r="J138" s="131"/>
+      <c r="K138" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="L138" s="75"/>
-      <c r="M138" s="75"/>
-      <c r="N138" s="75"/>
-      <c r="O138" s="75"/>
-      <c r="P138" s="77"/>
+      <c r="L138" s="113"/>
+      <c r="M138" s="113"/>
+      <c r="N138" s="113"/>
+      <c r="O138" s="113"/>
+      <c r="P138" s="121"/>
     </row>
     <row r="139" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139" s="22"/>
       <c r="D139" s="23"/>
-      <c r="E139" s="81"/>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82"/>
-      <c r="H139" s="82"/>
-      <c r="I139" s="82"/>
-      <c r="J139" s="87"/>
-      <c r="K139" s="81" t="s">
+      <c r="E139" s="129"/>
+      <c r="F139" s="114"/>
+      <c r="G139" s="114"/>
+      <c r="H139" s="114"/>
+      <c r="I139" s="114"/>
+      <c r="J139" s="172"/>
+      <c r="K139" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L139" s="82"/>
-      <c r="M139" s="82"/>
-      <c r="N139" s="82"/>
-      <c r="O139" s="82"/>
-      <c r="P139" s="83"/>
+      <c r="L139" s="114"/>
+      <c r="M139" s="114"/>
+      <c r="N139" s="114"/>
+      <c r="O139" s="114"/>
+      <c r="P139" s="134"/>
     </row>
     <row r="140" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
-      <c r="C140" s="68" t="s">
+      <c r="C140" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="69"/>
-      <c r="E140" s="70" t="s">
+      <c r="D140" s="109"/>
+      <c r="E140" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
-      <c r="H140" s="71"/>
-      <c r="I140" s="71"/>
-      <c r="J140" s="72"/>
-      <c r="K140" s="70" t="s">
+      <c r="F140" s="111"/>
+      <c r="G140" s="111"/>
+      <c r="H140" s="111"/>
+      <c r="I140" s="111"/>
+      <c r="J140" s="112"/>
+      <c r="K140" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L140" s="71"/>
-      <c r="M140" s="71"/>
-      <c r="N140" s="71"/>
-      <c r="O140" s="71"/>
-      <c r="P140" s="73"/>
+      <c r="L140" s="111"/>
+      <c r="M140" s="111"/>
+      <c r="N140" s="111"/>
+      <c r="O140" s="111"/>
+      <c r="P140" s="120"/>
     </row>
     <row r="141" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
@@ -4598,35 +4792,35 @@
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
       <c r="J141" s="28"/>
-      <c r="K141" s="97" t="s">
+      <c r="K141" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="L141" s="98"/>
-      <c r="M141" s="98"/>
-      <c r="N141" s="98"/>
-      <c r="O141" s="98"/>
-      <c r="P141" s="99"/>
+      <c r="L141" s="122"/>
+      <c r="M141" s="122"/>
+      <c r="N141" s="122"/>
+      <c r="O141" s="122"/>
+      <c r="P141" s="166"/>
     </row>
     <row r="142" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
-      <c r="C142" s="132"/>
-      <c r="D142" s="133"/>
-      <c r="E142" s="97" t="s">
+      <c r="C142" s="123"/>
+      <c r="D142" s="124"/>
+      <c r="E142" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98"/>
-      <c r="H142" s="98"/>
-      <c r="I142" s="98"/>
-      <c r="J142" s="100"/>
-      <c r="K142" s="97" t="s">
+      <c r="F142" s="122"/>
+      <c r="G142" s="122"/>
+      <c r="H142" s="122"/>
+      <c r="I142" s="122"/>
+      <c r="J142" s="167"/>
+      <c r="K142" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="L142" s="98"/>
-      <c r="M142" s="98"/>
-      <c r="N142" s="98"/>
-      <c r="O142" s="98"/>
-      <c r="P142" s="99"/>
+      <c r="L142" s="122"/>
+      <c r="M142" s="122"/>
+      <c r="N142" s="122"/>
+      <c r="O142" s="122"/>
+      <c r="P142" s="166"/>
     </row>
     <row r="143" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
@@ -4638,81 +4832,81 @@
       <c r="H143" s="30"/>
       <c r="I143" s="30"/>
       <c r="J143" s="31"/>
-      <c r="K143" s="81" t="s">
+      <c r="K143" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="L143" s="82"/>
-      <c r="M143" s="82"/>
-      <c r="N143" s="82"/>
-      <c r="O143" s="82"/>
-      <c r="P143" s="83"/>
+      <c r="L143" s="114"/>
+      <c r="M143" s="114"/>
+      <c r="N143" s="114"/>
+      <c r="O143" s="114"/>
+      <c r="P143" s="134"/>
     </row>
     <row r="144" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
-      <c r="C144" s="68" t="s">
+      <c r="C144" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="69"/>
-      <c r="E144" s="70" t="s">
+      <c r="D144" s="109"/>
+      <c r="E144" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="72"/>
-      <c r="K144" s="70" t="s">
+      <c r="F144" s="111"/>
+      <c r="G144" s="111"/>
+      <c r="H144" s="111"/>
+      <c r="I144" s="111"/>
+      <c r="J144" s="112"/>
+      <c r="K144" s="110" t="s">
         <v>182</v>
       </c>
-      <c r="L144" s="71"/>
-      <c r="M144" s="71"/>
-      <c r="N144" s="71"/>
-      <c r="O144" s="71"/>
-      <c r="P144" s="73"/>
+      <c r="L144" s="111"/>
+      <c r="M144" s="111"/>
+      <c r="N144" s="111"/>
+      <c r="O144" s="111"/>
+      <c r="P144" s="120"/>
     </row>
     <row r="145" spans="2:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" s="22"/>
       <c r="D145" s="23"/>
-      <c r="E145" s="81" t="s">
+      <c r="E145" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="82"/>
-      <c r="I145" s="82"/>
-      <c r="J145" s="87"/>
-      <c r="K145" s="81" t="s">
+      <c r="F145" s="114"/>
+      <c r="G145" s="114"/>
+      <c r="H145" s="114"/>
+      <c r="I145" s="114"/>
+      <c r="J145" s="172"/>
+      <c r="K145" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="L145" s="82"/>
-      <c r="M145" s="82"/>
-      <c r="N145" s="82"/>
-      <c r="O145" s="82"/>
-      <c r="P145" s="83"/>
+      <c r="L145" s="114"/>
+      <c r="M145" s="114"/>
+      <c r="N145" s="114"/>
+      <c r="O145" s="114"/>
+      <c r="P145" s="134"/>
     </row>
     <row r="146" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
-      <c r="C146" s="68" t="s">
+      <c r="C146" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="69"/>
-      <c r="E146" s="70" t="s">
+      <c r="D146" s="109"/>
+      <c r="E146" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="F146" s="71"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="71"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="70" t="s">
+      <c r="F146" s="111"/>
+      <c r="G146" s="111"/>
+      <c r="H146" s="111"/>
+      <c r="I146" s="111"/>
+      <c r="J146" s="112"/>
+      <c r="K146" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="L146" s="71"/>
-      <c r="M146" s="71"/>
-      <c r="N146" s="71"/>
-      <c r="O146" s="71"/>
-      <c r="P146" s="73"/>
+      <c r="L146" s="111"/>
+      <c r="M146" s="111"/>
+      <c r="N146" s="111"/>
+      <c r="O146" s="111"/>
+      <c r="P146" s="120"/>
     </row>
     <row r="147" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
@@ -4724,14 +4918,14 @@
       <c r="H147" s="44"/>
       <c r="I147" s="44"/>
       <c r="J147" s="45"/>
-      <c r="K147" s="74" t="s">
+      <c r="K147" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="L147" s="75"/>
-      <c r="M147" s="75"/>
-      <c r="N147" s="75"/>
-      <c r="O147" s="75"/>
-      <c r="P147" s="77"/>
+      <c r="L147" s="113"/>
+      <c r="M147" s="113"/>
+      <c r="N147" s="113"/>
+      <c r="O147" s="113"/>
+      <c r="P147" s="121"/>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
@@ -4743,35 +4937,35 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="48"/>
-      <c r="K148" s="81"/>
-      <c r="L148" s="82"/>
-      <c r="M148" s="82"/>
-      <c r="N148" s="82"/>
+      <c r="K148" s="129"/>
+      <c r="L148" s="114"/>
+      <c r="M148" s="114"/>
+      <c r="N148" s="114"/>
       <c r="O148" s="47"/>
       <c r="P148" s="51"/>
     </row>
     <row r="149" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
-      <c r="C149" s="68" t="s">
+      <c r="C149" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="69"/>
-      <c r="E149" s="70" t="s">
+      <c r="D149" s="109"/>
+      <c r="E149" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F149" s="71"/>
-      <c r="G149" s="71"/>
-      <c r="H149" s="71"/>
-      <c r="I149" s="71"/>
-      <c r="J149" s="72"/>
-      <c r="K149" s="70" t="s">
+      <c r="F149" s="111"/>
+      <c r="G149" s="111"/>
+      <c r="H149" s="111"/>
+      <c r="I149" s="111"/>
+      <c r="J149" s="112"/>
+      <c r="K149" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L149" s="71"/>
-      <c r="M149" s="71"/>
-      <c r="N149" s="71"/>
-      <c r="O149" s="71"/>
-      <c r="P149" s="73"/>
+      <c r="L149" s="111"/>
+      <c r="M149" s="111"/>
+      <c r="N149" s="111"/>
+      <c r="O149" s="111"/>
+      <c r="P149" s="120"/>
     </row>
     <row r="150" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
@@ -4783,58 +4977,58 @@
       <c r="H150" s="44"/>
       <c r="I150" s="44"/>
       <c r="J150" s="45"/>
-      <c r="K150" s="74" t="s">
+      <c r="K150" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="L150" s="75"/>
-      <c r="M150" s="75"/>
-      <c r="N150" s="75"/>
-      <c r="O150" s="75"/>
-      <c r="P150" s="77"/>
+      <c r="L150" s="113"/>
+      <c r="M150" s="113"/>
+      <c r="N150" s="113"/>
+      <c r="O150" s="113"/>
+      <c r="P150" s="121"/>
     </row>
     <row r="151" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="22"/>
       <c r="D151" s="23"/>
-      <c r="E151" s="81" t="s">
+      <c r="E151" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="F151" s="82"/>
-      <c r="G151" s="82"/>
-      <c r="H151" s="82"/>
-      <c r="I151" s="82"/>
-      <c r="J151" s="87"/>
-      <c r="K151" s="81" t="s">
+      <c r="F151" s="114"/>
+      <c r="G151" s="114"/>
+      <c r="H151" s="114"/>
+      <c r="I151" s="114"/>
+      <c r="J151" s="172"/>
+      <c r="K151" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="L151" s="82"/>
-      <c r="M151" s="82"/>
-      <c r="N151" s="82"/>
-      <c r="O151" s="82"/>
-      <c r="P151" s="83"/>
+      <c r="L151" s="114"/>
+      <c r="M151" s="114"/>
+      <c r="N151" s="114"/>
+      <c r="O151" s="114"/>
+      <c r="P151" s="134"/>
     </row>
     <row r="152" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
-      <c r="C152" s="68" t="s">
+      <c r="C152" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D152" s="69"/>
-      <c r="E152" s="70" t="s">
+      <c r="D152" s="109"/>
+      <c r="E152" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="71"/>
-      <c r="J152" s="72"/>
-      <c r="K152" s="70" t="s">
+      <c r="F152" s="111"/>
+      <c r="G152" s="111"/>
+      <c r="H152" s="111"/>
+      <c r="I152" s="111"/>
+      <c r="J152" s="112"/>
+      <c r="K152" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L152" s="71"/>
-      <c r="M152" s="71"/>
-      <c r="N152" s="71"/>
-      <c r="O152" s="71"/>
-      <c r="P152" s="73"/>
+      <c r="L152" s="111"/>
+      <c r="M152" s="111"/>
+      <c r="N152" s="111"/>
+      <c r="O152" s="111"/>
+      <c r="P152" s="120"/>
     </row>
     <row r="153" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
@@ -4846,35 +5040,35 @@
       <c r="H153" s="44"/>
       <c r="I153" s="44"/>
       <c r="J153" s="45"/>
-      <c r="K153" s="74" t="s">
+      <c r="K153" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="L153" s="75"/>
-      <c r="M153" s="75"/>
-      <c r="N153" s="75"/>
-      <c r="O153" s="75"/>
-      <c r="P153" s="77"/>
+      <c r="L153" s="113"/>
+      <c r="M153" s="113"/>
+      <c r="N153" s="113"/>
+      <c r="O153" s="113"/>
+      <c r="P153" s="121"/>
     </row>
     <row r="154" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" s="20"/>
       <c r="D154" s="21"/>
-      <c r="E154" s="74" t="s">
+      <c r="E154" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="F154" s="75"/>
-      <c r="G154" s="75"/>
-      <c r="H154" s="75"/>
-      <c r="I154" s="75"/>
-      <c r="J154" s="76"/>
-      <c r="K154" s="74" t="s">
+      <c r="F154" s="113"/>
+      <c r="G154" s="113"/>
+      <c r="H154" s="113"/>
+      <c r="I154" s="113"/>
+      <c r="J154" s="131"/>
+      <c r="K154" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="L154" s="75"/>
-      <c r="M154" s="75"/>
-      <c r="N154" s="75"/>
-      <c r="O154" s="75"/>
-      <c r="P154" s="77"/>
+      <c r="L154" s="113"/>
+      <c r="M154" s="113"/>
+      <c r="N154" s="113"/>
+      <c r="O154" s="113"/>
+      <c r="P154" s="121"/>
     </row>
     <row r="155" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
@@ -4886,56 +5080,56 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="48"/>
-      <c r="K155" s="81" t="s">
+      <c r="K155" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="L155" s="82"/>
-      <c r="M155" s="82"/>
-      <c r="N155" s="82"/>
-      <c r="O155" s="82"/>
-      <c r="P155" s="83"/>
+      <c r="L155" s="114"/>
+      <c r="M155" s="114"/>
+      <c r="N155" s="114"/>
+      <c r="O155" s="114"/>
+      <c r="P155" s="134"/>
     </row>
     <row r="156" spans="2:16" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
-      <c r="C156" s="68" t="s">
+      <c r="C156" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D156" s="69"/>
-      <c r="E156" s="70" t="s">
+      <c r="D156" s="109"/>
+      <c r="E156" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="F156" s="71"/>
-      <c r="G156" s="71"/>
-      <c r="H156" s="71"/>
-      <c r="I156" s="71"/>
-      <c r="J156" s="72"/>
-      <c r="K156" s="70" t="s">
+      <c r="F156" s="111"/>
+      <c r="G156" s="111"/>
+      <c r="H156" s="111"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="112"/>
+      <c r="K156" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="L156" s="71"/>
-      <c r="M156" s="71"/>
-      <c r="N156" s="71"/>
-      <c r="O156" s="71"/>
-      <c r="P156" s="73"/>
+      <c r="L156" s="111"/>
+      <c r="M156" s="111"/>
+      <c r="N156" s="111"/>
+      <c r="O156" s="111"/>
+      <c r="P156" s="120"/>
     </row>
     <row r="157" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
       <c r="D157" s="23"/>
-      <c r="E157" s="81" t="s">
+      <c r="E157" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F157" s="82"/>
-      <c r="G157" s="82"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="82"/>
-      <c r="J157" s="87"/>
-      <c r="K157" s="81"/>
-      <c r="L157" s="82"/>
-      <c r="M157" s="82"/>
-      <c r="N157" s="82"/>
-      <c r="O157" s="82"/>
-      <c r="P157" s="83"/>
+      <c r="F157" s="114"/>
+      <c r="G157" s="114"/>
+      <c r="H157" s="114"/>
+      <c r="I157" s="114"/>
+      <c r="J157" s="172"/>
+      <c r="K157" s="129"/>
+      <c r="L157" s="114"/>
+      <c r="M157" s="114"/>
+      <c r="N157" s="114"/>
+      <c r="O157" s="114"/>
+      <c r="P157" s="134"/>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
@@ -5005,17 +5199,17 @@
     </row>
     <row r="162" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
-      <c r="C162" s="127" t="s">
+      <c r="C162" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="D162" s="127"/>
-      <c r="E162" s="127"/>
-      <c r="F162" s="127"/>
-      <c r="G162" s="127"/>
-      <c r="H162" s="127"/>
-      <c r="I162" s="127"/>
-      <c r="J162" s="127"/>
-      <c r="K162" s="127"/>
+      <c r="D162" s="177"/>
+      <c r="E162" s="177"/>
+      <c r="F162" s="177"/>
+      <c r="G162" s="177"/>
+      <c r="H162" s="177"/>
+      <c r="I162" s="177"/>
+      <c r="J162" s="177"/>
+      <c r="K162" s="177"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
@@ -5040,24 +5234,24 @@
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
-      <c r="C164" s="128" t="s">
+      <c r="C164" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D164" s="128"/>
-      <c r="E164" s="128"/>
-      <c r="F164" s="129">
+      <c r="D164" s="92"/>
+      <c r="E164" s="92"/>
+      <c r="F164" s="93">
         <v>3</v>
       </c>
-      <c r="G164" s="130"/>
-      <c r="H164" s="130"/>
-      <c r="I164" s="130"/>
-      <c r="J164" s="130"/>
-      <c r="K164" s="130"/>
-      <c r="L164" s="130"/>
-      <c r="M164" s="130"/>
-      <c r="N164" s="130"/>
-      <c r="O164" s="130"/>
-      <c r="P164" s="131"/>
+      <c r="G164" s="94"/>
+      <c r="H164" s="94"/>
+      <c r="I164" s="94"/>
+      <c r="J164" s="94"/>
+      <c r="K164" s="94"/>
+      <c r="L164" s="94"/>
+      <c r="M164" s="94"/>
+      <c r="N164" s="94"/>
+      <c r="O164" s="94"/>
+      <c r="P164" s="95"/>
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
@@ -5078,24 +5272,24 @@
     </row>
     <row r="166" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
-      <c r="C166" s="128" t="s">
+      <c r="C166" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="128"/>
-      <c r="E166" s="128"/>
-      <c r="F166" s="129" t="s">
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="G166" s="130"/>
-      <c r="H166" s="130"/>
-      <c r="I166" s="130"/>
-      <c r="J166" s="130"/>
-      <c r="K166" s="130"/>
-      <c r="L166" s="130"/>
-      <c r="M166" s="130"/>
-      <c r="N166" s="130"/>
-      <c r="O166" s="130"/>
-      <c r="P166" s="131"/>
+      <c r="G166" s="94"/>
+      <c r="H166" s="94"/>
+      <c r="I166" s="94"/>
+      <c r="J166" s="94"/>
+      <c r="K166" s="94"/>
+      <c r="L166" s="94"/>
+      <c r="M166" s="94"/>
+      <c r="N166" s="94"/>
+      <c r="O166" s="94"/>
+      <c r="P166" s="95"/>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
@@ -5116,89 +5310,89 @@
     </row>
     <row r="168" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
-      <c r="C168" s="101" t="s">
+      <c r="C168" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="102"/>
-      <c r="E168" s="103"/>
-      <c r="F168" s="104" t="s">
+      <c r="D168" s="105"/>
+      <c r="E168" s="106"/>
+      <c r="F168" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="G168" s="105"/>
-      <c r="H168" s="105"/>
-      <c r="I168" s="105"/>
-      <c r="J168" s="105"/>
-      <c r="K168" s="105"/>
-      <c r="L168" s="105"/>
-      <c r="M168" s="105"/>
-      <c r="N168" s="105"/>
-      <c r="O168" s="105"/>
-      <c r="P168" s="106"/>
+      <c r="G168" s="99"/>
+      <c r="H168" s="99"/>
+      <c r="I168" s="99"/>
+      <c r="J168" s="99"/>
+      <c r="K168" s="99"/>
+      <c r="L168" s="99"/>
+      <c r="M168" s="99"/>
+      <c r="N168" s="99"/>
+      <c r="O168" s="99"/>
+      <c r="P168" s="100"/>
     </row>
     <row r="169" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
-      <c r="C169" s="114"/>
-      <c r="D169" s="115"/>
-      <c r="E169" s="116"/>
-      <c r="F169" s="120"/>
-      <c r="G169" s="121"/>
-      <c r="H169" s="121"/>
-      <c r="I169" s="121"/>
-      <c r="J169" s="121"/>
-      <c r="K169" s="121"/>
-      <c r="L169" s="121"/>
-      <c r="M169" s="121"/>
-      <c r="N169" s="121"/>
-      <c r="O169" s="121"/>
-      <c r="P169" s="122"/>
+      <c r="C169" s="144"/>
+      <c r="D169" s="145"/>
+      <c r="E169" s="146"/>
+      <c r="F169" s="151"/>
+      <c r="G169" s="152"/>
+      <c r="H169" s="152"/>
+      <c r="I169" s="152"/>
+      <c r="J169" s="152"/>
+      <c r="K169" s="152"/>
+      <c r="L169" s="152"/>
+      <c r="M169" s="152"/>
+      <c r="N169" s="152"/>
+      <c r="O169" s="152"/>
+      <c r="P169" s="173"/>
     </row>
     <row r="170" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
-      <c r="C170" s="114"/>
-      <c r="D170" s="115"/>
-      <c r="E170" s="116"/>
-      <c r="F170" s="120" t="s">
+      <c r="C170" s="144"/>
+      <c r="D170" s="145"/>
+      <c r="E170" s="146"/>
+      <c r="F170" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="121"/>
-      <c r="H170" s="121"/>
-      <c r="I170" s="121"/>
-      <c r="J170" s="121"/>
-      <c r="K170" s="121"/>
-      <c r="L170" s="121"/>
-      <c r="M170" s="121"/>
-      <c r="N170" s="121"/>
-      <c r="O170" s="121"/>
-      <c r="P170" s="122"/>
+      <c r="G170" s="152"/>
+      <c r="H170" s="152"/>
+      <c r="I170" s="152"/>
+      <c r="J170" s="152"/>
+      <c r="K170" s="152"/>
+      <c r="L170" s="152"/>
+      <c r="M170" s="152"/>
+      <c r="N170" s="152"/>
+      <c r="O170" s="152"/>
+      <c r="P170" s="173"/>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
-      <c r="C171" s="114"/>
-      <c r="D171" s="115"/>
-      <c r="E171" s="116"/>
-      <c r="F171" s="107"/>
-      <c r="G171" s="108"/>
-      <c r="H171" s="108"/>
-      <c r="I171" s="108"/>
-      <c r="J171" s="108"/>
-      <c r="K171" s="108"/>
-      <c r="L171" s="108"/>
-      <c r="M171" s="108"/>
-      <c r="N171" s="108"/>
-      <c r="O171" s="108"/>
-      <c r="P171" s="109"/>
+      <c r="C171" s="144"/>
+      <c r="D171" s="145"/>
+      <c r="E171" s="146"/>
+      <c r="F171" s="101"/>
+      <c r="G171" s="102"/>
+      <c r="H171" s="102"/>
+      <c r="I171" s="102"/>
+      <c r="J171" s="102"/>
+      <c r="K171" s="102"/>
+      <c r="L171" s="102"/>
+      <c r="M171" s="102"/>
+      <c r="N171" s="102"/>
+      <c r="O171" s="102"/>
+      <c r="P171" s="103"/>
     </row>
     <row r="172" spans="2:16" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
-      <c r="C172" s="117"/>
-      <c r="D172" s="118"/>
-      <c r="E172" s="119"/>
-      <c r="F172" s="123"/>
-      <c r="G172" s="124"/>
-      <c r="H172" s="124"/>
-      <c r="I172" s="124"/>
-      <c r="J172" s="124"/>
-      <c r="K172" s="125"/>
+      <c r="C172" s="147"/>
+      <c r="D172" s="148"/>
+      <c r="E172" s="149"/>
+      <c r="F172" s="174"/>
+      <c r="G172" s="175"/>
+      <c r="H172" s="175"/>
+      <c r="I172" s="175"/>
+      <c r="J172" s="175"/>
+      <c r="K172" s="176"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
       <c r="N172" s="8"/>
@@ -5207,53 +5401,53 @@
     </row>
     <row r="173" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
-      <c r="C173" s="101" t="s">
+      <c r="C173" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="102"/>
-      <c r="E173" s="103"/>
-      <c r="F173" s="104" t="s">
+      <c r="D173" s="105"/>
+      <c r="E173" s="106"/>
+      <c r="F173" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G173" s="105"/>
-      <c r="H173" s="105"/>
-      <c r="I173" s="105"/>
-      <c r="J173" s="105"/>
-      <c r="K173" s="105"/>
-      <c r="L173" s="105"/>
-      <c r="M173" s="105"/>
-      <c r="N173" s="105"/>
-      <c r="O173" s="105"/>
-      <c r="P173" s="106"/>
+      <c r="G173" s="99"/>
+      <c r="H173" s="99"/>
+      <c r="I173" s="99"/>
+      <c r="J173" s="99"/>
+      <c r="K173" s="99"/>
+      <c r="L173" s="99"/>
+      <c r="M173" s="99"/>
+      <c r="N173" s="99"/>
+      <c r="O173" s="99"/>
+      <c r="P173" s="100"/>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
-      <c r="C174" s="114"/>
-      <c r="D174" s="115"/>
-      <c r="E174" s="116"/>
-      <c r="F174" s="107"/>
-      <c r="G174" s="108"/>
-      <c r="H174" s="108"/>
-      <c r="I174" s="108"/>
-      <c r="J174" s="108"/>
-      <c r="K174" s="108"/>
-      <c r="L174" s="108"/>
-      <c r="M174" s="108"/>
-      <c r="N174" s="108"/>
-      <c r="O174" s="108"/>
-      <c r="P174" s="109"/>
+      <c r="C174" s="144"/>
+      <c r="D174" s="145"/>
+      <c r="E174" s="146"/>
+      <c r="F174" s="101"/>
+      <c r="G174" s="102"/>
+      <c r="H174" s="102"/>
+      <c r="I174" s="102"/>
+      <c r="J174" s="102"/>
+      <c r="K174" s="102"/>
+      <c r="L174" s="102"/>
+      <c r="M174" s="102"/>
+      <c r="N174" s="102"/>
+      <c r="O174" s="102"/>
+      <c r="P174" s="103"/>
     </row>
     <row r="175" spans="2:16" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
-      <c r="C175" s="117"/>
-      <c r="D175" s="118"/>
-      <c r="E175" s="119"/>
-      <c r="F175" s="120"/>
-      <c r="G175" s="121"/>
-      <c r="H175" s="121"/>
-      <c r="I175" s="121"/>
-      <c r="J175" s="121"/>
-      <c r="K175" s="126"/>
+      <c r="C175" s="147"/>
+      <c r="D175" s="148"/>
+      <c r="E175" s="149"/>
+      <c r="F175" s="151"/>
+      <c r="G175" s="152"/>
+      <c r="H175" s="152"/>
+      <c r="I175" s="152"/>
+      <c r="J175" s="152"/>
+      <c r="K175" s="153"/>
       <c r="L175" s="8"/>
       <c r="M175" s="8"/>
       <c r="N175" s="8"/>
@@ -5262,41 +5456,41 @@
     </row>
     <row r="176" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
-      <c r="C176" s="101" t="s">
+      <c r="C176" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="102"/>
-      <c r="E176" s="103"/>
-      <c r="F176" s="104" t="s">
+      <c r="D176" s="105"/>
+      <c r="E176" s="106"/>
+      <c r="F176" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="G176" s="105"/>
-      <c r="H176" s="105"/>
-      <c r="I176" s="105"/>
-      <c r="J176" s="105"/>
-      <c r="K176" s="105"/>
-      <c r="L176" s="105"/>
-      <c r="M176" s="105"/>
-      <c r="N176" s="105"/>
-      <c r="O176" s="105"/>
-      <c r="P176" s="106"/>
+      <c r="G176" s="99"/>
+      <c r="H176" s="99"/>
+      <c r="I176" s="99"/>
+      <c r="J176" s="99"/>
+      <c r="K176" s="99"/>
+      <c r="L176" s="99"/>
+      <c r="M176" s="99"/>
+      <c r="N176" s="99"/>
+      <c r="O176" s="99"/>
+      <c r="P176" s="100"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" s="17"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
-      <c r="F177" s="107"/>
-      <c r="G177" s="108"/>
-      <c r="H177" s="108"/>
-      <c r="I177" s="108"/>
-      <c r="J177" s="108"/>
-      <c r="K177" s="108"/>
-      <c r="L177" s="108"/>
-      <c r="M177" s="108"/>
-      <c r="N177" s="108"/>
-      <c r="O177" s="108"/>
-      <c r="P177" s="109"/>
+      <c r="F177" s="101"/>
+      <c r="G177" s="102"/>
+      <c r="H177" s="102"/>
+      <c r="I177" s="102"/>
+      <c r="J177" s="102"/>
+      <c r="K177" s="102"/>
+      <c r="L177" s="102"/>
+      <c r="M177" s="102"/>
+      <c r="N177" s="102"/>
+      <c r="O177" s="102"/>
+      <c r="P177" s="103"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
@@ -5348,110 +5542,110 @@
     </row>
     <row r="181" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
-      <c r="C181" s="110" t="s">
+      <c r="C181" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="111"/>
-      <c r="E181" s="110" t="s">
+      <c r="D181" s="169"/>
+      <c r="E181" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="F181" s="112"/>
-      <c r="G181" s="112"/>
-      <c r="H181" s="112"/>
-      <c r="I181" s="112"/>
-      <c r="J181" s="111"/>
-      <c r="K181" s="110" t="s">
+      <c r="F181" s="170"/>
+      <c r="G181" s="170"/>
+      <c r="H181" s="170"/>
+      <c r="I181" s="170"/>
+      <c r="J181" s="169"/>
+      <c r="K181" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="L181" s="112"/>
-      <c r="M181" s="112"/>
-      <c r="N181" s="112"/>
-      <c r="O181" s="112"/>
-      <c r="P181" s="113"/>
+      <c r="L181" s="170"/>
+      <c r="M181" s="170"/>
+      <c r="N181" s="170"/>
+      <c r="O181" s="170"/>
+      <c r="P181" s="171"/>
     </row>
     <row r="182" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
-      <c r="C182" s="68" t="s">
+      <c r="C182" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="69"/>
-      <c r="E182" s="70" t="s">
+      <c r="D182" s="109"/>
+      <c r="E182" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="F182" s="71"/>
-      <c r="G182" s="71"/>
-      <c r="H182" s="71"/>
-      <c r="I182" s="71"/>
-      <c r="J182" s="72"/>
-      <c r="K182" s="70" t="s">
+      <c r="F182" s="111"/>
+      <c r="G182" s="111"/>
+      <c r="H182" s="111"/>
+      <c r="I182" s="111"/>
+      <c r="J182" s="112"/>
+      <c r="K182" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="L182" s="71"/>
-      <c r="M182" s="71"/>
-      <c r="N182" s="71"/>
-      <c r="O182" s="71"/>
-      <c r="P182" s="73"/>
+      <c r="L182" s="111"/>
+      <c r="M182" s="111"/>
+      <c r="N182" s="111"/>
+      <c r="O182" s="111"/>
+      <c r="P182" s="120"/>
     </row>
     <row r="183" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="20"/>
       <c r="D183" s="21"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="75"/>
-      <c r="G183" s="75"/>
-      <c r="H183" s="75"/>
-      <c r="I183" s="75"/>
-      <c r="J183" s="76"/>
-      <c r="K183" s="74" t="s">
+      <c r="E183" s="130"/>
+      <c r="F183" s="113"/>
+      <c r="G183" s="113"/>
+      <c r="H183" s="113"/>
+      <c r="I183" s="113"/>
+      <c r="J183" s="131"/>
+      <c r="K183" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="L183" s="75"/>
-      <c r="M183" s="75"/>
-      <c r="N183" s="75"/>
-      <c r="O183" s="75"/>
-      <c r="P183" s="77"/>
+      <c r="L183" s="113"/>
+      <c r="M183" s="113"/>
+      <c r="N183" s="113"/>
+      <c r="O183" s="113"/>
+      <c r="P183" s="121"/>
     </row>
     <row r="184" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" s="22"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="81"/>
-      <c r="F184" s="82"/>
-      <c r="G184" s="82"/>
-      <c r="H184" s="82"/>
-      <c r="I184" s="82"/>
-      <c r="J184" s="87"/>
-      <c r="K184" s="81" t="s">
+      <c r="E184" s="129"/>
+      <c r="F184" s="114"/>
+      <c r="G184" s="114"/>
+      <c r="H184" s="114"/>
+      <c r="I184" s="114"/>
+      <c r="J184" s="172"/>
+      <c r="K184" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L184" s="82"/>
-      <c r="M184" s="82"/>
-      <c r="N184" s="82"/>
-      <c r="O184" s="82"/>
-      <c r="P184" s="83"/>
+      <c r="L184" s="114"/>
+      <c r="M184" s="114"/>
+      <c r="N184" s="114"/>
+      <c r="O184" s="114"/>
+      <c r="P184" s="134"/>
     </row>
     <row r="185" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
-      <c r="C185" s="68" t="s">
+      <c r="C185" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="69"/>
-      <c r="E185" s="70" t="s">
+      <c r="D185" s="109"/>
+      <c r="E185" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F185" s="71"/>
-      <c r="G185" s="71"/>
-      <c r="H185" s="71"/>
-      <c r="I185" s="71"/>
-      <c r="J185" s="72"/>
-      <c r="K185" s="70" t="s">
+      <c r="F185" s="111"/>
+      <c r="G185" s="111"/>
+      <c r="H185" s="111"/>
+      <c r="I185" s="111"/>
+      <c r="J185" s="112"/>
+      <c r="K185" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L185" s="71"/>
-      <c r="M185" s="71"/>
-      <c r="N185" s="71"/>
-      <c r="O185" s="71"/>
-      <c r="P185" s="73"/>
+      <c r="L185" s="111"/>
+      <c r="M185" s="111"/>
+      <c r="N185" s="111"/>
+      <c r="O185" s="111"/>
+      <c r="P185" s="120"/>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
@@ -5463,35 +5657,35 @@
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
       <c r="J186" s="28"/>
-      <c r="K186" s="97" t="s">
+      <c r="K186" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="L186" s="98"/>
-      <c r="M186" s="98"/>
-      <c r="N186" s="98"/>
-      <c r="O186" s="98"/>
-      <c r="P186" s="99"/>
+      <c r="L186" s="122"/>
+      <c r="M186" s="122"/>
+      <c r="N186" s="122"/>
+      <c r="O186" s="122"/>
+      <c r="P186" s="166"/>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="C187" s="24"/>
       <c r="D187" s="25"/>
-      <c r="E187" s="97" t="s">
+      <c r="E187" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="F187" s="98"/>
-      <c r="G187" s="98"/>
-      <c r="H187" s="98"/>
-      <c r="I187" s="98"/>
-      <c r="J187" s="100"/>
-      <c r="K187" s="97" t="s">
+      <c r="F187" s="122"/>
+      <c r="G187" s="122"/>
+      <c r="H187" s="122"/>
+      <c r="I187" s="122"/>
+      <c r="J187" s="167"/>
+      <c r="K187" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="L187" s="98"/>
-      <c r="M187" s="98"/>
-      <c r="N187" s="98"/>
-      <c r="O187" s="98"/>
-      <c r="P187" s="99"/>
+      <c r="L187" s="122"/>
+      <c r="M187" s="122"/>
+      <c r="N187" s="122"/>
+      <c r="O187" s="122"/>
+      <c r="P187" s="166"/>
     </row>
     <row r="188" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
@@ -5503,218 +5697,218 @@
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
       <c r="J188" s="31"/>
-      <c r="K188" s="81" t="s">
+      <c r="K188" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="L188" s="82"/>
-      <c r="M188" s="82"/>
-      <c r="N188" s="82"/>
-      <c r="O188" s="82"/>
-      <c r="P188" s="83"/>
+      <c r="L188" s="114"/>
+      <c r="M188" s="114"/>
+      <c r="N188" s="114"/>
+      <c r="O188" s="114"/>
+      <c r="P188" s="134"/>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
-      <c r="C189" s="68" t="s">
+      <c r="C189" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="D189" s="69"/>
-      <c r="E189" s="70" t="s">
+      <c r="D189" s="109"/>
+      <c r="E189" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="F189" s="71"/>
-      <c r="G189" s="71"/>
-      <c r="H189" s="71"/>
-      <c r="I189" s="71"/>
-      <c r="J189" s="72"/>
-      <c r="K189" s="70" t="s">
+      <c r="F189" s="111"/>
+      <c r="G189" s="111"/>
+      <c r="H189" s="111"/>
+      <c r="I189" s="111"/>
+      <c r="J189" s="112"/>
+      <c r="K189" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="L189" s="71"/>
-      <c r="M189" s="71"/>
-      <c r="N189" s="71"/>
-      <c r="O189" s="71"/>
-      <c r="P189" s="73"/>
+      <c r="L189" s="111"/>
+      <c r="M189" s="111"/>
+      <c r="N189" s="111"/>
+      <c r="O189" s="111"/>
+      <c r="P189" s="120"/>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="22"/>
       <c r="D190" s="23"/>
-      <c r="E190" s="81" t="s">
+      <c r="E190" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="F190" s="82"/>
-      <c r="G190" s="82"/>
-      <c r="H190" s="82"/>
-      <c r="I190" s="82"/>
-      <c r="J190" s="87"/>
-      <c r="K190" s="81"/>
-      <c r="L190" s="82"/>
-      <c r="M190" s="82"/>
-      <c r="N190" s="82"/>
-      <c r="O190" s="82"/>
-      <c r="P190" s="83"/>
+      <c r="F190" s="114"/>
+      <c r="G190" s="114"/>
+      <c r="H190" s="114"/>
+      <c r="I190" s="114"/>
+      <c r="J190" s="172"/>
+      <c r="K190" s="129"/>
+      <c r="L190" s="114"/>
+      <c r="M190" s="114"/>
+      <c r="N190" s="114"/>
+      <c r="O190" s="114"/>
+      <c r="P190" s="134"/>
     </row>
     <row r="191" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
-      <c r="C191" s="68" t="s">
+      <c r="C191" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="69"/>
-      <c r="E191" s="70" t="s">
+      <c r="D191" s="109"/>
+      <c r="E191" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F191" s="71"/>
-      <c r="G191" s="71"/>
-      <c r="H191" s="71"/>
-      <c r="I191" s="71"/>
-      <c r="J191" s="72"/>
-      <c r="K191" s="70" t="s">
+      <c r="F191" s="111"/>
+      <c r="G191" s="111"/>
+      <c r="H191" s="111"/>
+      <c r="I191" s="111"/>
+      <c r="J191" s="112"/>
+      <c r="K191" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="L191" s="71"/>
-      <c r="M191" s="71"/>
-      <c r="N191" s="71"/>
-      <c r="O191" s="71"/>
-      <c r="P191" s="73"/>
+      <c r="L191" s="111"/>
+      <c r="M191" s="111"/>
+      <c r="N191" s="111"/>
+      <c r="O191" s="111"/>
+      <c r="P191" s="120"/>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" s="20"/>
       <c r="D192" s="21"/>
-      <c r="E192" s="74" t="s">
+      <c r="E192" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="F192" s="75"/>
-      <c r="G192" s="75"/>
-      <c r="H192" s="75"/>
-      <c r="I192" s="75"/>
-      <c r="J192" s="76"/>
-      <c r="K192" s="74" t="s">
+      <c r="F192" s="113"/>
+      <c r="G192" s="113"/>
+      <c r="H192" s="113"/>
+      <c r="I192" s="113"/>
+      <c r="J192" s="131"/>
+      <c r="K192" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="L192" s="75"/>
-      <c r="M192" s="75"/>
-      <c r="N192" s="75"/>
-      <c r="O192" s="75"/>
-      <c r="P192" s="77"/>
+      <c r="L192" s="113"/>
+      <c r="M192" s="113"/>
+      <c r="N192" s="113"/>
+      <c r="O192" s="113"/>
+      <c r="P192" s="121"/>
     </row>
     <row r="193" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="C193" s="22"/>
       <c r="D193" s="23"/>
-      <c r="E193" s="78"/>
-      <c r="F193" s="79"/>
-      <c r="G193" s="79"/>
-      <c r="H193" s="79"/>
-      <c r="I193" s="79"/>
-      <c r="J193" s="80"/>
-      <c r="K193" s="81" t="s">
+      <c r="E193" s="178"/>
+      <c r="F193" s="179"/>
+      <c r="G193" s="179"/>
+      <c r="H193" s="179"/>
+      <c r="I193" s="179"/>
+      <c r="J193" s="180"/>
+      <c r="K193" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="L193" s="82"/>
-      <c r="M193" s="82"/>
-      <c r="N193" s="82"/>
-      <c r="O193" s="82"/>
-      <c r="P193" s="83"/>
+      <c r="L193" s="114"/>
+      <c r="M193" s="114"/>
+      <c r="N193" s="114"/>
+      <c r="O193" s="114"/>
+      <c r="P193" s="134"/>
     </row>
     <row r="194" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
-      <c r="C194" s="68" t="s">
+      <c r="C194" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D194" s="69"/>
-      <c r="E194" s="70" t="s">
+      <c r="D194" s="109"/>
+      <c r="E194" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F194" s="71"/>
-      <c r="G194" s="71"/>
-      <c r="H194" s="71"/>
-      <c r="I194" s="71"/>
-      <c r="J194" s="72"/>
-      <c r="K194" s="70" t="s">
+      <c r="F194" s="111"/>
+      <c r="G194" s="111"/>
+      <c r="H194" s="111"/>
+      <c r="I194" s="111"/>
+      <c r="J194" s="112"/>
+      <c r="K194" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="L194" s="71"/>
-      <c r="M194" s="71"/>
-      <c r="N194" s="71"/>
-      <c r="O194" s="71"/>
-      <c r="P194" s="73"/>
+      <c r="L194" s="111"/>
+      <c r="M194" s="111"/>
+      <c r="N194" s="111"/>
+      <c r="O194" s="111"/>
+      <c r="P194" s="120"/>
     </row>
     <row r="195" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="C195" s="20"/>
       <c r="D195" s="21"/>
-      <c r="E195" s="84"/>
-      <c r="F195" s="85"/>
-      <c r="G195" s="85"/>
-      <c r="H195" s="85"/>
-      <c r="I195" s="85"/>
-      <c r="J195" s="86"/>
-      <c r="K195" s="74" t="s">
+      <c r="E195" s="125"/>
+      <c r="F195" s="126"/>
+      <c r="G195" s="126"/>
+      <c r="H195" s="126"/>
+      <c r="I195" s="126"/>
+      <c r="J195" s="127"/>
+      <c r="K195" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="L195" s="75"/>
-      <c r="M195" s="75"/>
-      <c r="N195" s="75"/>
-      <c r="O195" s="75"/>
-      <c r="P195" s="77"/>
+      <c r="L195" s="113"/>
+      <c r="M195" s="113"/>
+      <c r="N195" s="113"/>
+      <c r="O195" s="113"/>
+      <c r="P195" s="121"/>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="22"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="81"/>
-      <c r="F196" s="82"/>
-      <c r="G196" s="82"/>
-      <c r="H196" s="82"/>
-      <c r="I196" s="82"/>
-      <c r="J196" s="87"/>
-      <c r="K196" s="81"/>
-      <c r="L196" s="82"/>
-      <c r="M196" s="82"/>
-      <c r="N196" s="82"/>
-      <c r="O196" s="82"/>
-      <c r="P196" s="83"/>
+      <c r="E196" s="129"/>
+      <c r="F196" s="114"/>
+      <c r="G196" s="114"/>
+      <c r="H196" s="114"/>
+      <c r="I196" s="114"/>
+      <c r="J196" s="172"/>
+      <c r="K196" s="129"/>
+      <c r="L196" s="114"/>
+      <c r="M196" s="114"/>
+      <c r="N196" s="114"/>
+      <c r="O196" s="114"/>
+      <c r="P196" s="134"/>
     </row>
     <row r="197" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
-      <c r="C197" s="68" t="s">
+      <c r="C197" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D197" s="69"/>
-      <c r="E197" s="70" t="s">
+      <c r="D197" s="109"/>
+      <c r="E197" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="F197" s="71"/>
-      <c r="G197" s="71"/>
-      <c r="H197" s="71"/>
-      <c r="I197" s="71"/>
-      <c r="J197" s="72"/>
-      <c r="K197" s="70" t="s">
+      <c r="F197" s="111"/>
+      <c r="G197" s="111"/>
+      <c r="H197" s="111"/>
+      <c r="I197" s="111"/>
+      <c r="J197" s="112"/>
+      <c r="K197" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="L197" s="71"/>
-      <c r="M197" s="71"/>
-      <c r="N197" s="71"/>
-      <c r="O197" s="71"/>
-      <c r="P197" s="73"/>
+      <c r="L197" s="111"/>
+      <c r="M197" s="111"/>
+      <c r="N197" s="111"/>
+      <c r="O197" s="111"/>
+      <c r="P197" s="120"/>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="78"/>
-      <c r="F198" s="79"/>
-      <c r="G198" s="79"/>
-      <c r="H198" s="79"/>
-      <c r="I198" s="79"/>
-      <c r="J198" s="80"/>
-      <c r="K198" s="81"/>
-      <c r="L198" s="82"/>
-      <c r="M198" s="82"/>
-      <c r="N198" s="82"/>
-      <c r="O198" s="82"/>
-      <c r="P198" s="83"/>
+      <c r="E198" s="178"/>
+      <c r="F198" s="179"/>
+      <c r="G198" s="179"/>
+      <c r="H198" s="179"/>
+      <c r="I198" s="179"/>
+      <c r="J198" s="180"/>
+      <c r="K198" s="129"/>
+      <c r="L198" s="114"/>
+      <c r="M198" s="114"/>
+      <c r="N198" s="114"/>
+      <c r="O198" s="114"/>
+      <c r="P198" s="134"/>
     </row>
     <row r="199" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
@@ -5722,422 +5916,422 @@
         <v>38</v>
       </c>
       <c r="D199" s="33"/>
-      <c r="E199" s="70" t="s">
+      <c r="E199" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="F199" s="71"/>
-      <c r="G199" s="71"/>
-      <c r="H199" s="71"/>
-      <c r="I199" s="71"/>
-      <c r="J199" s="72"/>
-      <c r="K199" s="70" t="s">
+      <c r="F199" s="111"/>
+      <c r="G199" s="111"/>
+      <c r="H199" s="111"/>
+      <c r="I199" s="111"/>
+      <c r="J199" s="112"/>
+      <c r="K199" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L199" s="71"/>
-      <c r="M199" s="71"/>
-      <c r="N199" s="71"/>
-      <c r="O199" s="71"/>
-      <c r="P199" s="73"/>
+      <c r="L199" s="111"/>
+      <c r="M199" s="111"/>
+      <c r="N199" s="111"/>
+      <c r="O199" s="111"/>
+      <c r="P199" s="120"/>
     </row>
     <row r="200" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" s="24"/>
       <c r="D200" s="25"/>
-      <c r="E200" s="74"/>
-      <c r="F200" s="75"/>
-      <c r="G200" s="75"/>
-      <c r="H200" s="75"/>
-      <c r="I200" s="75"/>
-      <c r="J200" s="76"/>
-      <c r="K200" s="74" t="s">
+      <c r="E200" s="130"/>
+      <c r="F200" s="113"/>
+      <c r="G200" s="113"/>
+      <c r="H200" s="113"/>
+      <c r="I200" s="113"/>
+      <c r="J200" s="131"/>
+      <c r="K200" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="L200" s="75"/>
-      <c r="M200" s="75"/>
-      <c r="N200" s="75"/>
-      <c r="O200" s="75"/>
-      <c r="P200" s="77"/>
+      <c r="L200" s="113"/>
+      <c r="M200" s="113"/>
+      <c r="N200" s="113"/>
+      <c r="O200" s="113"/>
+      <c r="P200" s="121"/>
     </row>
     <row r="201" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="C201" s="24"/>
       <c r="D201" s="25"/>
-      <c r="E201" s="74"/>
-      <c r="F201" s="75"/>
-      <c r="G201" s="75"/>
-      <c r="H201" s="75"/>
-      <c r="I201" s="75"/>
-      <c r="J201" s="76"/>
-      <c r="K201" s="88" t="s">
+      <c r="E201" s="130"/>
+      <c r="F201" s="113"/>
+      <c r="G201" s="113"/>
+      <c r="H201" s="113"/>
+      <c r="I201" s="113"/>
+      <c r="J201" s="131"/>
+      <c r="K201" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="L201" s="89"/>
-      <c r="M201" s="89"/>
-      <c r="N201" s="89"/>
-      <c r="O201" s="89"/>
-      <c r="P201" s="90"/>
+      <c r="L201" s="182"/>
+      <c r="M201" s="182"/>
+      <c r="N201" s="182"/>
+      <c r="O201" s="182"/>
+      <c r="P201" s="183"/>
     </row>
     <row r="202" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="C202" s="24"/>
       <c r="D202" s="25"/>
-      <c r="E202" s="74"/>
-      <c r="F202" s="75"/>
-      <c r="G202" s="75"/>
-      <c r="H202" s="75"/>
-      <c r="I202" s="75"/>
-      <c r="J202" s="76"/>
-      <c r="K202" s="88" t="s">
+      <c r="E202" s="130"/>
+      <c r="F202" s="113"/>
+      <c r="G202" s="113"/>
+      <c r="H202" s="113"/>
+      <c r="I202" s="113"/>
+      <c r="J202" s="131"/>
+      <c r="K202" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="L202" s="89"/>
-      <c r="M202" s="89"/>
-      <c r="N202" s="89"/>
-      <c r="O202" s="89"/>
-      <c r="P202" s="90"/>
+      <c r="L202" s="182"/>
+      <c r="M202" s="182"/>
+      <c r="N202" s="182"/>
+      <c r="O202" s="182"/>
+      <c r="P202" s="183"/>
     </row>
     <row r="203" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="C203" s="24"/>
       <c r="D203" s="25"/>
-      <c r="E203" s="74"/>
-      <c r="F203" s="75"/>
-      <c r="G203" s="75"/>
-      <c r="H203" s="75"/>
-      <c r="I203" s="75"/>
-      <c r="J203" s="76"/>
-      <c r="K203" s="88" t="s">
+      <c r="E203" s="130"/>
+      <c r="F203" s="113"/>
+      <c r="G203" s="113"/>
+      <c r="H203" s="113"/>
+      <c r="I203" s="113"/>
+      <c r="J203" s="131"/>
+      <c r="K203" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="L203" s="89"/>
-      <c r="M203" s="89"/>
-      <c r="N203" s="89"/>
-      <c r="O203" s="89"/>
-      <c r="P203" s="90"/>
+      <c r="L203" s="182"/>
+      <c r="M203" s="182"/>
+      <c r="N203" s="182"/>
+      <c r="O203" s="182"/>
+      <c r="P203" s="183"/>
     </row>
     <row r="204" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="24"/>
       <c r="D204" s="25"/>
-      <c r="E204" s="74"/>
-      <c r="F204" s="75"/>
-      <c r="G204" s="75"/>
-      <c r="H204" s="75"/>
-      <c r="I204" s="75"/>
-      <c r="J204" s="76"/>
-      <c r="K204" s="88" t="s">
+      <c r="E204" s="130"/>
+      <c r="F204" s="113"/>
+      <c r="G204" s="113"/>
+      <c r="H204" s="113"/>
+      <c r="I204" s="113"/>
+      <c r="J204" s="131"/>
+      <c r="K204" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="L204" s="89"/>
-      <c r="M204" s="89"/>
-      <c r="N204" s="89"/>
-      <c r="O204" s="89"/>
-      <c r="P204" s="90"/>
+      <c r="L204" s="182"/>
+      <c r="M204" s="182"/>
+      <c r="N204" s="182"/>
+      <c r="O204" s="182"/>
+      <c r="P204" s="183"/>
     </row>
     <row r="205" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="24"/>
       <c r="D205" s="25"/>
-      <c r="E205" s="74"/>
-      <c r="F205" s="75"/>
-      <c r="G205" s="75"/>
-      <c r="H205" s="75"/>
-      <c r="I205" s="75"/>
-      <c r="J205" s="76"/>
-      <c r="K205" s="88" t="s">
+      <c r="E205" s="130"/>
+      <c r="F205" s="113"/>
+      <c r="G205" s="113"/>
+      <c r="H205" s="113"/>
+      <c r="I205" s="113"/>
+      <c r="J205" s="131"/>
+      <c r="K205" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="L205" s="89"/>
-      <c r="M205" s="89"/>
-      <c r="N205" s="89"/>
-      <c r="O205" s="89"/>
-      <c r="P205" s="90"/>
+      <c r="L205" s="182"/>
+      <c r="M205" s="182"/>
+      <c r="N205" s="182"/>
+      <c r="O205" s="182"/>
+      <c r="P205" s="183"/>
     </row>
     <row r="206" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="24"/>
       <c r="D206" s="25"/>
-      <c r="E206" s="74"/>
-      <c r="F206" s="75"/>
-      <c r="G206" s="75"/>
-      <c r="H206" s="75"/>
-      <c r="I206" s="75"/>
-      <c r="J206" s="76"/>
-      <c r="K206" s="88" t="s">
+      <c r="E206" s="130"/>
+      <c r="F206" s="113"/>
+      <c r="G206" s="113"/>
+      <c r="H206" s="113"/>
+      <c r="I206" s="113"/>
+      <c r="J206" s="131"/>
+      <c r="K206" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="L206" s="89"/>
-      <c r="M206" s="89"/>
-      <c r="N206" s="89"/>
-      <c r="O206" s="89"/>
-      <c r="P206" s="90"/>
+      <c r="L206" s="182"/>
+      <c r="M206" s="182"/>
+      <c r="N206" s="182"/>
+      <c r="O206" s="182"/>
+      <c r="P206" s="183"/>
     </row>
     <row r="207" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="24"/>
       <c r="D207" s="25"/>
-      <c r="E207" s="74"/>
-      <c r="F207" s="75"/>
-      <c r="G207" s="75"/>
-      <c r="H207" s="75"/>
-      <c r="I207" s="75"/>
-      <c r="J207" s="76"/>
-      <c r="K207" s="88" t="s">
+      <c r="E207" s="130"/>
+      <c r="F207" s="113"/>
+      <c r="G207" s="113"/>
+      <c r="H207" s="113"/>
+      <c r="I207" s="113"/>
+      <c r="J207" s="131"/>
+      <c r="K207" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="L207" s="89"/>
-      <c r="M207" s="89"/>
-      <c r="N207" s="89"/>
-      <c r="O207" s="89"/>
-      <c r="P207" s="90"/>
+      <c r="L207" s="182"/>
+      <c r="M207" s="182"/>
+      <c r="N207" s="182"/>
+      <c r="O207" s="182"/>
+      <c r="P207" s="183"/>
     </row>
     <row r="208" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
-      <c r="C208" s="68" t="s">
+      <c r="C208" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D208" s="69"/>
-      <c r="E208" s="70" t="s">
+      <c r="D208" s="109"/>
+      <c r="E208" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F208" s="71"/>
-      <c r="G208" s="71"/>
-      <c r="H208" s="71"/>
-      <c r="I208" s="71"/>
-      <c r="J208" s="72"/>
-      <c r="K208" s="91" t="s">
+      <c r="F208" s="111"/>
+      <c r="G208" s="111"/>
+      <c r="H208" s="111"/>
+      <c r="I208" s="111"/>
+      <c r="J208" s="112"/>
+      <c r="K208" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="L208" s="92"/>
-      <c r="M208" s="92"/>
-      <c r="N208" s="92"/>
-      <c r="O208" s="92"/>
-      <c r="P208" s="93"/>
+      <c r="L208" s="185"/>
+      <c r="M208" s="185"/>
+      <c r="N208" s="185"/>
+      <c r="O208" s="185"/>
+      <c r="P208" s="186"/>
     </row>
     <row r="209" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
       <c r="C209" s="24"/>
       <c r="D209" s="25"/>
-      <c r="E209" s="74"/>
-      <c r="F209" s="75"/>
-      <c r="G209" s="75"/>
-      <c r="H209" s="75"/>
-      <c r="I209" s="75"/>
-      <c r="J209" s="76"/>
-      <c r="K209" s="88" t="s">
+      <c r="E209" s="130"/>
+      <c r="F209" s="113"/>
+      <c r="G209" s="113"/>
+      <c r="H209" s="113"/>
+      <c r="I209" s="113"/>
+      <c r="J209" s="131"/>
+      <c r="K209" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="L209" s="89"/>
-      <c r="M209" s="89"/>
-      <c r="N209" s="89"/>
-      <c r="O209" s="89"/>
-      <c r="P209" s="90"/>
+      <c r="L209" s="182"/>
+      <c r="M209" s="182"/>
+      <c r="N209" s="182"/>
+      <c r="O209" s="182"/>
+      <c r="P209" s="183"/>
     </row>
     <row r="210" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
       <c r="C210" s="34"/>
       <c r="D210" s="35"/>
-      <c r="E210" s="81"/>
-      <c r="F210" s="82"/>
-      <c r="G210" s="82"/>
-      <c r="H210" s="82"/>
-      <c r="I210" s="82"/>
-      <c r="J210" s="87"/>
-      <c r="K210" s="94" t="s">
+      <c r="E210" s="129"/>
+      <c r="F210" s="114"/>
+      <c r="G210" s="114"/>
+      <c r="H210" s="114"/>
+      <c r="I210" s="114"/>
+      <c r="J210" s="172"/>
+      <c r="K210" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="L210" s="95"/>
-      <c r="M210" s="95"/>
-      <c r="N210" s="95"/>
-      <c r="O210" s="95"/>
-      <c r="P210" s="96"/>
+      <c r="L210" s="188"/>
+      <c r="M210" s="188"/>
+      <c r="N210" s="188"/>
+      <c r="O210" s="188"/>
+      <c r="P210" s="189"/>
     </row>
     <row r="211" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
-      <c r="C211" s="68" t="s">
+      <c r="C211" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D211" s="69"/>
-      <c r="E211" s="70" t="s">
+      <c r="D211" s="109"/>
+      <c r="E211" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="71"/>
-      <c r="G211" s="71"/>
-      <c r="H211" s="71"/>
-      <c r="I211" s="71"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="70" t="s">
+      <c r="F211" s="111"/>
+      <c r="G211" s="111"/>
+      <c r="H211" s="111"/>
+      <c r="I211" s="111"/>
+      <c r="J211" s="112"/>
+      <c r="K211" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="L211" s="71"/>
-      <c r="M211" s="71"/>
-      <c r="N211" s="71"/>
-      <c r="O211" s="71"/>
-      <c r="P211" s="73"/>
+      <c r="L211" s="111"/>
+      <c r="M211" s="111"/>
+      <c r="N211" s="111"/>
+      <c r="O211" s="111"/>
+      <c r="P211" s="120"/>
     </row>
     <row r="212" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" s="20"/>
       <c r="D212" s="21"/>
-      <c r="E212" s="74" t="s">
+      <c r="E212" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="F212" s="75"/>
-      <c r="G212" s="75"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="75"/>
-      <c r="J212" s="76"/>
-      <c r="K212" s="74" t="s">
+      <c r="F212" s="113"/>
+      <c r="G212" s="113"/>
+      <c r="H212" s="113"/>
+      <c r="I212" s="113"/>
+      <c r="J212" s="131"/>
+      <c r="K212" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="L212" s="75"/>
-      <c r="M212" s="75"/>
-      <c r="N212" s="75"/>
-      <c r="O212" s="75"/>
-      <c r="P212" s="77"/>
+      <c r="L212" s="113"/>
+      <c r="M212" s="113"/>
+      <c r="N212" s="113"/>
+      <c r="O212" s="113"/>
+      <c r="P212" s="121"/>
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="78"/>
-      <c r="F213" s="79"/>
-      <c r="G213" s="79"/>
-      <c r="H213" s="79"/>
-      <c r="I213" s="79"/>
-      <c r="J213" s="80"/>
-      <c r="K213" s="81"/>
-      <c r="L213" s="82"/>
-      <c r="M213" s="82"/>
-      <c r="N213" s="82"/>
-      <c r="O213" s="82"/>
-      <c r="P213" s="83"/>
+      <c r="E213" s="178"/>
+      <c r="F213" s="179"/>
+      <c r="G213" s="179"/>
+      <c r="H213" s="179"/>
+      <c r="I213" s="179"/>
+      <c r="J213" s="180"/>
+      <c r="K213" s="129"/>
+      <c r="L213" s="114"/>
+      <c r="M213" s="114"/>
+      <c r="N213" s="114"/>
+      <c r="O213" s="114"/>
+      <c r="P213" s="134"/>
     </row>
     <row r="214" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
-      <c r="C214" s="68" t="s">
+      <c r="C214" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D214" s="69"/>
-      <c r="E214" s="70" t="s">
+      <c r="D214" s="109"/>
+      <c r="E214" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="F214" s="71"/>
-      <c r="G214" s="71"/>
-      <c r="H214" s="71"/>
-      <c r="I214" s="71"/>
-      <c r="J214" s="72"/>
-      <c r="K214" s="70" t="s">
+      <c r="F214" s="111"/>
+      <c r="G214" s="111"/>
+      <c r="H214" s="111"/>
+      <c r="I214" s="111"/>
+      <c r="J214" s="112"/>
+      <c r="K214" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="L214" s="71"/>
-      <c r="M214" s="71"/>
-      <c r="N214" s="71"/>
-      <c r="O214" s="71"/>
-      <c r="P214" s="73"/>
+      <c r="L214" s="111"/>
+      <c r="M214" s="111"/>
+      <c r="N214" s="111"/>
+      <c r="O214" s="111"/>
+      <c r="P214" s="120"/>
     </row>
     <row r="215" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="20"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="84"/>
-      <c r="F215" s="85"/>
-      <c r="G215" s="85"/>
-      <c r="H215" s="85"/>
-      <c r="I215" s="85"/>
-      <c r="J215" s="86"/>
-      <c r="K215" s="74" t="s">
+      <c r="E215" s="125"/>
+      <c r="F215" s="126"/>
+      <c r="G215" s="126"/>
+      <c r="H215" s="126"/>
+      <c r="I215" s="126"/>
+      <c r="J215" s="127"/>
+      <c r="K215" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="L215" s="75"/>
-      <c r="M215" s="75"/>
-      <c r="N215" s="75"/>
-      <c r="O215" s="75"/>
-      <c r="P215" s="77"/>
+      <c r="L215" s="113"/>
+      <c r="M215" s="113"/>
+      <c r="N215" s="113"/>
+      <c r="O215" s="113"/>
+      <c r="P215" s="121"/>
     </row>
     <row r="216" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" s="22"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="81" t="s">
+      <c r="E216" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="F216" s="82"/>
-      <c r="G216" s="82"/>
-      <c r="H216" s="82"/>
-      <c r="I216" s="82"/>
-      <c r="J216" s="87"/>
-      <c r="K216" s="81" t="s">
+      <c r="F216" s="114"/>
+      <c r="G216" s="114"/>
+      <c r="H216" s="114"/>
+      <c r="I216" s="114"/>
+      <c r="J216" s="172"/>
+      <c r="K216" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="L216" s="82"/>
-      <c r="M216" s="82"/>
-      <c r="N216" s="82"/>
-      <c r="O216" s="82"/>
-      <c r="P216" s="83"/>
+      <c r="L216" s="114"/>
+      <c r="M216" s="114"/>
+      <c r="N216" s="114"/>
+      <c r="O216" s="114"/>
+      <c r="P216" s="134"/>
     </row>
     <row r="217" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
-      <c r="C217" s="68" t="s">
+      <c r="C217" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D217" s="69"/>
-      <c r="E217" s="70" t="s">
+      <c r="D217" s="109"/>
+      <c r="E217" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="F217" s="71"/>
-      <c r="G217" s="71"/>
-      <c r="H217" s="71"/>
-      <c r="I217" s="71"/>
-      <c r="J217" s="72"/>
-      <c r="K217" s="70" t="s">
+      <c r="F217" s="111"/>
+      <c r="G217" s="111"/>
+      <c r="H217" s="111"/>
+      <c r="I217" s="111"/>
+      <c r="J217" s="112"/>
+      <c r="K217" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="L217" s="71"/>
-      <c r="M217" s="71"/>
-      <c r="N217" s="71"/>
-      <c r="O217" s="71"/>
-      <c r="P217" s="73"/>
+      <c r="L217" s="111"/>
+      <c r="M217" s="111"/>
+      <c r="N217" s="111"/>
+      <c r="O217" s="111"/>
+      <c r="P217" s="120"/>
     </row>
     <row r="218" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
       <c r="C218" s="20"/>
       <c r="D218" s="21"/>
-      <c r="E218" s="74" t="s">
+      <c r="E218" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="F218" s="75"/>
-      <c r="G218" s="75"/>
-      <c r="H218" s="75"/>
-      <c r="I218" s="75"/>
-      <c r="J218" s="76"/>
-      <c r="K218" s="74" t="s">
+      <c r="F218" s="113"/>
+      <c r="G218" s="113"/>
+      <c r="H218" s="113"/>
+      <c r="I218" s="113"/>
+      <c r="J218" s="131"/>
+      <c r="K218" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="L218" s="75"/>
-      <c r="M218" s="75"/>
-      <c r="N218" s="75"/>
-      <c r="O218" s="75"/>
-      <c r="P218" s="77"/>
+      <c r="L218" s="113"/>
+      <c r="M218" s="113"/>
+      <c r="N218" s="113"/>
+      <c r="O218" s="113"/>
+      <c r="P218" s="121"/>
     </row>
     <row r="219" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
       <c r="C219" s="22"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="78"/>
-      <c r="F219" s="79"/>
-      <c r="G219" s="79"/>
-      <c r="H219" s="79"/>
-      <c r="I219" s="79"/>
-      <c r="J219" s="80"/>
-      <c r="K219" s="81" t="s">
+      <c r="E219" s="178"/>
+      <c r="F219" s="179"/>
+      <c r="G219" s="179"/>
+      <c r="H219" s="179"/>
+      <c r="I219" s="179"/>
+      <c r="J219" s="180"/>
+      <c r="K219" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="L219" s="82"/>
-      <c r="M219" s="82"/>
-      <c r="N219" s="82"/>
-      <c r="O219" s="82"/>
-      <c r="P219" s="83"/>
+      <c r="L219" s="114"/>
+      <c r="M219" s="114"/>
+      <c r="N219" s="114"/>
+      <c r="O219" s="114"/>
+      <c r="P219" s="134"/>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
@@ -6173,18 +6367,1370 @@
       <c r="P221" s="41"/>
     </row>
     <row r="222" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="1"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="6"/>
+    </row>
+    <row r="225" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B225" s="7"/>
+      <c r="C225" s="177" t="s">
+        <v>197</v>
+      </c>
+      <c r="D225" s="177"/>
+      <c r="E225" s="177"/>
+      <c r="F225" s="177"/>
+      <c r="G225" s="177"/>
+      <c r="H225" s="177"/>
+      <c r="I225" s="177"/>
+      <c r="J225" s="177"/>
+      <c r="K225" s="177"/>
+      <c r="L225" s="8"/>
+      <c r="M225" s="8"/>
+      <c r="N225" s="8"/>
+      <c r="O225" s="83"/>
+      <c r="P225" s="10"/>
+    </row>
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B226" s="7"/>
+      <c r="C226" s="88"/>
+      <c r="D226" s="88"/>
+      <c r="E226" s="83"/>
+      <c r="F226" s="83"/>
+      <c r="G226" s="83"/>
+      <c r="H226" s="83"/>
+      <c r="I226" s="83"/>
+      <c r="J226" s="84"/>
+      <c r="K226" s="8"/>
+      <c r="L226" s="8"/>
+      <c r="M226" s="8"/>
+      <c r="N226" s="8"/>
+      <c r="O226" s="83"/>
+      <c r="P226" s="10"/>
+    </row>
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B227" s="7"/>
+      <c r="C227" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="92"/>
+      <c r="E227" s="92"/>
+      <c r="F227" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="G227" s="94"/>
+      <c r="H227" s="94"/>
+      <c r="I227" s="94"/>
+      <c r="J227" s="94"/>
+      <c r="K227" s="94"/>
+      <c r="L227" s="94"/>
+      <c r="M227" s="94"/>
+      <c r="N227" s="94"/>
+      <c r="O227" s="94"/>
+      <c r="P227" s="95"/>
+    </row>
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B228" s="7"/>
+      <c r="C228" s="77"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+      <c r="F228" s="81"/>
+      <c r="G228" s="81"/>
+      <c r="H228" s="81"/>
+      <c r="I228" s="81"/>
+      <c r="J228" s="82"/>
+      <c r="K228" s="81"/>
+      <c r="L228" s="8"/>
+      <c r="M228" s="8"/>
+      <c r="N228" s="8"/>
+      <c r="O228" s="83"/>
+      <c r="P228" s="10"/>
+    </row>
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B229" s="7"/>
+      <c r="C229" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" s="92"/>
+      <c r="E229" s="92"/>
+      <c r="F229" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="G229" s="94"/>
+      <c r="H229" s="94"/>
+      <c r="I229" s="94"/>
+      <c r="J229" s="94"/>
+      <c r="K229" s="94"/>
+      <c r="L229" s="94"/>
+      <c r="M229" s="94"/>
+      <c r="N229" s="94"/>
+      <c r="O229" s="94"/>
+      <c r="P229" s="95"/>
+    </row>
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B230" s="7"/>
+      <c r="C230" s="77"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="81"/>
+      <c r="G230" s="81"/>
+      <c r="H230" s="81"/>
+      <c r="I230" s="81"/>
+      <c r="J230" s="82"/>
+      <c r="K230" s="81"/>
+      <c r="L230" s="8"/>
+      <c r="M230" s="8"/>
+      <c r="N230" s="8"/>
+      <c r="O230" s="83"/>
+      <c r="P230" s="10"/>
+    </row>
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B231" s="7"/>
+      <c r="C231" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="105"/>
+      <c r="E231" s="106"/>
+      <c r="F231" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G231" s="99"/>
+      <c r="H231" s="99"/>
+      <c r="I231" s="99"/>
+      <c r="J231" s="99"/>
+      <c r="K231" s="99"/>
+      <c r="L231" s="99"/>
+      <c r="M231" s="99"/>
+      <c r="N231" s="99"/>
+      <c r="O231" s="99"/>
+      <c r="P231" s="100"/>
+    </row>
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B232" s="7"/>
+      <c r="C232" s="144"/>
+      <c r="D232" s="145"/>
+      <c r="E232" s="146"/>
+      <c r="F232" s="151"/>
+      <c r="G232" s="152"/>
+      <c r="H232" s="152"/>
+      <c r="I232" s="152"/>
+      <c r="J232" s="152"/>
+      <c r="K232" s="152"/>
+      <c r="L232" s="152"/>
+      <c r="M232" s="152"/>
+      <c r="N232" s="152"/>
+      <c r="O232" s="152"/>
+      <c r="P232" s="173"/>
+    </row>
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B233" s="7"/>
+      <c r="C233" s="144"/>
+      <c r="D233" s="145"/>
+      <c r="E233" s="146"/>
+      <c r="F233" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="G233" s="152"/>
+      <c r="H233" s="152"/>
+      <c r="I233" s="152"/>
+      <c r="J233" s="152"/>
+      <c r="K233" s="152"/>
+      <c r="L233" s="152"/>
+      <c r="M233" s="152"/>
+      <c r="N233" s="152"/>
+      <c r="O233" s="152"/>
+      <c r="P233" s="173"/>
+    </row>
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B234" s="7"/>
+      <c r="C234" s="144"/>
+      <c r="D234" s="145"/>
+      <c r="E234" s="146"/>
+      <c r="F234" s="101"/>
+      <c r="G234" s="102"/>
+      <c r="H234" s="102"/>
+      <c r="I234" s="102"/>
+      <c r="J234" s="102"/>
+      <c r="K234" s="102"/>
+      <c r="L234" s="102"/>
+      <c r="M234" s="102"/>
+      <c r="N234" s="102"/>
+      <c r="O234" s="102"/>
+      <c r="P234" s="103"/>
+    </row>
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B235" s="7"/>
+      <c r="C235" s="147"/>
+      <c r="D235" s="148"/>
+      <c r="E235" s="149"/>
+      <c r="F235" s="174"/>
+      <c r="G235" s="175"/>
+      <c r="H235" s="175"/>
+      <c r="I235" s="175"/>
+      <c r="J235" s="175"/>
+      <c r="K235" s="176"/>
+      <c r="L235" s="8"/>
+      <c r="M235" s="8"/>
+      <c r="N235" s="8"/>
+      <c r="O235" s="83"/>
+      <c r="P235" s="10"/>
+    </row>
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B236" s="7"/>
+      <c r="C236" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="105"/>
+      <c r="E236" s="106"/>
+      <c r="F236" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G236" s="99"/>
+      <c r="H236" s="99"/>
+      <c r="I236" s="99"/>
+      <c r="J236" s="99"/>
+      <c r="K236" s="99"/>
+      <c r="L236" s="99"/>
+      <c r="M236" s="99"/>
+      <c r="N236" s="99"/>
+      <c r="O236" s="99"/>
+      <c r="P236" s="100"/>
+    </row>
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+      <c r="C237" s="144"/>
+      <c r="D237" s="145"/>
+      <c r="E237" s="146"/>
+      <c r="F237" s="101"/>
+      <c r="G237" s="102"/>
+      <c r="H237" s="102"/>
+      <c r="I237" s="102"/>
+      <c r="J237" s="102"/>
+      <c r="K237" s="102"/>
+      <c r="L237" s="102"/>
+      <c r="M237" s="102"/>
+      <c r="N237" s="102"/>
+      <c r="O237" s="102"/>
+      <c r="P237" s="103"/>
+    </row>
+    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B238" s="7"/>
+      <c r="C238" s="147"/>
+      <c r="D238" s="148"/>
+      <c r="E238" s="149"/>
+      <c r="F238" s="151"/>
+      <c r="G238" s="152"/>
+      <c r="H238" s="152"/>
+      <c r="I238" s="152"/>
+      <c r="J238" s="152"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="8"/>
+      <c r="M238" s="8"/>
+      <c r="N238" s="8"/>
+      <c r="O238" s="83"/>
+      <c r="P238" s="10"/>
+    </row>
+    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B239" s="7"/>
+      <c r="C239" s="143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="105"/>
+      <c r="E239" s="106"/>
+      <c r="F239" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="G239" s="99"/>
+      <c r="H239" s="99"/>
+      <c r="I239" s="99"/>
+      <c r="J239" s="99"/>
+      <c r="K239" s="99"/>
+      <c r="L239" s="99"/>
+      <c r="M239" s="99"/>
+      <c r="N239" s="99"/>
+      <c r="O239" s="99"/>
+      <c r="P239" s="100"/>
+    </row>
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B240" s="7"/>
+      <c r="C240" s="78"/>
+      <c r="D240" s="79"/>
+      <c r="E240" s="80"/>
+      <c r="F240" s="101"/>
+      <c r="G240" s="102"/>
+      <c r="H240" s="102"/>
+      <c r="I240" s="102"/>
+      <c r="J240" s="102"/>
+      <c r="K240" s="102"/>
+      <c r="L240" s="102"/>
+      <c r="M240" s="102"/>
+      <c r="N240" s="102"/>
+      <c r="O240" s="102"/>
+      <c r="P240" s="103"/>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B241" s="7"/>
+      <c r="C241" s="88"/>
+      <c r="D241" s="88"/>
+      <c r="E241" s="83"/>
+      <c r="F241" s="83"/>
+      <c r="G241" s="83"/>
+      <c r="H241" s="83"/>
+      <c r="I241" s="83"/>
+      <c r="J241" s="84"/>
+      <c r="K241" s="8"/>
+      <c r="L241" s="8"/>
+      <c r="M241" s="8"/>
+      <c r="N241" s="8"/>
+      <c r="O241" s="83"/>
+      <c r="P241" s="10"/>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B242" s="7"/>
+      <c r="C242" s="88"/>
+      <c r="D242" s="88"/>
+      <c r="E242" s="83"/>
+      <c r="F242" s="83"/>
+      <c r="G242" s="83"/>
+      <c r="H242" s="83"/>
+      <c r="I242" s="83"/>
+      <c r="J242" s="84"/>
+      <c r="K242" s="8"/>
+      <c r="L242" s="8"/>
+      <c r="M242" s="8"/>
+      <c r="N242" s="8"/>
+      <c r="O242" s="83"/>
+      <c r="P242" s="10"/>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B243" s="7"/>
+      <c r="C243" s="88"/>
+      <c r="D243" s="88"/>
+      <c r="E243" s="83"/>
+      <c r="F243" s="83"/>
+      <c r="G243" s="83"/>
+      <c r="H243" s="83"/>
+      <c r="I243" s="83"/>
+      <c r="J243" s="84"/>
+      <c r="K243" s="8"/>
+      <c r="L243" s="8"/>
+      <c r="M243" s="8"/>
+      <c r="N243" s="8"/>
+      <c r="O243" s="83"/>
+      <c r="P243" s="10"/>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B244" s="7"/>
+      <c r="C244" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="169"/>
+      <c r="E244" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="170"/>
+      <c r="G244" s="170"/>
+      <c r="H244" s="170"/>
+      <c r="I244" s="170"/>
+      <c r="J244" s="169"/>
+      <c r="K244" s="168" t="s">
+        <v>10</v>
+      </c>
+      <c r="L244" s="170"/>
+      <c r="M244" s="170"/>
+      <c r="N244" s="170"/>
+      <c r="O244" s="170"/>
+      <c r="P244" s="171"/>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B245" s="7"/>
+      <c r="C245" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="109"/>
+      <c r="E245" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="111"/>
+      <c r="G245" s="111"/>
+      <c r="H245" s="111"/>
+      <c r="I245" s="111"/>
+      <c r="J245" s="112"/>
+      <c r="K245" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L245" s="111"/>
+      <c r="M245" s="111"/>
+      <c r="N245" s="111"/>
+      <c r="O245" s="111"/>
+      <c r="P245" s="120"/>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B246" s="7"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="130"/>
+      <c r="F246" s="113"/>
+      <c r="G246" s="113"/>
+      <c r="H246" s="113"/>
+      <c r="I246" s="113"/>
+      <c r="J246" s="131"/>
+      <c r="K246" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L246" s="113"/>
+      <c r="M246" s="113"/>
+      <c r="N246" s="113"/>
+      <c r="O246" s="113"/>
+      <c r="P246" s="121"/>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B247" s="7"/>
+      <c r="C247" s="86"/>
+      <c r="D247" s="87"/>
+      <c r="E247" s="129"/>
+      <c r="F247" s="114"/>
+      <c r="G247" s="114"/>
+      <c r="H247" s="114"/>
+      <c r="I247" s="114"/>
+      <c r="J247" s="172"/>
+      <c r="K247" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="L247" s="113"/>
+      <c r="M247" s="113"/>
+      <c r="N247" s="113"/>
+      <c r="O247" s="113"/>
+      <c r="P247" s="121"/>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B248" s="7"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="68"/>
+      <c r="F248" s="69"/>
+      <c r="G248" s="69"/>
+      <c r="H248" s="69"/>
+      <c r="I248" s="69"/>
+      <c r="J248" s="70"/>
+      <c r="K248" s="129"/>
+      <c r="L248" s="114"/>
+      <c r="M248" s="114"/>
+      <c r="N248" s="114"/>
+      <c r="O248" s="114"/>
+      <c r="P248" s="134"/>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B249" s="7"/>
+      <c r="C249" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D249" s="109"/>
+      <c r="E249" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F249" s="111"/>
+      <c r="G249" s="111"/>
+      <c r="H249" s="111"/>
+      <c r="I249" s="111"/>
+      <c r="J249" s="112"/>
+      <c r="K249" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="L249" s="111"/>
+      <c r="M249" s="111"/>
+      <c r="N249" s="111"/>
+      <c r="O249" s="111"/>
+      <c r="P249" s="120"/>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B250" s="7"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="74"/>
+      <c r="F250" s="75"/>
+      <c r="G250" s="75"/>
+      <c r="H250" s="75"/>
+      <c r="I250" s="75"/>
+      <c r="J250" s="76"/>
+      <c r="K250" s="165" t="s">
+        <v>19</v>
+      </c>
+      <c r="L250" s="122"/>
+      <c r="M250" s="122"/>
+      <c r="N250" s="122"/>
+      <c r="O250" s="122"/>
+      <c r="P250" s="166"/>
+    </row>
+    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B251" s="7"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="25"/>
+      <c r="E251" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="F251" s="122"/>
+      <c r="G251" s="122"/>
+      <c r="H251" s="122"/>
+      <c r="I251" s="122"/>
+      <c r="J251" s="167"/>
+      <c r="K251" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="L251" s="122"/>
+      <c r="M251" s="122"/>
+      <c r="N251" s="122"/>
+      <c r="O251" s="122"/>
+      <c r="P251" s="166"/>
+    </row>
+    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B252" s="7"/>
+      <c r="C252" s="86"/>
+      <c r="D252" s="87"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="85"/>
+      <c r="G252" s="85"/>
+      <c r="H252" s="85"/>
+      <c r="I252" s="85"/>
+      <c r="J252" s="31"/>
+      <c r="K252" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="L252" s="114"/>
+      <c r="M252" s="114"/>
+      <c r="N252" s="114"/>
+      <c r="O252" s="114"/>
+      <c r="P252" s="134"/>
+    </row>
+    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B253" s="7"/>
+      <c r="C253" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253" s="109"/>
+      <c r="E253" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F253" s="111"/>
+      <c r="G253" s="111"/>
+      <c r="H253" s="111"/>
+      <c r="I253" s="111"/>
+      <c r="J253" s="112"/>
+      <c r="K253" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="L253" s="111"/>
+      <c r="M253" s="111"/>
+      <c r="N253" s="111"/>
+      <c r="O253" s="111"/>
+      <c r="P253" s="120"/>
+    </row>
+    <row r="254" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B254" s="7"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="87"/>
+      <c r="E254" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="F254" s="114"/>
+      <c r="G254" s="114"/>
+      <c r="H254" s="114"/>
+      <c r="I254" s="114"/>
+      <c r="J254" s="172"/>
+      <c r="K254" s="129"/>
+      <c r="L254" s="114"/>
+      <c r="M254" s="114"/>
+      <c r="N254" s="114"/>
+      <c r="O254" s="114"/>
+      <c r="P254" s="134"/>
+    </row>
+    <row r="255" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="7"/>
+      <c r="C255" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" s="109"/>
+      <c r="E255" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" s="111"/>
+      <c r="G255" s="111"/>
+      <c r="H255" s="111"/>
+      <c r="I255" s="111"/>
+      <c r="J255" s="112"/>
+      <c r="K255" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="L255" s="111"/>
+      <c r="M255" s="111"/>
+      <c r="N255" s="111"/>
+      <c r="O255" s="111"/>
+      <c r="P255" s="120"/>
+    </row>
+    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B256" s="7"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F256" s="113"/>
+      <c r="G256" s="113"/>
+      <c r="H256" s="113"/>
+      <c r="I256" s="113"/>
+      <c r="J256" s="131"/>
+      <c r="K256" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="L256" s="113"/>
+      <c r="M256" s="113"/>
+      <c r="N256" s="113"/>
+      <c r="O256" s="113"/>
+      <c r="P256" s="121"/>
+    </row>
+    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B257" s="7"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="125"/>
+      <c r="F257" s="126"/>
+      <c r="G257" s="126"/>
+      <c r="H257" s="126"/>
+      <c r="I257" s="126"/>
+      <c r="J257" s="127"/>
+      <c r="K257" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="L257" s="113"/>
+      <c r="M257" s="113"/>
+      <c r="N257" s="113"/>
+      <c r="O257" s="113"/>
+      <c r="P257" s="121"/>
+    </row>
+    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B258" s="7"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="71"/>
+      <c r="F258" s="72"/>
+      <c r="G258" s="72"/>
+      <c r="H258" s="72"/>
+      <c r="I258" s="72"/>
+      <c r="J258" s="73"/>
+      <c r="K258" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="L258" s="113"/>
+      <c r="M258" s="113"/>
+      <c r="N258" s="113"/>
+      <c r="O258" s="113"/>
+      <c r="P258" s="121"/>
+    </row>
+    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B259" s="7"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="71"/>
+      <c r="F259" s="72"/>
+      <c r="G259" s="72"/>
+      <c r="H259" s="72"/>
+      <c r="I259" s="72"/>
+      <c r="J259" s="73"/>
+      <c r="K259" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="L259" s="114"/>
+      <c r="M259" s="114"/>
+      <c r="N259" s="114"/>
+      <c r="O259" s="114"/>
+      <c r="P259" s="134"/>
+    </row>
+    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B260" s="7"/>
+      <c r="C260" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D260" s="109"/>
+      <c r="E260" s="190" t="s">
+        <v>204</v>
+      </c>
+      <c r="F260" s="191"/>
+      <c r="G260" s="191"/>
+      <c r="H260" s="191"/>
+      <c r="I260" s="191"/>
+      <c r="J260" s="192"/>
+      <c r="K260" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L260" s="111"/>
+      <c r="M260" s="111"/>
+      <c r="N260" s="111"/>
+      <c r="O260" s="111"/>
+      <c r="P260" s="120"/>
+    </row>
+    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B261" s="7"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="193"/>
+      <c r="F261" s="194"/>
+      <c r="G261" s="194"/>
+      <c r="H261" s="194"/>
+      <c r="I261" s="194"/>
+      <c r="J261" s="195"/>
+      <c r="K261" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="L261" s="113"/>
+      <c r="M261" s="113"/>
+      <c r="N261" s="113"/>
+      <c r="O261" s="113"/>
+      <c r="P261" s="121"/>
+    </row>
+    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B262" s="7"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="87"/>
+      <c r="E262" s="196"/>
+      <c r="F262" s="197"/>
+      <c r="G262" s="197"/>
+      <c r="H262" s="197"/>
+      <c r="I262" s="197"/>
+      <c r="J262" s="198"/>
+      <c r="K262" s="129"/>
+      <c r="L262" s="114"/>
+      <c r="M262" s="114"/>
+      <c r="N262" s="114"/>
+      <c r="O262" s="114"/>
+      <c r="P262" s="134"/>
+    </row>
+    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B263" s="7"/>
+      <c r="C263" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D263" s="109"/>
+      <c r="E263" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="F263" s="111"/>
+      <c r="G263" s="111"/>
+      <c r="H263" s="111"/>
+      <c r="I263" s="111"/>
+      <c r="J263" s="112"/>
+      <c r="K263" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="L263" s="111"/>
+      <c r="M263" s="111"/>
+      <c r="N263" s="111"/>
+      <c r="O263" s="111"/>
+      <c r="P263" s="120"/>
+    </row>
+    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B264" s="7"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="68"/>
+      <c r="F264" s="69"/>
+      <c r="G264" s="69"/>
+      <c r="H264" s="69"/>
+      <c r="I264" s="69"/>
+      <c r="J264" s="70"/>
+      <c r="K264" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="L264" s="113"/>
+      <c r="M264" s="113"/>
+      <c r="N264" s="113"/>
+      <c r="O264" s="113"/>
+      <c r="P264" s="121"/>
+    </row>
+    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B265" s="7"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="68"/>
+      <c r="F265" s="69"/>
+      <c r="G265" s="69"/>
+      <c r="H265" s="69"/>
+      <c r="I265" s="69"/>
+      <c r="J265" s="70"/>
+      <c r="K265" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="L265" s="113"/>
+      <c r="M265" s="113"/>
+      <c r="N265" s="113"/>
+      <c r="O265" s="113"/>
+      <c r="P265" s="121"/>
+    </row>
+    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B266" s="7"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="68"/>
+      <c r="F266" s="69"/>
+      <c r="G266" s="69"/>
+      <c r="H266" s="69"/>
+      <c r="I266" s="69"/>
+      <c r="J266" s="70"/>
+      <c r="K266" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="L266" s="113"/>
+      <c r="M266" s="113"/>
+      <c r="N266" s="113"/>
+      <c r="O266" s="113"/>
+      <c r="P266" s="121"/>
+    </row>
+    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B267" s="7"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="68"/>
+      <c r="F267" s="69"/>
+      <c r="G267" s="69"/>
+      <c r="H267" s="69"/>
+      <c r="I267" s="69"/>
+      <c r="J267" s="70"/>
+      <c r="K267" s="199" t="s">
+        <v>210</v>
+      </c>
+      <c r="L267" s="200"/>
+      <c r="M267" s="200"/>
+      <c r="N267" s="200"/>
+      <c r="O267" s="200"/>
+      <c r="P267" s="201"/>
+    </row>
+    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B268" s="7"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="68"/>
+      <c r="F268" s="69"/>
+      <c r="G268" s="69"/>
+      <c r="H268" s="69"/>
+      <c r="I268" s="69"/>
+      <c r="J268" s="70"/>
+      <c r="K268" s="199" t="s">
+        <v>211</v>
+      </c>
+      <c r="L268" s="200"/>
+      <c r="M268" s="200"/>
+      <c r="N268" s="200"/>
+      <c r="O268" s="200"/>
+      <c r="P268" s="201"/>
+    </row>
+    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B269" s="7"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="68"/>
+      <c r="F269" s="69"/>
+      <c r="G269" s="69"/>
+      <c r="H269" s="69"/>
+      <c r="I269" s="69"/>
+      <c r="J269" s="70"/>
+      <c r="K269" s="199" t="s">
+        <v>212</v>
+      </c>
+      <c r="L269" s="200"/>
+      <c r="M269" s="200"/>
+      <c r="N269" s="200"/>
+      <c r="O269" s="200"/>
+      <c r="P269" s="201"/>
+    </row>
+    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B270" s="7"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="68"/>
+      <c r="F270" s="69"/>
+      <c r="G270" s="69"/>
+      <c r="H270" s="69"/>
+      <c r="I270" s="69"/>
+      <c r="J270" s="70"/>
+      <c r="K270" s="199" t="s">
+        <v>213</v>
+      </c>
+      <c r="L270" s="200"/>
+      <c r="M270" s="200"/>
+      <c r="N270" s="200"/>
+      <c r="O270" s="200"/>
+      <c r="P270" s="201"/>
+    </row>
+    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B271" s="7"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="68"/>
+      <c r="F271" s="69"/>
+      <c r="G271" s="69"/>
+      <c r="H271" s="69"/>
+      <c r="I271" s="69"/>
+      <c r="J271" s="70"/>
+      <c r="K271" s="199" t="s">
+        <v>214</v>
+      </c>
+      <c r="L271" s="200"/>
+      <c r="M271" s="200"/>
+      <c r="N271" s="200"/>
+      <c r="O271" s="200"/>
+      <c r="P271" s="201"/>
+    </row>
+    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B272" s="7"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="68"/>
+      <c r="F272" s="69"/>
+      <c r="G272" s="69"/>
+      <c r="H272" s="69"/>
+      <c r="I272" s="69"/>
+      <c r="J272" s="70"/>
+      <c r="K272" s="199" t="s">
+        <v>215</v>
+      </c>
+      <c r="L272" s="200"/>
+      <c r="M272" s="200"/>
+      <c r="N272" s="200"/>
+      <c r="O272" s="200"/>
+      <c r="P272" s="201"/>
+    </row>
+    <row r="273" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B273" s="7"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="68"/>
+      <c r="F273" s="69"/>
+      <c r="G273" s="69"/>
+      <c r="H273" s="69"/>
+      <c r="I273" s="69"/>
+      <c r="J273" s="70"/>
+      <c r="K273" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="L273" s="113"/>
+      <c r="M273" s="113"/>
+      <c r="N273" s="113"/>
+      <c r="O273" s="113"/>
+      <c r="P273" s="121"/>
+    </row>
+    <row r="274" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B274" s="7"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="21"/>
+      <c r="E274" s="68"/>
+      <c r="F274" s="69"/>
+      <c r="G274" s="69"/>
+      <c r="H274" s="69"/>
+      <c r="I274" s="69"/>
+      <c r="J274" s="70"/>
+      <c r="K274" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="L274" s="113"/>
+      <c r="M274" s="113"/>
+      <c r="N274" s="113"/>
+      <c r="O274" s="113"/>
+      <c r="P274" s="121"/>
+    </row>
+    <row r="275" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B275" s="7"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="69"/>
+      <c r="F275" s="69"/>
+      <c r="G275" s="69"/>
+      <c r="H275" s="69"/>
+      <c r="I275" s="69"/>
+      <c r="J275" s="70"/>
+      <c r="K275" s="130"/>
+      <c r="L275" s="113"/>
+      <c r="M275" s="113"/>
+      <c r="N275" s="113"/>
+      <c r="O275" s="113"/>
+      <c r="P275" s="121"/>
+    </row>
+    <row r="276" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="36"/>
+      <c r="C276" s="202"/>
+      <c r="D276" s="203"/>
+      <c r="E276" s="204"/>
+      <c r="F276" s="204"/>
+      <c r="G276" s="204"/>
+      <c r="H276" s="204"/>
+      <c r="I276" s="204"/>
+      <c r="J276" s="205"/>
+      <c r="K276" s="206"/>
+      <c r="L276" s="207"/>
+      <c r="M276" s="207"/>
+      <c r="N276" s="207"/>
+      <c r="O276" s="207"/>
+      <c r="P276" s="208"/>
+    </row>
+    <row r="277" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="317">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="E13:P13"/>
+  <mergeCells count="378">
+    <mergeCell ref="K273:P273"/>
+    <mergeCell ref="K274:P276"/>
+    <mergeCell ref="K264:P264"/>
+    <mergeCell ref="K265:P265"/>
+    <mergeCell ref="K266:P266"/>
+    <mergeCell ref="K267:P267"/>
+    <mergeCell ref="K268:P268"/>
+    <mergeCell ref="K269:P269"/>
+    <mergeCell ref="K270:P270"/>
+    <mergeCell ref="K271:P271"/>
+    <mergeCell ref="K272:P272"/>
+    <mergeCell ref="K258:P258"/>
+    <mergeCell ref="K259:P259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="E260:J262"/>
+    <mergeCell ref="K260:P260"/>
+    <mergeCell ref="K261:P262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E263:J263"/>
+    <mergeCell ref="K263:P263"/>
+    <mergeCell ref="E254:J254"/>
+    <mergeCell ref="K254:P254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="E255:J255"/>
+    <mergeCell ref="K255:P255"/>
+    <mergeCell ref="E256:J256"/>
+    <mergeCell ref="K256:P256"/>
+    <mergeCell ref="E257:J257"/>
+    <mergeCell ref="K257:P257"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="E249:J249"/>
+    <mergeCell ref="K249:P249"/>
+    <mergeCell ref="K250:P250"/>
+    <mergeCell ref="E251:J251"/>
+    <mergeCell ref="K251:P251"/>
+    <mergeCell ref="K252:P252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="E253:J253"/>
+    <mergeCell ref="K253:P253"/>
+    <mergeCell ref="C236:E238"/>
+    <mergeCell ref="F236:P237"/>
+    <mergeCell ref="F238:K238"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="F239:P240"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="E244:J244"/>
+    <mergeCell ref="K244:P244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="E245:J247"/>
+    <mergeCell ref="K245:P245"/>
+    <mergeCell ref="K246:P246"/>
+    <mergeCell ref="K247:P248"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="F227:P227"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:P229"/>
+    <mergeCell ref="C231:E235"/>
+    <mergeCell ref="F231:P232"/>
+    <mergeCell ref="F233:P234"/>
+    <mergeCell ref="F235:K235"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="E217:J217"/>
+    <mergeCell ref="K217:P217"/>
+    <mergeCell ref="E218:J218"/>
+    <mergeCell ref="K218:P218"/>
+    <mergeCell ref="E219:J219"/>
+    <mergeCell ref="K219:P219"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:J214"/>
+    <mergeCell ref="K214:P214"/>
+    <mergeCell ref="E215:J215"/>
+    <mergeCell ref="K215:P215"/>
+    <mergeCell ref="E216:J216"/>
+    <mergeCell ref="K216:P216"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:J211"/>
+    <mergeCell ref="K211:P211"/>
+    <mergeCell ref="E212:J212"/>
+    <mergeCell ref="K212:P212"/>
+    <mergeCell ref="E213:J213"/>
+    <mergeCell ref="K213:P213"/>
+    <mergeCell ref="K203:P203"/>
+    <mergeCell ref="K204:P204"/>
+    <mergeCell ref="K205:P205"/>
+    <mergeCell ref="K206:P206"/>
+    <mergeCell ref="K207:P207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:J210"/>
+    <mergeCell ref="K208:P208"/>
+    <mergeCell ref="K209:P209"/>
+    <mergeCell ref="K210:P210"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:J197"/>
+    <mergeCell ref="K197:P197"/>
+    <mergeCell ref="E198:J198"/>
+    <mergeCell ref="K198:P198"/>
+    <mergeCell ref="E199:J207"/>
+    <mergeCell ref="K199:P199"/>
+    <mergeCell ref="K200:P200"/>
+    <mergeCell ref="K201:P201"/>
+    <mergeCell ref="K202:P202"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:J194"/>
+    <mergeCell ref="K194:P194"/>
+    <mergeCell ref="E195:J195"/>
+    <mergeCell ref="K195:P195"/>
+    <mergeCell ref="E196:J196"/>
+    <mergeCell ref="K196:P196"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="E191:J191"/>
+    <mergeCell ref="K191:P191"/>
+    <mergeCell ref="E192:J192"/>
+    <mergeCell ref="K192:P192"/>
+    <mergeCell ref="E193:J193"/>
+    <mergeCell ref="K193:P193"/>
+    <mergeCell ref="K188:P188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:J189"/>
+    <mergeCell ref="K189:P189"/>
+    <mergeCell ref="E190:J190"/>
+    <mergeCell ref="K190:P190"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:J185"/>
+    <mergeCell ref="K185:P185"/>
+    <mergeCell ref="K186:P186"/>
+    <mergeCell ref="E187:J187"/>
+    <mergeCell ref="K187:P187"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="F176:P177"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:J181"/>
+    <mergeCell ref="K181:P181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:J184"/>
+    <mergeCell ref="K182:P182"/>
+    <mergeCell ref="K183:P183"/>
+    <mergeCell ref="K184:P184"/>
+    <mergeCell ref="C168:E172"/>
+    <mergeCell ref="F168:P169"/>
+    <mergeCell ref="F170:P171"/>
+    <mergeCell ref="F172:K172"/>
+    <mergeCell ref="C173:E175"/>
+    <mergeCell ref="F173:P174"/>
+    <mergeCell ref="F175:K175"/>
+    <mergeCell ref="E157:J157"/>
+    <mergeCell ref="K157:P157"/>
+    <mergeCell ref="C162:K162"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="F164:P164"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="F166:P166"/>
+    <mergeCell ref="K153:P153"/>
+    <mergeCell ref="E154:J154"/>
+    <mergeCell ref="K154:P154"/>
+    <mergeCell ref="K155:P155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:J156"/>
+    <mergeCell ref="K156:P156"/>
+    <mergeCell ref="K150:P150"/>
+    <mergeCell ref="E151:J151"/>
+    <mergeCell ref="K151:P151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:J152"/>
+    <mergeCell ref="K152:P152"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:J146"/>
+    <mergeCell ref="K146:P146"/>
+    <mergeCell ref="K147:P147"/>
+    <mergeCell ref="K148:N148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:J149"/>
+    <mergeCell ref="K149:P149"/>
+    <mergeCell ref="K143:P143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:J144"/>
+    <mergeCell ref="K144:P144"/>
+    <mergeCell ref="E145:J145"/>
+    <mergeCell ref="K145:P145"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:J140"/>
+    <mergeCell ref="K140:P140"/>
+    <mergeCell ref="K141:P141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:J142"/>
+    <mergeCell ref="K142:P142"/>
+    <mergeCell ref="F133:K133"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:J136"/>
+    <mergeCell ref="K136:P136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:J139"/>
+    <mergeCell ref="K137:P137"/>
+    <mergeCell ref="K138:P138"/>
+    <mergeCell ref="K139:P139"/>
+    <mergeCell ref="C129:E131"/>
+    <mergeCell ref="F129:K129"/>
+    <mergeCell ref="F130:K130"/>
+    <mergeCell ref="F131:K131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="F132:K132"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="C124:E128"/>
+    <mergeCell ref="F124:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F127:K127"/>
+    <mergeCell ref="F128:K128"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:J116"/>
+    <mergeCell ref="K116:N116"/>
+    <mergeCell ref="C118:K118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F120:K120"/>
+    <mergeCell ref="K112:N112"/>
+    <mergeCell ref="K113:N113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="K114:N114"/>
+    <mergeCell ref="K115:P115"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="K107:N107"/>
+    <mergeCell ref="K108:N108"/>
+    <mergeCell ref="K109:N109"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="K111:N111"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="K96:N96"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="K90:P90"/>
+    <mergeCell ref="K91:P91"/>
+    <mergeCell ref="K92:P92"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="K94:P94"/>
+    <mergeCell ref="K95:P95"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:P87"/>
+    <mergeCell ref="K88:P88"/>
+    <mergeCell ref="K89:P89"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:P85"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:P80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:P77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:P74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K52:P52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:N21"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:J60"/>
@@ -6209,290 +7755,15 @@
     <mergeCell ref="K24:N24"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K52:P52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:P74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:P80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:P77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:P87"/>
-    <mergeCell ref="K88:P88"/>
-    <mergeCell ref="K89:P89"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:P85"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="K90:P90"/>
-    <mergeCell ref="K91:P91"/>
-    <mergeCell ref="K92:P92"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="K94:P94"/>
-    <mergeCell ref="K95:P95"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:J106"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="E107:J107"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="K108:N108"/>
-    <mergeCell ref="K109:N109"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="K111:N111"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:J116"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="C118:K118"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="F120:K120"/>
-    <mergeCell ref="K112:N112"/>
-    <mergeCell ref="K113:N113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="K114:N114"/>
-    <mergeCell ref="K115:P115"/>
-    <mergeCell ref="C129:E131"/>
-    <mergeCell ref="F129:K129"/>
-    <mergeCell ref="F130:K130"/>
-    <mergeCell ref="F131:K131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="F132:K132"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="C124:E128"/>
-    <mergeCell ref="F124:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F127:K127"/>
-    <mergeCell ref="F128:K128"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:J140"/>
-    <mergeCell ref="K140:P140"/>
-    <mergeCell ref="K141:P141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="E142:J142"/>
-    <mergeCell ref="K142:P142"/>
-    <mergeCell ref="F133:K133"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:J136"/>
-    <mergeCell ref="K136:P136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:J139"/>
-    <mergeCell ref="K137:P137"/>
-    <mergeCell ref="K138:P138"/>
-    <mergeCell ref="K139:P139"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:J146"/>
-    <mergeCell ref="K146:P146"/>
-    <mergeCell ref="K147:P147"/>
-    <mergeCell ref="K148:N148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:J149"/>
-    <mergeCell ref="K149:P149"/>
-    <mergeCell ref="K143:P143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:J144"/>
-    <mergeCell ref="K144:P144"/>
-    <mergeCell ref="E145:J145"/>
-    <mergeCell ref="K145:P145"/>
-    <mergeCell ref="K153:P153"/>
-    <mergeCell ref="E154:J154"/>
-    <mergeCell ref="K154:P154"/>
-    <mergeCell ref="K155:P155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:J156"/>
-    <mergeCell ref="K156:P156"/>
-    <mergeCell ref="K150:P150"/>
-    <mergeCell ref="E151:J151"/>
-    <mergeCell ref="K151:P151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:J152"/>
-    <mergeCell ref="K152:P152"/>
-    <mergeCell ref="C168:E172"/>
-    <mergeCell ref="F168:P169"/>
-    <mergeCell ref="F170:P171"/>
-    <mergeCell ref="F172:K172"/>
-    <mergeCell ref="C173:E175"/>
-    <mergeCell ref="F173:P174"/>
-    <mergeCell ref="F175:K175"/>
-    <mergeCell ref="E157:J157"/>
-    <mergeCell ref="K157:P157"/>
-    <mergeCell ref="C162:K162"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="F164:P164"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="F166:P166"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="F176:P177"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:J181"/>
-    <mergeCell ref="K181:P181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:J184"/>
-    <mergeCell ref="K182:P182"/>
-    <mergeCell ref="K183:P183"/>
-    <mergeCell ref="K184:P184"/>
-    <mergeCell ref="K188:P188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:J189"/>
-    <mergeCell ref="K189:P189"/>
-    <mergeCell ref="E190:J190"/>
-    <mergeCell ref="K190:P190"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:J185"/>
-    <mergeCell ref="K185:P185"/>
-    <mergeCell ref="K186:P186"/>
-    <mergeCell ref="E187:J187"/>
-    <mergeCell ref="K187:P187"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:J194"/>
-    <mergeCell ref="K194:P194"/>
-    <mergeCell ref="E195:J195"/>
-    <mergeCell ref="K195:P195"/>
-    <mergeCell ref="E196:J196"/>
-    <mergeCell ref="K196:P196"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="E191:J191"/>
-    <mergeCell ref="K191:P191"/>
-    <mergeCell ref="E192:J192"/>
-    <mergeCell ref="K192:P192"/>
-    <mergeCell ref="E193:J193"/>
-    <mergeCell ref="K193:P193"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:J197"/>
-    <mergeCell ref="K197:P197"/>
-    <mergeCell ref="E198:J198"/>
-    <mergeCell ref="K198:P198"/>
-    <mergeCell ref="E199:J207"/>
-    <mergeCell ref="K199:P199"/>
-    <mergeCell ref="K200:P200"/>
-    <mergeCell ref="K201:P201"/>
-    <mergeCell ref="K202:P202"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:J211"/>
-    <mergeCell ref="K211:P211"/>
-    <mergeCell ref="E212:J212"/>
-    <mergeCell ref="K212:P212"/>
-    <mergeCell ref="E213:J213"/>
-    <mergeCell ref="K213:P213"/>
-    <mergeCell ref="K203:P203"/>
-    <mergeCell ref="K204:P204"/>
-    <mergeCell ref="K205:P205"/>
-    <mergeCell ref="K206:P206"/>
-    <mergeCell ref="K207:P207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:J210"/>
-    <mergeCell ref="K208:P208"/>
-    <mergeCell ref="K209:P209"/>
-    <mergeCell ref="K210:P210"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="E217:J217"/>
-    <mergeCell ref="K217:P217"/>
-    <mergeCell ref="E218:J218"/>
-    <mergeCell ref="K218:P218"/>
-    <mergeCell ref="E219:J219"/>
-    <mergeCell ref="K219:P219"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:J214"/>
-    <mergeCell ref="K214:P214"/>
-    <mergeCell ref="E215:J215"/>
-    <mergeCell ref="K215:P215"/>
-    <mergeCell ref="E216:J216"/>
-    <mergeCell ref="K216:P216"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="E13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ManualTC_FitnessBlender.xlsx
+++ b/ManualTC_FitnessBlender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwelter\Documents\UFT Training\RFP_ACT Test Scripts\FitnessBlender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07DF55C9-9713-41F9-8404-D5539BB35561}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{64EA9B7F-A4D0-4265-B893-54E8E242DAA6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4CC0C176-19A5-4717-83F2-409659588908}"/>
   </bookViews>
@@ -624,9 +624,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Verify that logged user can add Meal Plan to Cart.</t>
-  </si>
-  <si>
     <t>Logged user added single product to Cart successfully.</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>In the Shopping Bag icon on header navbar, number 1 is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that logged user can add single product to Cart.</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1390,363 +1390,387 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A10664C-B3CD-4D4F-8F59-712D1301AA7F}">
-  <dimension ref="B3:R277"/>
+  <dimension ref="B3:R279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+      <selection activeCell="K275" sqref="K275:P275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,17 +2106,17 @@
   <sheetData>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -2117,11 +2141,11 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="57">
         <v>1</v>
       </c>
@@ -2155,25 +2179,25 @@
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93" t="s">
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="62"/>
@@ -2193,82 +2217,82 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98" t="s">
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="147"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="103"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="150"/>
     </row>
     <row r="12" spans="2:16" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="93" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="162"/>
     </row>
     <row r="13" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="162"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
@@ -2288,8 +2312,8 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2320,49 +2344,49 @@
     </row>
     <row r="17" spans="2:16" s="65" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="115" t="s">
+      <c r="D17" s="207"/>
+      <c r="E17" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="118" t="s">
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="119"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="210"/>
     </row>
     <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110" t="s">
+      <c r="D18" s="113"/>
+      <c r="E18" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111" t="s">
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="120"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -2374,14 +2398,14 @@
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="113" t="s">
+      <c r="K19" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="121"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="102"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
@@ -2393,31 +2417,31 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="122" t="s">
+      <c r="K20" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
       <c r="O20" s="27"/>
       <c r="P20" s="52"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="122" t="s">
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
       <c r="O21" s="44"/>
       <c r="P21" s="50"/>
     </row>
@@ -2431,12 +2455,12 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="113" t="s">
+      <c r="K22" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
       <c r="O22" s="44"/>
       <c r="P22" s="50"/>
     </row>
@@ -2450,12 +2474,12 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="113" t="s">
+      <c r="K23" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
       <c r="O23" s="44"/>
       <c r="P23" s="50"/>
     </row>
@@ -2469,12 +2493,12 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="113" t="s">
+      <c r="K24" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
       <c r="O24" s="44"/>
       <c r="P24" s="50"/>
     </row>
@@ -2488,12 +2512,12 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="113" t="s">
+      <c r="K25" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
       <c r="O25" s="44"/>
       <c r="P25" s="50"/>
     </row>
@@ -2507,12 +2531,12 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
       <c r="J26" s="45"/>
-      <c r="K26" s="113" t="s">
+      <c r="K26" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
       <c r="O26" s="44"/>
       <c r="P26" s="50"/>
     </row>
@@ -2526,12 +2550,12 @@
       <c r="H27" s="44"/>
       <c r="I27" s="44"/>
       <c r="J27" s="45"/>
-      <c r="K27" s="113" t="s">
+      <c r="K27" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
       <c r="O27" s="44"/>
       <c r="P27" s="50"/>
     </row>
@@ -2545,12 +2569,12 @@
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
       <c r="J28" s="45"/>
-      <c r="K28" s="113" t="s">
+      <c r="K28" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="101"/>
+      <c r="N28" s="101"/>
       <c r="O28" s="44"/>
       <c r="P28" s="50"/>
     </row>
@@ -2564,35 +2588,35 @@
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="48"/>
-      <c r="K29" s="114" t="s">
+      <c r="K29" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
       <c r="O29" s="47"/>
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110" t="s">
+      <c r="D30" s="113"/>
+      <c r="E30" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="111" t="s">
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
       <c r="O30" s="42"/>
       <c r="P30" s="49"/>
     </row>
@@ -2606,12 +2630,12 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
       <c r="J31" s="45"/>
-      <c r="K31" s="113" t="s">
+      <c r="K31" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
       <c r="O31" s="44"/>
       <c r="P31" s="50"/>
     </row>
@@ -2625,12 +2649,12 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="113" t="s">
+      <c r="K32" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
       <c r="O32" s="44"/>
       <c r="P32" s="50"/>
     </row>
@@ -2644,12 +2668,12 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="113" t="s">
+      <c r="K33" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
       <c r="O33" s="44"/>
       <c r="P33" s="50"/>
     </row>
@@ -2663,12 +2687,12 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
       <c r="J34" s="45"/>
-      <c r="K34" s="113" t="s">
+      <c r="K34" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
       <c r="O34" s="44"/>
       <c r="P34" s="50"/>
     </row>
@@ -2682,12 +2706,12 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
       <c r="J35" s="45"/>
-      <c r="K35" s="113" t="s">
+      <c r="K35" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
       <c r="O35" s="44"/>
       <c r="P35" s="50"/>
     </row>
@@ -2701,12 +2725,12 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
       <c r="J36" s="45"/>
-      <c r="K36" s="113" t="s">
+      <c r="K36" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
       <c r="O36" s="44"/>
       <c r="P36" s="50"/>
     </row>
@@ -2720,12 +2744,12 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
       <c r="J37" s="45"/>
-      <c r="K37" s="113" t="s">
+      <c r="K37" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
       <c r="O37" s="44"/>
       <c r="P37" s="50"/>
     </row>
@@ -2739,35 +2763,35 @@
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="48"/>
-      <c r="K38" s="114" t="s">
+      <c r="K38" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
       <c r="O38" s="47"/>
       <c r="P38" s="51"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="110" t="s">
+      <c r="D39" s="126"/>
+      <c r="E39" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="111" t="s">
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
       <c r="O39" s="42"/>
       <c r="P39" s="49"/>
     </row>
@@ -2781,12 +2805,12 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="45"/>
-      <c r="K40" s="113" t="s">
+      <c r="K40" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
       <c r="O40" s="44"/>
       <c r="P40" s="50"/>
     </row>
@@ -2794,18 +2818,18 @@
       <c r="B41" s="7"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="131"/>
-      <c r="K41" s="113" t="s">
+      <c r="E41" s="100"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
       <c r="O41" s="44"/>
       <c r="P41" s="50"/>
     </row>
@@ -2819,12 +2843,12 @@
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
       <c r="J42" s="45"/>
-      <c r="K42" s="113" t="s">
+      <c r="K42" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
       <c r="O42" s="44"/>
       <c r="P42" s="50"/>
     </row>
@@ -2838,79 +2862,79 @@
       <c r="H43" s="44"/>
       <c r="I43" s="44"/>
       <c r="J43" s="45"/>
-      <c r="K43" s="113" t="s">
+      <c r="K43" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
       <c r="O43" s="44"/>
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="110" t="s">
+      <c r="D44" s="113"/>
+      <c r="E44" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="110" t="s">
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
       <c r="O44" s="42"/>
       <c r="P44" s="49"/>
-      <c r="Q44" s="128"/>
-      <c r="R44" s="128"/>
+      <c r="Q44" s="204"/>
+      <c r="R44" s="204"/>
     </row>
     <row r="45" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="133"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="203"/>
       <c r="E45" s="46"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
       <c r="J45" s="48"/>
-      <c r="K45" s="129" t="s">
+      <c r="K45" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
       <c r="O45" s="47"/>
       <c r="P45" s="51"/>
     </row>
     <row r="46" spans="2:18" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="112"/>
-      <c r="E46" s="110" t="s">
+      <c r="D46" s="126"/>
+      <c r="E46" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="111" t="s">
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
       <c r="O46" s="42"/>
       <c r="P46" s="49"/>
     </row>
@@ -2918,20 +2942,20 @@
       <c r="B47" s="7"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="130" t="s">
+      <c r="E47" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="113" t="s">
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
       <c r="O47" s="44"/>
       <c r="P47" s="50"/>
     </row>
@@ -2945,35 +2969,35 @@
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="114" t="s">
+      <c r="K48" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114"/>
-      <c r="N48" s="114"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
       <c r="O48" s="47"/>
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="2:18" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="108" t="s">
+      <c r="C49" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="109"/>
-      <c r="E49" s="110" t="s">
+      <c r="D49" s="113"/>
+      <c r="E49" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="111" t="s">
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
       <c r="O49" s="42"/>
       <c r="P49" s="49"/>
     </row>
@@ -2981,20 +3005,20 @@
       <c r="B50" s="7"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="130" t="s">
+      <c r="E50" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="113" t="s">
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
       <c r="O50" s="44"/>
       <c r="P50" s="50"/>
     </row>
@@ -3008,12 +3032,12 @@
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
       <c r="J51" s="45"/>
-      <c r="K51" s="113" t="s">
+      <c r="K51" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
       <c r="O51" s="44"/>
       <c r="P51" s="50"/>
     </row>
@@ -3027,36 +3051,36 @@
       <c r="H52" s="47"/>
       <c r="I52" s="47"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="129" t="s">
+      <c r="K52" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="134"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="110"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="111"/>
       <c r="R52"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="108" t="s">
+      <c r="C53" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="112"/>
-      <c r="E53" s="110" t="s">
+      <c r="D53" s="126"/>
+      <c r="E53" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="111" t="s">
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="L53" s="111"/>
-      <c r="M53" s="111"/>
-      <c r="N53" s="111"/>
+      <c r="L53" s="124"/>
+      <c r="M53" s="124"/>
+      <c r="N53" s="124"/>
       <c r="O53" s="42"/>
       <c r="P53" s="49"/>
     </row>
@@ -3070,12 +3094,12 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
       <c r="J54" s="45"/>
-      <c r="K54" s="113" t="s">
+      <c r="K54" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
+      <c r="L54" s="101"/>
+      <c r="M54" s="101"/>
+      <c r="N54" s="101"/>
       <c r="O54" s="44"/>
       <c r="P54" s="50"/>
     </row>
@@ -3089,12 +3113,12 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
       <c r="J55" s="45"/>
-      <c r="K55" s="113" t="s">
+      <c r="K55" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="L55" s="113"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
       <c r="O55" s="44"/>
       <c r="P55" s="50"/>
     </row>
@@ -3108,12 +3132,12 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
       <c r="J56" s="45"/>
-      <c r="K56" s="113" t="s">
+      <c r="K56" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="L56" s="113"/>
-      <c r="M56" s="113"/>
-      <c r="N56" s="113"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
       <c r="O56" s="44"/>
       <c r="P56" s="50"/>
     </row>
@@ -3127,12 +3151,12 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
       <c r="J57" s="45"/>
-      <c r="K57" s="113" t="s">
+      <c r="K57" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="L57" s="113"/>
-      <c r="M57" s="113"/>
-      <c r="N57" s="113"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
       <c r="O57" s="44"/>
       <c r="P57" s="50"/>
     </row>
@@ -3146,12 +3170,12 @@
       <c r="H58" s="44"/>
       <c r="I58" s="44"/>
       <c r="J58" s="45"/>
-      <c r="K58" s="113" t="s">
+      <c r="K58" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
       <c r="O58" s="44"/>
       <c r="P58" s="50"/>
     </row>
@@ -3165,35 +3189,35 @@
       <c r="H59" s="47"/>
       <c r="I59" s="47"/>
       <c r="J59" s="48"/>
-      <c r="K59" s="114" t="s">
+      <c r="K59" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
+      <c r="L59" s="110"/>
+      <c r="M59" s="110"/>
+      <c r="N59" s="110"/>
       <c r="O59" s="47"/>
       <c r="P59" s="51"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="109"/>
-      <c r="E60" s="110" t="s">
+      <c r="D60" s="113"/>
+      <c r="E60" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="111" t="s">
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="L60" s="111"/>
-      <c r="M60" s="111"/>
-      <c r="N60" s="111"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="124"/>
+      <c r="N60" s="124"/>
       <c r="O60" s="42"/>
       <c r="P60" s="49"/>
     </row>
@@ -3201,18 +3225,18 @@
       <c r="B61" s="7"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="127"/>
-      <c r="K61" s="113" t="s">
+      <c r="E61" s="129"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="131"/>
+      <c r="K61" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="L61" s="113"/>
-      <c r="M61" s="113"/>
-      <c r="N61" s="113"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
       <c r="O61" s="44"/>
       <c r="P61" s="50"/>
     </row>
@@ -3226,12 +3250,12 @@
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
       <c r="J62" s="45"/>
-      <c r="K62" s="113" t="s">
+      <c r="K62" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="L62" s="113"/>
-      <c r="M62" s="113"/>
-      <c r="N62" s="113"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
       <c r="O62" s="44"/>
       <c r="P62" s="50"/>
     </row>
@@ -3245,12 +3269,12 @@
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
       <c r="J63" s="45"/>
-      <c r="K63" s="113" t="s">
+      <c r="K63" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
       <c r="O63" s="44"/>
       <c r="P63" s="50"/>
     </row>
@@ -3264,12 +3288,12 @@
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
       <c r="J64" s="45"/>
-      <c r="K64" s="113" t="s">
+      <c r="K64" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="113"/>
-      <c r="M64" s="113"/>
-      <c r="N64" s="113"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
       <c r="O64" s="44"/>
       <c r="P64" s="50"/>
     </row>
@@ -3283,12 +3307,12 @@
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
       <c r="J65" s="45"/>
-      <c r="K65" s="113" t="s">
+      <c r="K65" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="101"/>
       <c r="O65" s="44"/>
       <c r="P65" s="50"/>
     </row>
@@ -3302,35 +3326,35 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
       <c r="J66" s="45"/>
-      <c r="K66" s="113" t="s">
+      <c r="K66" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="113"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
       <c r="O66" s="44"/>
       <c r="P66" s="50"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="109"/>
-      <c r="E67" s="110" t="s">
+      <c r="D67" s="113"/>
+      <c r="E67" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="112"/>
-      <c r="K67" s="111" t="s">
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="124"/>
       <c r="O67" s="42"/>
       <c r="P67" s="49"/>
     </row>
@@ -3344,35 +3368,35 @@
       <c r="H68" s="47"/>
       <c r="I68" s="47"/>
       <c r="J68" s="48"/>
-      <c r="K68" s="114" t="s">
+      <c r="K68" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
-      <c r="N68" s="114"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
       <c r="O68" s="47"/>
       <c r="P68" s="51"/>
     </row>
     <row r="69" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="108" t="s">
+      <c r="C69" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="110" t="s">
+      <c r="D69" s="113"/>
+      <c r="E69" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="112"/>
-      <c r="K69" s="111" t="s">
+      <c r="F69" s="124"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="L69" s="111"/>
-      <c r="M69" s="111"/>
-      <c r="N69" s="111"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
       <c r="O69" s="42"/>
       <c r="P69" s="49"/>
     </row>
@@ -3380,20 +3404,20 @@
       <c r="B70" s="7"/>
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="130" t="s">
+      <c r="E70" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="131"/>
-      <c r="K70" s="113" t="s">
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="101"/>
+      <c r="N70" s="101"/>
       <c r="O70" s="44"/>
       <c r="P70" s="50"/>
     </row>
@@ -3407,35 +3431,35 @@
       <c r="H71" s="47"/>
       <c r="I71" s="47"/>
       <c r="J71" s="48"/>
-      <c r="K71" s="114" t="s">
+      <c r="K71" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="L71" s="114"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="114"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="110"/>
+      <c r="N71" s="110"/>
       <c r="O71" s="47"/>
       <c r="P71" s="51"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
-      <c r="C72" s="108" t="s">
+      <c r="C72" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="109"/>
-      <c r="E72" s="110" t="s">
+      <c r="D72" s="113"/>
+      <c r="E72" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="111"/>
-      <c r="G72" s="111"/>
-      <c r="H72" s="111"/>
-      <c r="I72" s="111"/>
-      <c r="J72" s="112"/>
-      <c r="K72" s="111" t="s">
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="L72" s="111"/>
-      <c r="M72" s="111"/>
-      <c r="N72" s="111"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="124"/>
       <c r="O72" s="42"/>
       <c r="P72" s="49"/>
     </row>
@@ -3443,20 +3467,20 @@
       <c r="B73" s="7"/>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="130" t="s">
+      <c r="E73" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="F73" s="113"/>
-      <c r="G73" s="113"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="131"/>
-      <c r="K73" s="113" t="s">
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
+      <c r="L73" s="101"/>
+      <c r="M73" s="101"/>
+      <c r="N73" s="101"/>
       <c r="O73" s="44"/>
       <c r="P73" s="50"/>
     </row>
@@ -3470,35 +3494,35 @@
       <c r="H74" s="47"/>
       <c r="I74" s="47"/>
       <c r="J74" s="48"/>
-      <c r="K74" s="129" t="s">
+      <c r="K74" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="L74" s="114"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="114"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="134"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="110"/>
+      <c r="N74" s="110"/>
+      <c r="O74" s="110"/>
+      <c r="P74" s="111"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="110" t="s">
+      <c r="D75" s="113"/>
+      <c r="E75" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="111"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="112"/>
-      <c r="K75" s="111" t="s">
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="126"/>
+      <c r="K75" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="L75" s="111"/>
-      <c r="M75" s="111"/>
-      <c r="N75" s="111"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="124"/>
+      <c r="N75" s="124"/>
       <c r="O75" s="42"/>
       <c r="P75" s="49"/>
     </row>
@@ -3506,20 +3530,20 @@
       <c r="B76" s="7"/>
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="130" t="s">
+      <c r="E76" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="113"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="113" t="s">
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="101"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="L76" s="113"/>
-      <c r="M76" s="113"/>
-      <c r="N76" s="113"/>
+      <c r="L76" s="101"/>
+      <c r="M76" s="101"/>
+      <c r="N76" s="101"/>
       <c r="O76" s="44"/>
       <c r="P76" s="50"/>
     </row>
@@ -3533,35 +3557,35 @@
       <c r="H77" s="47"/>
       <c r="I77" s="47"/>
       <c r="J77" s="48"/>
-      <c r="K77" s="129" t="s">
+      <c r="K77" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114"/>
-      <c r="O77" s="114"/>
-      <c r="P77" s="134"/>
+      <c r="L77" s="110"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="110"/>
+      <c r="O77" s="110"/>
+      <c r="P77" s="111"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
-      <c r="C78" s="108" t="s">
+      <c r="C78" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="109"/>
-      <c r="E78" s="110" t="s">
+      <c r="D78" s="113"/>
+      <c r="E78" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="112"/>
-      <c r="K78" s="111" t="s">
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="L78" s="111"/>
-      <c r="M78" s="111"/>
-      <c r="N78" s="111"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="124"/>
+      <c r="N78" s="124"/>
       <c r="O78" s="42"/>
       <c r="P78" s="49"/>
     </row>
@@ -3569,20 +3593,20 @@
       <c r="B79" s="7"/>
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
-      <c r="E79" s="130" t="s">
+      <c r="E79" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="113"/>
-      <c r="I79" s="113"/>
-      <c r="J79" s="131"/>
-      <c r="K79" s="113" t="s">
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="128"/>
+      <c r="K79" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="L79" s="113"/>
-      <c r="M79" s="113"/>
-      <c r="N79" s="113"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
       <c r="O79" s="44"/>
       <c r="P79" s="50"/>
     </row>
@@ -3596,35 +3620,35 @@
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
       <c r="J80" s="48"/>
-      <c r="K80" s="129" t="s">
+      <c r="K80" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="L80" s="114"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="114"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="134"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="110"/>
+      <c r="O80" s="110"/>
+      <c r="P80" s="111"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
-      <c r="C81" s="108" t="s">
+      <c r="C81" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="D81" s="109"/>
-      <c r="E81" s="110" t="s">
+      <c r="D81" s="113"/>
+      <c r="E81" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="111"/>
-      <c r="G81" s="111"/>
-      <c r="H81" s="111"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="112"/>
-      <c r="K81" s="111" t="s">
+      <c r="F81" s="124"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="124"/>
+      <c r="J81" s="126"/>
+      <c r="K81" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="L81" s="111"/>
-      <c r="M81" s="111"/>
-      <c r="N81" s="111"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="124"/>
+      <c r="N81" s="124"/>
       <c r="O81" s="42"/>
       <c r="P81" s="49"/>
     </row>
@@ -3638,35 +3662,35 @@
       <c r="H82" s="47"/>
       <c r="I82" s="47"/>
       <c r="J82" s="48"/>
-      <c r="K82" s="114" t="s">
+      <c r="K82" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
-      <c r="N82" s="114"/>
+      <c r="L82" s="110"/>
+      <c r="M82" s="110"/>
+      <c r="N82" s="110"/>
       <c r="O82" s="47"/>
       <c r="P82" s="51"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
-      <c r="C83" s="108" t="s">
+      <c r="C83" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="109"/>
-      <c r="E83" s="111" t="s">
+      <c r="D83" s="113"/>
+      <c r="E83" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="F83" s="111"/>
-      <c r="G83" s="111"/>
-      <c r="H83" s="111"/>
-      <c r="I83" s="111"/>
-      <c r="J83" s="111"/>
-      <c r="K83" s="111" t="s">
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
+      <c r="J83" s="124"/>
+      <c r="K83" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="L83" s="111"/>
-      <c r="M83" s="111"/>
-      <c r="N83" s="111"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="124"/>
+      <c r="N83" s="124"/>
       <c r="O83" s="42"/>
       <c r="P83" s="49"/>
     </row>
@@ -3680,12 +3704,12 @@
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
       <c r="J84" s="45"/>
-      <c r="K84" s="113" t="s">
+      <c r="K84" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="L84" s="113"/>
-      <c r="M84" s="113"/>
-      <c r="N84" s="113"/>
+      <c r="L84" s="101"/>
+      <c r="M84" s="101"/>
+      <c r="N84" s="101"/>
       <c r="O84" s="44"/>
       <c r="P84" s="50"/>
     </row>
@@ -3699,35 +3723,35 @@
       <c r="H85" s="47"/>
       <c r="I85" s="47"/>
       <c r="J85" s="48"/>
-      <c r="K85" s="129" t="s">
+      <c r="K85" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="114"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="134"/>
+      <c r="L85" s="110"/>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="111"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
-      <c r="C86" s="108" t="s">
+      <c r="C86" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D86" s="109"/>
-      <c r="E86" s="110" t="s">
+      <c r="D86" s="113"/>
+      <c r="E86" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="111"/>
-      <c r="G86" s="111"/>
-      <c r="H86" s="111"/>
-      <c r="I86" s="111"/>
-      <c r="J86" s="112"/>
-      <c r="K86" s="111" t="s">
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="L86" s="111"/>
-      <c r="M86" s="111"/>
-      <c r="N86" s="111"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="124"/>
+      <c r="N86" s="124"/>
       <c r="O86" s="42"/>
       <c r="P86" s="49"/>
     </row>
@@ -3741,14 +3765,14 @@
       <c r="H87" s="44"/>
       <c r="I87" s="44"/>
       <c r="J87" s="45"/>
-      <c r="K87" s="130" t="s">
+      <c r="K87" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="L87" s="113"/>
-      <c r="M87" s="113"/>
-      <c r="N87" s="113"/>
-      <c r="O87" s="113"/>
-      <c r="P87" s="121"/>
+      <c r="L87" s="101"/>
+      <c r="M87" s="101"/>
+      <c r="N87" s="101"/>
+      <c r="O87" s="101"/>
+      <c r="P87" s="102"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
@@ -3760,14 +3784,14 @@
       <c r="H88" s="44"/>
       <c r="I88" s="44"/>
       <c r="J88" s="45"/>
-      <c r="K88" s="130" t="s">
+      <c r="K88" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="L88" s="113"/>
-      <c r="M88" s="113"/>
-      <c r="N88" s="113"/>
-      <c r="O88" s="113"/>
-      <c r="P88" s="121"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
+      <c r="P88" s="102"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
@@ -3779,14 +3803,14 @@
       <c r="H89" s="44"/>
       <c r="I89" s="44"/>
       <c r="J89" s="45"/>
-      <c r="K89" s="130" t="s">
+      <c r="K89" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="L89" s="113"/>
-      <c r="M89" s="113"/>
-      <c r="N89" s="113"/>
-      <c r="O89" s="113"/>
-      <c r="P89" s="121"/>
+      <c r="L89" s="101"/>
+      <c r="M89" s="101"/>
+      <c r="N89" s="101"/>
+      <c r="O89" s="101"/>
+      <c r="P89" s="102"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
@@ -3798,14 +3822,14 @@
       <c r="H90" s="44"/>
       <c r="I90" s="44"/>
       <c r="J90" s="45"/>
-      <c r="K90" s="130" t="s">
+      <c r="K90" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="L90" s="113"/>
-      <c r="M90" s="113"/>
-      <c r="N90" s="113"/>
-      <c r="O90" s="113"/>
-      <c r="P90" s="121"/>
+      <c r="L90" s="101"/>
+      <c r="M90" s="101"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
+      <c r="P90" s="102"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
@@ -3817,14 +3841,14 @@
       <c r="H91" s="44"/>
       <c r="I91" s="44"/>
       <c r="J91" s="45"/>
-      <c r="K91" s="130" t="s">
+      <c r="K91" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="L91" s="113"/>
-      <c r="M91" s="113"/>
-      <c r="N91" s="113"/>
-      <c r="O91" s="113"/>
-      <c r="P91" s="121"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="101"/>
+      <c r="O91" s="101"/>
+      <c r="P91" s="102"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
@@ -3836,14 +3860,14 @@
       <c r="H92" s="44"/>
       <c r="I92" s="44"/>
       <c r="J92" s="45"/>
-      <c r="K92" s="130" t="s">
+      <c r="K92" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L92" s="113"/>
-      <c r="M92" s="113"/>
-      <c r="N92" s="113"/>
-      <c r="O92" s="113"/>
-      <c r="P92" s="121"/>
+      <c r="L92" s="101"/>
+      <c r="M92" s="101"/>
+      <c r="N92" s="101"/>
+      <c r="O92" s="101"/>
+      <c r="P92" s="102"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
@@ -3855,14 +3879,14 @@
       <c r="H93" s="44"/>
       <c r="I93" s="44"/>
       <c r="J93" s="45"/>
-      <c r="K93" s="130" t="s">
+      <c r="K93" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="L93" s="113"/>
-      <c r="M93" s="113"/>
-      <c r="N93" s="113"/>
-      <c r="O93" s="113"/>
-      <c r="P93" s="121"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="101"/>
+      <c r="N93" s="101"/>
+      <c r="O93" s="101"/>
+      <c r="P93" s="102"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
@@ -3874,14 +3898,14 @@
       <c r="H94" s="44"/>
       <c r="I94" s="44"/>
       <c r="J94" s="45"/>
-      <c r="K94" s="130" t="s">
+      <c r="K94" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="L94" s="113"/>
-      <c r="M94" s="113"/>
-      <c r="N94" s="113"/>
-      <c r="O94" s="113"/>
-      <c r="P94" s="121"/>
+      <c r="L94" s="101"/>
+      <c r="M94" s="101"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="101"/>
+      <c r="P94" s="102"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
@@ -3893,35 +3917,35 @@
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
       <c r="J95" s="48"/>
-      <c r="K95" s="129" t="s">
+      <c r="K95" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
-      <c r="P95" s="134"/>
+      <c r="L95" s="110"/>
+      <c r="M95" s="110"/>
+      <c r="N95" s="110"/>
+      <c r="O95" s="110"/>
+      <c r="P95" s="111"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
-      <c r="C96" s="108" t="s">
+      <c r="C96" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="D96" s="109"/>
-      <c r="E96" s="110" t="s">
+      <c r="D96" s="113"/>
+      <c r="E96" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="111"/>
-      <c r="I96" s="111"/>
-      <c r="J96" s="112"/>
-      <c r="K96" s="135" t="s">
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="124"/>
+      <c r="J96" s="126"/>
+      <c r="K96" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="L96" s="135"/>
-      <c r="M96" s="135"/>
-      <c r="N96" s="135"/>
+      <c r="L96" s="200"/>
+      <c r="M96" s="200"/>
+      <c r="N96" s="200"/>
       <c r="O96" s="42"/>
       <c r="P96" s="49"/>
     </row>
@@ -3929,18 +3953,18 @@
       <c r="B97" s="7"/>
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
-      <c r="E97" s="125"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="126"/>
-      <c r="H97" s="126"/>
-      <c r="I97" s="126"/>
-      <c r="J97" s="127"/>
-      <c r="K97" s="122" t="s">
+      <c r="E97" s="129"/>
+      <c r="F97" s="130"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="130"/>
+      <c r="I97" s="130"/>
+      <c r="J97" s="131"/>
+      <c r="K97" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="L97" s="122"/>
-      <c r="M97" s="122"/>
-      <c r="N97" s="122"/>
+      <c r="L97" s="133"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
       <c r="O97" s="44"/>
       <c r="P97" s="50"/>
     </row>
@@ -3954,12 +3978,12 @@
       <c r="H98" s="44"/>
       <c r="I98" s="44"/>
       <c r="J98" s="45"/>
-      <c r="K98" s="122" t="s">
+      <c r="K98" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="L98" s="122"/>
-      <c r="M98" s="122"/>
-      <c r="N98" s="122"/>
+      <c r="L98" s="133"/>
+      <c r="M98" s="133"/>
+      <c r="N98" s="133"/>
       <c r="O98" s="44"/>
       <c r="P98" s="50"/>
     </row>
@@ -3973,35 +3997,35 @@
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
       <c r="J99" s="48"/>
-      <c r="K99" s="136" t="s">
+      <c r="K99" s="201" t="s">
         <v>151</v>
       </c>
-      <c r="L99" s="136"/>
-      <c r="M99" s="136"/>
-      <c r="N99" s="136"/>
+      <c r="L99" s="201"/>
+      <c r="M99" s="201"/>
+      <c r="N99" s="201"/>
       <c r="O99" s="47"/>
       <c r="P99" s="51"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
-      <c r="C100" s="108" t="s">
+      <c r="C100" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="109"/>
-      <c r="E100" s="110" t="s">
+      <c r="D100" s="113"/>
+      <c r="E100" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="F100" s="111"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="111"/>
-      <c r="I100" s="111"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="111" t="s">
+      <c r="F100" s="124"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="124"/>
+      <c r="J100" s="126"/>
+      <c r="K100" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="L100" s="111"/>
-      <c r="M100" s="111"/>
-      <c r="N100" s="111"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="124"/>
+      <c r="N100" s="124"/>
       <c r="O100" s="42"/>
       <c r="P100" s="49"/>
     </row>
@@ -4015,12 +4039,12 @@
       <c r="H101" s="44"/>
       <c r="I101" s="44"/>
       <c r="J101" s="45"/>
-      <c r="K101" s="113" t="s">
+      <c r="K101" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="L101" s="113"/>
-      <c r="M101" s="113"/>
-      <c r="N101" s="113"/>
+      <c r="L101" s="101"/>
+      <c r="M101" s="101"/>
+      <c r="N101" s="101"/>
       <c r="O101" s="44"/>
       <c r="P101" s="50"/>
     </row>
@@ -4034,12 +4058,12 @@
       <c r="H102" s="44"/>
       <c r="I102" s="44"/>
       <c r="J102" s="45"/>
-      <c r="K102" s="113" t="s">
+      <c r="K102" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="L102" s="113"/>
-      <c r="M102" s="113"/>
-      <c r="N102" s="113"/>
+      <c r="L102" s="101"/>
+      <c r="M102" s="101"/>
+      <c r="N102" s="101"/>
       <c r="O102" s="44"/>
       <c r="P102" s="50"/>
     </row>
@@ -4053,12 +4077,12 @@
       <c r="H103" s="44"/>
       <c r="I103" s="44"/>
       <c r="J103" s="45"/>
-      <c r="K103" s="113" t="s">
+      <c r="K103" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="L103" s="113"/>
-      <c r="M103" s="113"/>
-      <c r="N103" s="113"/>
+      <c r="L103" s="101"/>
+      <c r="M103" s="101"/>
+      <c r="N103" s="101"/>
       <c r="O103" s="44"/>
       <c r="P103" s="50"/>
     </row>
@@ -4072,12 +4096,12 @@
       <c r="H104" s="44"/>
       <c r="I104" s="44"/>
       <c r="J104" s="45"/>
-      <c r="K104" s="113" t="s">
+      <c r="K104" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="L104" s="113"/>
-      <c r="M104" s="113"/>
-      <c r="N104" s="113"/>
+      <c r="L104" s="101"/>
+      <c r="M104" s="101"/>
+      <c r="N104" s="101"/>
       <c r="O104" s="44"/>
       <c r="P104" s="50"/>
     </row>
@@ -4091,35 +4115,35 @@
       <c r="H105" s="47"/>
       <c r="I105" s="47"/>
       <c r="J105" s="48"/>
-      <c r="K105" s="114" t="s">
+      <c r="K105" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="L105" s="114"/>
-      <c r="M105" s="114"/>
-      <c r="N105" s="114"/>
+      <c r="L105" s="110"/>
+      <c r="M105" s="110"/>
+      <c r="N105" s="110"/>
       <c r="O105" s="47"/>
       <c r="P105" s="51"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
-      <c r="C106" s="108" t="s">
+      <c r="C106" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="D106" s="109"/>
-      <c r="E106" s="110" t="s">
+      <c r="D106" s="113"/>
+      <c r="E106" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F106" s="111"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="111"/>
-      <c r="I106" s="111"/>
-      <c r="J106" s="112"/>
-      <c r="K106" s="135" t="s">
+      <c r="F106" s="124"/>
+      <c r="G106" s="124"/>
+      <c r="H106" s="124"/>
+      <c r="I106" s="124"/>
+      <c r="J106" s="126"/>
+      <c r="K106" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="L106" s="135"/>
-      <c r="M106" s="135"/>
-      <c r="N106" s="135"/>
+      <c r="L106" s="200"/>
+      <c r="M106" s="200"/>
+      <c r="N106" s="200"/>
       <c r="O106" s="42"/>
       <c r="P106" s="49"/>
     </row>
@@ -4127,20 +4151,20 @@
       <c r="B107" s="7"/>
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
-      <c r="E107" s="130" t="s">
+      <c r="E107" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="113"/>
-      <c r="G107" s="113"/>
-      <c r="H107" s="113"/>
-      <c r="I107" s="113"/>
-      <c r="J107" s="131"/>
-      <c r="K107" s="113" t="s">
+      <c r="F107" s="101"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="101"/>
+      <c r="I107" s="101"/>
+      <c r="J107" s="128"/>
+      <c r="K107" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="L107" s="113"/>
-      <c r="M107" s="113"/>
-      <c r="N107" s="113"/>
+      <c r="L107" s="101"/>
+      <c r="M107" s="101"/>
+      <c r="N107" s="101"/>
       <c r="O107" s="44"/>
       <c r="P107" s="50"/>
     </row>
@@ -4154,12 +4178,12 @@
       <c r="H108" s="44"/>
       <c r="I108" s="44"/>
       <c r="J108" s="45"/>
-      <c r="K108" s="113" t="s">
+      <c r="K108" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="L108" s="113"/>
-      <c r="M108" s="113"/>
-      <c r="N108" s="113"/>
+      <c r="L108" s="101"/>
+      <c r="M108" s="101"/>
+      <c r="N108" s="101"/>
       <c r="O108" s="44"/>
       <c r="P108" s="50"/>
     </row>
@@ -4173,12 +4197,12 @@
       <c r="H109" s="44"/>
       <c r="I109" s="44"/>
       <c r="J109" s="45"/>
-      <c r="K109" s="113" t="s">
+      <c r="K109" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="L109" s="113"/>
-      <c r="M109" s="113"/>
-      <c r="N109" s="113"/>
+      <c r="L109" s="101"/>
+      <c r="M109" s="101"/>
+      <c r="N109" s="101"/>
       <c r="O109" s="44"/>
       <c r="P109" s="50"/>
     </row>
@@ -4192,12 +4216,12 @@
       <c r="H110" s="44"/>
       <c r="I110" s="44"/>
       <c r="J110" s="45"/>
-      <c r="K110" s="113" t="s">
+      <c r="K110" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="L110" s="113"/>
-      <c r="M110" s="113"/>
-      <c r="N110" s="113"/>
+      <c r="L110" s="101"/>
+      <c r="M110" s="101"/>
+      <c r="N110" s="101"/>
       <c r="O110" s="44"/>
       <c r="P110" s="50"/>
     </row>
@@ -4211,12 +4235,12 @@
       <c r="H111" s="44"/>
       <c r="I111" s="44"/>
       <c r="J111" s="45"/>
-      <c r="K111" s="113" t="s">
+      <c r="K111" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="L111" s="113"/>
-      <c r="M111" s="113"/>
-      <c r="N111" s="113"/>
+      <c r="L111" s="101"/>
+      <c r="M111" s="101"/>
+      <c r="N111" s="101"/>
       <c r="O111" s="44"/>
       <c r="P111" s="50"/>
     </row>
@@ -4230,12 +4254,12 @@
       <c r="H112" s="44"/>
       <c r="I112" s="44"/>
       <c r="J112" s="45"/>
-      <c r="K112" s="113" t="s">
+      <c r="K112" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="L112" s="113"/>
-      <c r="M112" s="113"/>
-      <c r="N112" s="113"/>
+      <c r="L112" s="101"/>
+      <c r="M112" s="101"/>
+      <c r="N112" s="101"/>
       <c r="O112" s="44"/>
       <c r="P112" s="50"/>
     </row>
@@ -4249,35 +4273,35 @@
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
       <c r="J113" s="48"/>
-      <c r="K113" s="114" t="s">
+      <c r="K113" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="L113" s="114"/>
-      <c r="M113" s="114"/>
-      <c r="N113" s="114"/>
+      <c r="L113" s="110"/>
+      <c r="M113" s="110"/>
+      <c r="N113" s="110"/>
       <c r="O113" s="47"/>
       <c r="P113" s="51"/>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
-      <c r="C114" s="108" t="s">
+      <c r="C114" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="D114" s="109"/>
-      <c r="E114" s="110" t="s">
+      <c r="D114" s="113"/>
+      <c r="E114" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="F114" s="111"/>
-      <c r="G114" s="111"/>
-      <c r="H114" s="111"/>
-      <c r="I114" s="111"/>
-      <c r="J114" s="112"/>
-      <c r="K114" s="111" t="s">
+      <c r="F114" s="124"/>
+      <c r="G114" s="124"/>
+      <c r="H114" s="124"/>
+      <c r="I114" s="124"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="L114" s="111"/>
-      <c r="M114" s="111"/>
-      <c r="N114" s="111"/>
+      <c r="L114" s="124"/>
+      <c r="M114" s="124"/>
+      <c r="N114" s="124"/>
       <c r="O114" s="42"/>
       <c r="P114" s="49"/>
     </row>
@@ -4291,35 +4315,35 @@
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
       <c r="J115" s="48"/>
-      <c r="K115" s="129" t="s">
+      <c r="K115" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="L115" s="114"/>
-      <c r="M115" s="114"/>
-      <c r="N115" s="114"/>
-      <c r="O115" s="114"/>
-      <c r="P115" s="134"/>
+      <c r="L115" s="110"/>
+      <c r="M115" s="110"/>
+      <c r="N115" s="110"/>
+      <c r="O115" s="110"/>
+      <c r="P115" s="111"/>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
-      <c r="C116" s="137" t="s">
+      <c r="C116" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="D116" s="138"/>
-      <c r="E116" s="139" t="s">
+      <c r="D116" s="194"/>
+      <c r="E116" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="F116" s="140"/>
-      <c r="G116" s="140"/>
-      <c r="H116" s="140"/>
-      <c r="I116" s="140"/>
-      <c r="J116" s="141"/>
-      <c r="K116" s="140" t="s">
+      <c r="F116" s="196"/>
+      <c r="G116" s="196"/>
+      <c r="H116" s="196"/>
+      <c r="I116" s="196"/>
+      <c r="J116" s="197"/>
+      <c r="K116" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="L116" s="140"/>
-      <c r="M116" s="140"/>
-      <c r="N116" s="140"/>
+      <c r="L116" s="196"/>
+      <c r="M116" s="196"/>
+      <c r="N116" s="196"/>
       <c r="O116" s="66"/>
       <c r="P116" s="67"/>
     </row>
@@ -4342,17 +4366,17 @@
     </row>
     <row r="118" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
-      <c r="C118" s="90" t="s">
+      <c r="C118" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="D118" s="90"/>
-      <c r="E118" s="90"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
-      <c r="H118" s="90"/>
-      <c r="I118" s="90"/>
-      <c r="J118" s="90"/>
-      <c r="K118" s="90"/>
+      <c r="D118" s="198"/>
+      <c r="E118" s="198"/>
+      <c r="F118" s="198"/>
+      <c r="G118" s="198"/>
+      <c r="H118" s="198"/>
+      <c r="I118" s="198"/>
+      <c r="J118" s="198"/>
+      <c r="K118" s="198"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -4377,19 +4401,19 @@
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
-      <c r="C120" s="92" t="s">
+      <c r="C120" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="D120" s="92"/>
-      <c r="E120" s="92"/>
-      <c r="F120" s="93">
+      <c r="D120" s="159"/>
+      <c r="E120" s="159"/>
+      <c r="F120" s="160">
         <v>2</v>
       </c>
-      <c r="G120" s="94"/>
-      <c r="H120" s="94"/>
-      <c r="I120" s="94"/>
-      <c r="J120" s="94"/>
-      <c r="K120" s="142"/>
+      <c r="G120" s="161"/>
+      <c r="H120" s="161"/>
+      <c r="I120" s="161"/>
+      <c r="J120" s="161"/>
+      <c r="K120" s="199"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
@@ -4415,19 +4439,19 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
-      <c r="C122" s="92" t="s">
+      <c r="C122" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="92"/>
-      <c r="E122" s="92"/>
-      <c r="F122" s="155" t="s">
+      <c r="D122" s="159"/>
+      <c r="E122" s="159"/>
+      <c r="F122" s="183" t="s">
         <v>171</v>
       </c>
-      <c r="G122" s="155"/>
-      <c r="H122" s="155"/>
-      <c r="I122" s="155"/>
-      <c r="J122" s="155"/>
-      <c r="K122" s="155"/>
+      <c r="G122" s="183"/>
+      <c r="H122" s="183"/>
+      <c r="I122" s="183"/>
+      <c r="J122" s="183"/>
+      <c r="K122" s="183"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
@@ -4453,19 +4477,19 @@
     </row>
     <row r="124" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
-      <c r="C124" s="143" t="s">
+      <c r="C124" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="105"/>
-      <c r="E124" s="106"/>
-      <c r="F124" s="98" t="s">
+      <c r="D124" s="137"/>
+      <c r="E124" s="138"/>
+      <c r="F124" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="150"/>
+      <c r="G124" s="146"/>
+      <c r="H124" s="146"/>
+      <c r="I124" s="146"/>
+      <c r="J124" s="146"/>
+      <c r="K124" s="182"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
       <c r="N124" s="8"/>
@@ -4474,9 +4498,9 @@
     </row>
     <row r="125" spans="2:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="145"/>
-      <c r="E125" s="146"/>
+      <c r="C125" s="139"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="141"/>
       <c r="F125" s="151"/>
       <c r="G125" s="152"/>
       <c r="H125" s="152"/>
@@ -4491,17 +4515,17 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
-      <c r="C126" s="144"/>
-      <c r="D126" s="145"/>
-      <c r="E126" s="146"/>
-      <c r="F126" s="156" t="s">
+      <c r="C126" s="139"/>
+      <c r="D126" s="140"/>
+      <c r="E126" s="141"/>
+      <c r="F126" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="G126" s="157"/>
-      <c r="H126" s="157"/>
-      <c r="I126" s="157"/>
-      <c r="J126" s="157"/>
-      <c r="K126" s="158"/>
+      <c r="G126" s="185"/>
+      <c r="H126" s="185"/>
+      <c r="I126" s="185"/>
+      <c r="J126" s="185"/>
+      <c r="K126" s="186"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="8"/>
@@ -4510,17 +4534,17 @@
     </row>
     <row r="127" spans="2:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="145"/>
-      <c r="E127" s="146"/>
-      <c r="F127" s="159" t="s">
+      <c r="C127" s="139"/>
+      <c r="D127" s="140"/>
+      <c r="E127" s="141"/>
+      <c r="F127" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="G127" s="160"/>
-      <c r="H127" s="160"/>
-      <c r="I127" s="160"/>
-      <c r="J127" s="160"/>
-      <c r="K127" s="161"/>
+      <c r="G127" s="188"/>
+      <c r="H127" s="188"/>
+      <c r="I127" s="188"/>
+      <c r="J127" s="188"/>
+      <c r="K127" s="189"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
       <c r="N127" s="8"/>
@@ -4529,17 +4553,17 @@
     </row>
     <row r="128" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
-      <c r="C128" s="147"/>
-      <c r="D128" s="148"/>
-      <c r="E128" s="149"/>
-      <c r="F128" s="162" t="s">
+      <c r="C128" s="142"/>
+      <c r="D128" s="143"/>
+      <c r="E128" s="144"/>
+      <c r="F128" s="190" t="s">
         <v>175</v>
       </c>
-      <c r="G128" s="163"/>
-      <c r="H128" s="163"/>
-      <c r="I128" s="163"/>
-      <c r="J128" s="163"/>
-      <c r="K128" s="164"/>
+      <c r="G128" s="191"/>
+      <c r="H128" s="191"/>
+      <c r="I128" s="191"/>
+      <c r="J128" s="191"/>
+      <c r="K128" s="192"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="8"/>
@@ -4548,19 +4572,19 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
-      <c r="C129" s="143" t="s">
+      <c r="C129" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="105"/>
-      <c r="E129" s="106"/>
-      <c r="F129" s="98" t="s">
+      <c r="D129" s="137"/>
+      <c r="E129" s="138"/>
+      <c r="F129" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="G129" s="99"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="99"/>
-      <c r="K129" s="150"/>
+      <c r="G129" s="146"/>
+      <c r="H129" s="146"/>
+      <c r="I129" s="146"/>
+      <c r="J129" s="146"/>
+      <c r="K129" s="182"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
       <c r="N129" s="8"/>
@@ -4569,9 +4593,9 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
-      <c r="C130" s="144"/>
-      <c r="D130" s="145"/>
-      <c r="E130" s="146"/>
+      <c r="C130" s="139"/>
+      <c r="D130" s="140"/>
+      <c r="E130" s="141"/>
       <c r="F130" s="151" t="s">
         <v>177</v>
       </c>
@@ -4588,17 +4612,17 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
-      <c r="C131" s="147"/>
-      <c r="D131" s="148"/>
-      <c r="E131" s="149"/>
-      <c r="F131" s="101" t="s">
+      <c r="C131" s="142"/>
+      <c r="D131" s="143"/>
+      <c r="E131" s="144"/>
+      <c r="F131" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="G131" s="102"/>
-      <c r="H131" s="102"/>
-      <c r="I131" s="102"/>
-      <c r="J131" s="102"/>
-      <c r="K131" s="154"/>
+      <c r="G131" s="149"/>
+      <c r="H131" s="149"/>
+      <c r="I131" s="149"/>
+      <c r="J131" s="149"/>
+      <c r="K131" s="181"/>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
@@ -4607,19 +4631,19 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
-      <c r="C132" s="143" t="s">
+      <c r="C132" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="105"/>
-      <c r="E132" s="106"/>
-      <c r="F132" s="98" t="s">
+      <c r="D132" s="137"/>
+      <c r="E132" s="138"/>
+      <c r="F132" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="G132" s="99"/>
-      <c r="H132" s="99"/>
-      <c r="I132" s="99"/>
-      <c r="J132" s="99"/>
-      <c r="K132" s="150"/>
+      <c r="G132" s="146"/>
+      <c r="H132" s="146"/>
+      <c r="I132" s="146"/>
+      <c r="J132" s="146"/>
+      <c r="K132" s="182"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
       <c r="N132" s="8"/>
@@ -4631,12 +4655,12 @@
       <c r="C133" s="17"/>
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="102"/>
-      <c r="I133" s="102"/>
-      <c r="J133" s="102"/>
-      <c r="K133" s="154"/>
+      <c r="F133" s="148"/>
+      <c r="G133" s="149"/>
+      <c r="H133" s="149"/>
+      <c r="I133" s="149"/>
+      <c r="J133" s="149"/>
+      <c r="K133" s="181"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
       <c r="N133" s="8"/>
@@ -4677,110 +4701,110 @@
     </row>
     <row r="136" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
-      <c r="C136" s="168" t="s">
+      <c r="C136" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="169"/>
-      <c r="E136" s="168" t="s">
+      <c r="D136" s="155"/>
+      <c r="E136" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="170"/>
-      <c r="G136" s="170"/>
-      <c r="H136" s="170"/>
-      <c r="I136" s="170"/>
-      <c r="J136" s="169"/>
-      <c r="K136" s="168" t="s">
+      <c r="F136" s="156"/>
+      <c r="G136" s="156"/>
+      <c r="H136" s="156"/>
+      <c r="I136" s="156"/>
+      <c r="J136" s="155"/>
+      <c r="K136" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L136" s="170"/>
-      <c r="M136" s="170"/>
-      <c r="N136" s="170"/>
-      <c r="O136" s="170"/>
-      <c r="P136" s="171"/>
+      <c r="L136" s="156"/>
+      <c r="M136" s="156"/>
+      <c r="N136" s="156"/>
+      <c r="O136" s="156"/>
+      <c r="P136" s="157"/>
     </row>
     <row r="137" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
-      <c r="C137" s="108" t="s">
+      <c r="C137" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="109"/>
-      <c r="E137" s="110" t="s">
+      <c r="D137" s="113"/>
+      <c r="E137" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="111"/>
-      <c r="G137" s="111"/>
-      <c r="H137" s="111"/>
-      <c r="I137" s="111"/>
-      <c r="J137" s="112"/>
-      <c r="K137" s="110" t="s">
+      <c r="F137" s="124"/>
+      <c r="G137" s="124"/>
+      <c r="H137" s="124"/>
+      <c r="I137" s="124"/>
+      <c r="J137" s="126"/>
+      <c r="K137" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="L137" s="111"/>
-      <c r="M137" s="111"/>
-      <c r="N137" s="111"/>
-      <c r="O137" s="111"/>
-      <c r="P137" s="120"/>
+      <c r="L137" s="124"/>
+      <c r="M137" s="124"/>
+      <c r="N137" s="124"/>
+      <c r="O137" s="124"/>
+      <c r="P137" s="125"/>
     </row>
     <row r="138" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
       <c r="C138" s="20"/>
       <c r="D138" s="21"/>
-      <c r="E138" s="130"/>
-      <c r="F138" s="113"/>
-      <c r="G138" s="113"/>
-      <c r="H138" s="113"/>
-      <c r="I138" s="113"/>
-      <c r="J138" s="131"/>
-      <c r="K138" s="130" t="s">
+      <c r="E138" s="100"/>
+      <c r="F138" s="101"/>
+      <c r="G138" s="101"/>
+      <c r="H138" s="101"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="128"/>
+      <c r="K138" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="L138" s="113"/>
-      <c r="M138" s="113"/>
-      <c r="N138" s="113"/>
-      <c r="O138" s="113"/>
-      <c r="P138" s="121"/>
+      <c r="L138" s="101"/>
+      <c r="M138" s="101"/>
+      <c r="N138" s="101"/>
+      <c r="O138" s="101"/>
+      <c r="P138" s="102"/>
     </row>
     <row r="139" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
       <c r="C139" s="22"/>
       <c r="D139" s="23"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="114"/>
-      <c r="G139" s="114"/>
-      <c r="H139" s="114"/>
-      <c r="I139" s="114"/>
-      <c r="J139" s="172"/>
-      <c r="K139" s="129" t="s">
+      <c r="E139" s="109"/>
+      <c r="F139" s="110"/>
+      <c r="G139" s="110"/>
+      <c r="H139" s="110"/>
+      <c r="I139" s="110"/>
+      <c r="J139" s="127"/>
+      <c r="K139" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="L139" s="114"/>
-      <c r="M139" s="114"/>
-      <c r="N139" s="114"/>
-      <c r="O139" s="114"/>
-      <c r="P139" s="134"/>
+      <c r="L139" s="110"/>
+      <c r="M139" s="110"/>
+      <c r="N139" s="110"/>
+      <c r="O139" s="110"/>
+      <c r="P139" s="111"/>
     </row>
     <row r="140" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
-      <c r="C140" s="108" t="s">
+      <c r="C140" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D140" s="109"/>
-      <c r="E140" s="110" t="s">
+      <c r="D140" s="113"/>
+      <c r="E140" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F140" s="111"/>
-      <c r="G140" s="111"/>
-      <c r="H140" s="111"/>
-      <c r="I140" s="111"/>
-      <c r="J140" s="112"/>
-      <c r="K140" s="110" t="s">
+      <c r="F140" s="124"/>
+      <c r="G140" s="124"/>
+      <c r="H140" s="124"/>
+      <c r="I140" s="124"/>
+      <c r="J140" s="126"/>
+      <c r="K140" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L140" s="111"/>
-      <c r="M140" s="111"/>
-      <c r="N140" s="111"/>
-      <c r="O140" s="111"/>
-      <c r="P140" s="120"/>
+      <c r="L140" s="124"/>
+      <c r="M140" s="124"/>
+      <c r="N140" s="124"/>
+      <c r="O140" s="124"/>
+      <c r="P140" s="125"/>
     </row>
     <row r="141" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
@@ -4792,35 +4816,35 @@
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
       <c r="J141" s="28"/>
-      <c r="K141" s="165" t="s">
+      <c r="K141" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="L141" s="122"/>
-      <c r="M141" s="122"/>
-      <c r="N141" s="122"/>
-      <c r="O141" s="122"/>
-      <c r="P141" s="166"/>
+      <c r="L141" s="133"/>
+      <c r="M141" s="133"/>
+      <c r="N141" s="133"/>
+      <c r="O141" s="133"/>
+      <c r="P141" s="134"/>
     </row>
     <row r="142" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
-      <c r="C142" s="123"/>
-      <c r="D142" s="124"/>
-      <c r="E142" s="165" t="s">
+      <c r="C142" s="179"/>
+      <c r="D142" s="180"/>
+      <c r="E142" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="F142" s="122"/>
-      <c r="G142" s="122"/>
-      <c r="H142" s="122"/>
-      <c r="I142" s="122"/>
-      <c r="J142" s="167"/>
-      <c r="K142" s="165" t="s">
+      <c r="F142" s="133"/>
+      <c r="G142" s="133"/>
+      <c r="H142" s="133"/>
+      <c r="I142" s="133"/>
+      <c r="J142" s="135"/>
+      <c r="K142" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="L142" s="122"/>
-      <c r="M142" s="122"/>
-      <c r="N142" s="122"/>
-      <c r="O142" s="122"/>
-      <c r="P142" s="166"/>
+      <c r="L142" s="133"/>
+      <c r="M142" s="133"/>
+      <c r="N142" s="133"/>
+      <c r="O142" s="133"/>
+      <c r="P142" s="134"/>
     </row>
     <row r="143" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
@@ -4832,81 +4856,81 @@
       <c r="H143" s="30"/>
       <c r="I143" s="30"/>
       <c r="J143" s="31"/>
-      <c r="K143" s="129" t="s">
+      <c r="K143" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="L143" s="114"/>
-      <c r="M143" s="114"/>
-      <c r="N143" s="114"/>
-      <c r="O143" s="114"/>
-      <c r="P143" s="134"/>
+      <c r="L143" s="110"/>
+      <c r="M143" s="110"/>
+      <c r="N143" s="110"/>
+      <c r="O143" s="110"/>
+      <c r="P143" s="111"/>
     </row>
     <row r="144" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
-      <c r="C144" s="108" t="s">
+      <c r="C144" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="109"/>
-      <c r="E144" s="110" t="s">
+      <c r="D144" s="113"/>
+      <c r="E144" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="F144" s="111"/>
-      <c r="G144" s="111"/>
-      <c r="H144" s="111"/>
-      <c r="I144" s="111"/>
-      <c r="J144" s="112"/>
-      <c r="K144" s="110" t="s">
+      <c r="F144" s="124"/>
+      <c r="G144" s="124"/>
+      <c r="H144" s="124"/>
+      <c r="I144" s="124"/>
+      <c r="J144" s="126"/>
+      <c r="K144" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="L144" s="111"/>
-      <c r="M144" s="111"/>
-      <c r="N144" s="111"/>
-      <c r="O144" s="111"/>
-      <c r="P144" s="120"/>
+      <c r="L144" s="124"/>
+      <c r="M144" s="124"/>
+      <c r="N144" s="124"/>
+      <c r="O144" s="124"/>
+      <c r="P144" s="125"/>
     </row>
     <row r="145" spans="2:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
       <c r="C145" s="22"/>
       <c r="D145" s="23"/>
-      <c r="E145" s="129" t="s">
+      <c r="E145" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="F145" s="114"/>
-      <c r="G145" s="114"/>
-      <c r="H145" s="114"/>
-      <c r="I145" s="114"/>
-      <c r="J145" s="172"/>
-      <c r="K145" s="129" t="s">
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="110"/>
+      <c r="I145" s="110"/>
+      <c r="J145" s="127"/>
+      <c r="K145" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="L145" s="114"/>
-      <c r="M145" s="114"/>
-      <c r="N145" s="114"/>
-      <c r="O145" s="114"/>
-      <c r="P145" s="134"/>
+      <c r="L145" s="110"/>
+      <c r="M145" s="110"/>
+      <c r="N145" s="110"/>
+      <c r="O145" s="110"/>
+      <c r="P145" s="111"/>
     </row>
     <row r="146" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
-      <c r="C146" s="108" t="s">
+      <c r="C146" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="109"/>
-      <c r="E146" s="110" t="s">
+      <c r="D146" s="113"/>
+      <c r="E146" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="F146" s="111"/>
-      <c r="G146" s="111"/>
-      <c r="H146" s="111"/>
-      <c r="I146" s="111"/>
-      <c r="J146" s="112"/>
-      <c r="K146" s="110" t="s">
+      <c r="F146" s="124"/>
+      <c r="G146" s="124"/>
+      <c r="H146" s="124"/>
+      <c r="I146" s="124"/>
+      <c r="J146" s="126"/>
+      <c r="K146" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="L146" s="111"/>
-      <c r="M146" s="111"/>
-      <c r="N146" s="111"/>
-      <c r="O146" s="111"/>
-      <c r="P146" s="120"/>
+      <c r="L146" s="124"/>
+      <c r="M146" s="124"/>
+      <c r="N146" s="124"/>
+      <c r="O146" s="124"/>
+      <c r="P146" s="125"/>
     </row>
     <row r="147" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
@@ -4918,14 +4942,14 @@
       <c r="H147" s="44"/>
       <c r="I147" s="44"/>
       <c r="J147" s="45"/>
-      <c r="K147" s="130" t="s">
+      <c r="K147" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="L147" s="113"/>
-      <c r="M147" s="113"/>
-      <c r="N147" s="113"/>
-      <c r="O147" s="113"/>
-      <c r="P147" s="121"/>
+      <c r="L147" s="101"/>
+      <c r="M147" s="101"/>
+      <c r="N147" s="101"/>
+      <c r="O147" s="101"/>
+      <c r="P147" s="102"/>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
@@ -4937,35 +4961,35 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="48"/>
-      <c r="K148" s="129"/>
-      <c r="L148" s="114"/>
-      <c r="M148" s="114"/>
-      <c r="N148" s="114"/>
+      <c r="K148" s="109"/>
+      <c r="L148" s="110"/>
+      <c r="M148" s="110"/>
+      <c r="N148" s="110"/>
       <c r="O148" s="47"/>
       <c r="P148" s="51"/>
     </row>
     <row r="149" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
-      <c r="C149" s="108" t="s">
+      <c r="C149" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="109"/>
-      <c r="E149" s="110" t="s">
+      <c r="D149" s="113"/>
+      <c r="E149" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F149" s="111"/>
-      <c r="G149" s="111"/>
-      <c r="H149" s="111"/>
-      <c r="I149" s="111"/>
-      <c r="J149" s="112"/>
-      <c r="K149" s="110" t="s">
+      <c r="F149" s="124"/>
+      <c r="G149" s="124"/>
+      <c r="H149" s="124"/>
+      <c r="I149" s="124"/>
+      <c r="J149" s="126"/>
+      <c r="K149" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L149" s="111"/>
-      <c r="M149" s="111"/>
-      <c r="N149" s="111"/>
-      <c r="O149" s="111"/>
-      <c r="P149" s="120"/>
+      <c r="L149" s="124"/>
+      <c r="M149" s="124"/>
+      <c r="N149" s="124"/>
+      <c r="O149" s="124"/>
+      <c r="P149" s="125"/>
     </row>
     <row r="150" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
@@ -4977,58 +5001,58 @@
       <c r="H150" s="44"/>
       <c r="I150" s="44"/>
       <c r="J150" s="45"/>
-      <c r="K150" s="130" t="s">
+      <c r="K150" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="L150" s="113"/>
-      <c r="M150" s="113"/>
-      <c r="N150" s="113"/>
-      <c r="O150" s="113"/>
-      <c r="P150" s="121"/>
+      <c r="L150" s="101"/>
+      <c r="M150" s="101"/>
+      <c r="N150" s="101"/>
+      <c r="O150" s="101"/>
+      <c r="P150" s="102"/>
     </row>
     <row r="151" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
       <c r="C151" s="22"/>
       <c r="D151" s="23"/>
-      <c r="E151" s="129" t="s">
+      <c r="E151" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="F151" s="114"/>
-      <c r="G151" s="114"/>
-      <c r="H151" s="114"/>
-      <c r="I151" s="114"/>
-      <c r="J151" s="172"/>
-      <c r="K151" s="129" t="s">
+      <c r="F151" s="110"/>
+      <c r="G151" s="110"/>
+      <c r="H151" s="110"/>
+      <c r="I151" s="110"/>
+      <c r="J151" s="127"/>
+      <c r="K151" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="L151" s="114"/>
-      <c r="M151" s="114"/>
-      <c r="N151" s="114"/>
-      <c r="O151" s="114"/>
-      <c r="P151" s="134"/>
+      <c r="L151" s="110"/>
+      <c r="M151" s="110"/>
+      <c r="N151" s="110"/>
+      <c r="O151" s="110"/>
+      <c r="P151" s="111"/>
     </row>
     <row r="152" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
-      <c r="C152" s="108" t="s">
+      <c r="C152" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="D152" s="109"/>
-      <c r="E152" s="110" t="s">
+      <c r="D152" s="113"/>
+      <c r="E152" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F152" s="111"/>
-      <c r="G152" s="111"/>
-      <c r="H152" s="111"/>
-      <c r="I152" s="111"/>
-      <c r="J152" s="112"/>
-      <c r="K152" s="110" t="s">
+      <c r="F152" s="124"/>
+      <c r="G152" s="124"/>
+      <c r="H152" s="124"/>
+      <c r="I152" s="124"/>
+      <c r="J152" s="126"/>
+      <c r="K152" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L152" s="111"/>
-      <c r="M152" s="111"/>
-      <c r="N152" s="111"/>
-      <c r="O152" s="111"/>
-      <c r="P152" s="120"/>
+      <c r="L152" s="124"/>
+      <c r="M152" s="124"/>
+      <c r="N152" s="124"/>
+      <c r="O152" s="124"/>
+      <c r="P152" s="125"/>
     </row>
     <row r="153" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
@@ -5040,35 +5064,35 @@
       <c r="H153" s="44"/>
       <c r="I153" s="44"/>
       <c r="J153" s="45"/>
-      <c r="K153" s="130" t="s">
+      <c r="K153" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="L153" s="113"/>
-      <c r="M153" s="113"/>
-      <c r="N153" s="113"/>
-      <c r="O153" s="113"/>
-      <c r="P153" s="121"/>
+      <c r="L153" s="101"/>
+      <c r="M153" s="101"/>
+      <c r="N153" s="101"/>
+      <c r="O153" s="101"/>
+      <c r="P153" s="102"/>
     </row>
     <row r="154" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="C154" s="20"/>
       <c r="D154" s="21"/>
-      <c r="E154" s="130" t="s">
+      <c r="E154" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F154" s="113"/>
-      <c r="G154" s="113"/>
-      <c r="H154" s="113"/>
-      <c r="I154" s="113"/>
-      <c r="J154" s="131"/>
-      <c r="K154" s="130" t="s">
+      <c r="F154" s="101"/>
+      <c r="G154" s="101"/>
+      <c r="H154" s="101"/>
+      <c r="I154" s="101"/>
+      <c r="J154" s="128"/>
+      <c r="K154" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="L154" s="113"/>
-      <c r="M154" s="113"/>
-      <c r="N154" s="113"/>
-      <c r="O154" s="113"/>
-      <c r="P154" s="121"/>
+      <c r="L154" s="101"/>
+      <c r="M154" s="101"/>
+      <c r="N154" s="101"/>
+      <c r="O154" s="101"/>
+      <c r="P154" s="102"/>
     </row>
     <row r="155" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
@@ -5080,56 +5104,56 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="48"/>
-      <c r="K155" s="129" t="s">
+      <c r="K155" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="L155" s="114"/>
-      <c r="M155" s="114"/>
-      <c r="N155" s="114"/>
-      <c r="O155" s="114"/>
-      <c r="P155" s="134"/>
+      <c r="L155" s="110"/>
+      <c r="M155" s="110"/>
+      <c r="N155" s="110"/>
+      <c r="O155" s="110"/>
+      <c r="P155" s="111"/>
     </row>
     <row r="156" spans="2:16" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
-      <c r="C156" s="108" t="s">
+      <c r="C156" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D156" s="109"/>
-      <c r="E156" s="110" t="s">
+      <c r="D156" s="113"/>
+      <c r="E156" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="F156" s="111"/>
-      <c r="G156" s="111"/>
-      <c r="H156" s="111"/>
-      <c r="I156" s="111"/>
-      <c r="J156" s="112"/>
-      <c r="K156" s="110" t="s">
+      <c r="F156" s="124"/>
+      <c r="G156" s="124"/>
+      <c r="H156" s="124"/>
+      <c r="I156" s="124"/>
+      <c r="J156" s="126"/>
+      <c r="K156" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="L156" s="111"/>
-      <c r="M156" s="111"/>
-      <c r="N156" s="111"/>
-      <c r="O156" s="111"/>
-      <c r="P156" s="120"/>
+      <c r="L156" s="124"/>
+      <c r="M156" s="124"/>
+      <c r="N156" s="124"/>
+      <c r="O156" s="124"/>
+      <c r="P156" s="125"/>
     </row>
     <row r="157" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
       <c r="D157" s="23"/>
-      <c r="E157" s="129" t="s">
+      <c r="E157" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F157" s="114"/>
-      <c r="G157" s="114"/>
-      <c r="H157" s="114"/>
-      <c r="I157" s="114"/>
-      <c r="J157" s="172"/>
-      <c r="K157" s="129"/>
-      <c r="L157" s="114"/>
-      <c r="M157" s="114"/>
-      <c r="N157" s="114"/>
-      <c r="O157" s="114"/>
-      <c r="P157" s="134"/>
+      <c r="F157" s="110"/>
+      <c r="G157" s="110"/>
+      <c r="H157" s="110"/>
+      <c r="I157" s="110"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="109"/>
+      <c r="L157" s="110"/>
+      <c r="M157" s="110"/>
+      <c r="N157" s="110"/>
+      <c r="O157" s="110"/>
+      <c r="P157" s="111"/>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
@@ -5199,17 +5223,17 @@
     </row>
     <row r="162" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
-      <c r="C162" s="177" t="s">
+      <c r="C162" s="158" t="s">
         <v>193</v>
       </c>
-      <c r="D162" s="177"/>
-      <c r="E162" s="177"/>
-      <c r="F162" s="177"/>
-      <c r="G162" s="177"/>
-      <c r="H162" s="177"/>
-      <c r="I162" s="177"/>
-      <c r="J162" s="177"/>
-      <c r="K162" s="177"/>
+      <c r="D162" s="158"/>
+      <c r="E162" s="158"/>
+      <c r="F162" s="158"/>
+      <c r="G162" s="158"/>
+      <c r="H162" s="158"/>
+      <c r="I162" s="158"/>
+      <c r="J162" s="158"/>
+      <c r="K162" s="158"/>
       <c r="L162" s="8"/>
       <c r="M162" s="8"/>
       <c r="N162" s="8"/>
@@ -5234,24 +5258,24 @@
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
-      <c r="C164" s="92" t="s">
+      <c r="C164" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="D164" s="92"/>
-      <c r="E164" s="92"/>
-      <c r="F164" s="93">
+      <c r="D164" s="159"/>
+      <c r="E164" s="159"/>
+      <c r="F164" s="160">
         <v>3</v>
       </c>
-      <c r="G164" s="94"/>
-      <c r="H164" s="94"/>
-      <c r="I164" s="94"/>
-      <c r="J164" s="94"/>
-      <c r="K164" s="94"/>
-      <c r="L164" s="94"/>
-      <c r="M164" s="94"/>
-      <c r="N164" s="94"/>
-      <c r="O164" s="94"/>
-      <c r="P164" s="95"/>
+      <c r="G164" s="161"/>
+      <c r="H164" s="161"/>
+      <c r="I164" s="161"/>
+      <c r="J164" s="161"/>
+      <c r="K164" s="161"/>
+      <c r="L164" s="161"/>
+      <c r="M164" s="161"/>
+      <c r="N164" s="161"/>
+      <c r="O164" s="161"/>
+      <c r="P164" s="162"/>
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
@@ -5272,24 +5296,24 @@
     </row>
     <row r="166" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
-      <c r="C166" s="92" t="s">
+      <c r="C166" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="92"/>
-      <c r="E166" s="92"/>
-      <c r="F166" s="93" t="s">
+      <c r="D166" s="159"/>
+      <c r="E166" s="159"/>
+      <c r="F166" s="160" t="s">
         <v>194</v>
       </c>
-      <c r="G166" s="94"/>
-      <c r="H166" s="94"/>
-      <c r="I166" s="94"/>
-      <c r="J166" s="94"/>
-      <c r="K166" s="94"/>
-      <c r="L166" s="94"/>
-      <c r="M166" s="94"/>
-      <c r="N166" s="94"/>
-      <c r="O166" s="94"/>
-      <c r="P166" s="95"/>
+      <c r="G166" s="161"/>
+      <c r="H166" s="161"/>
+      <c r="I166" s="161"/>
+      <c r="J166" s="161"/>
+      <c r="K166" s="161"/>
+      <c r="L166" s="161"/>
+      <c r="M166" s="161"/>
+      <c r="N166" s="161"/>
+      <c r="O166" s="161"/>
+      <c r="P166" s="162"/>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
@@ -5310,30 +5334,30 @@
     </row>
     <row r="168" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
-      <c r="C168" s="143" t="s">
+      <c r="C168" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="105"/>
-      <c r="E168" s="106"/>
-      <c r="F168" s="98" t="s">
+      <c r="D168" s="137"/>
+      <c r="E168" s="138"/>
+      <c r="F168" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G168" s="99"/>
-      <c r="H168" s="99"/>
-      <c r="I168" s="99"/>
-      <c r="J168" s="99"/>
-      <c r="K168" s="99"/>
-      <c r="L168" s="99"/>
-      <c r="M168" s="99"/>
-      <c r="N168" s="99"/>
-      <c r="O168" s="99"/>
-      <c r="P168" s="100"/>
+      <c r="G168" s="146"/>
+      <c r="H168" s="146"/>
+      <c r="I168" s="146"/>
+      <c r="J168" s="146"/>
+      <c r="K168" s="146"/>
+      <c r="L168" s="146"/>
+      <c r="M168" s="146"/>
+      <c r="N168" s="146"/>
+      <c r="O168" s="146"/>
+      <c r="P168" s="147"/>
     </row>
     <row r="169" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
-      <c r="C169" s="144"/>
-      <c r="D169" s="145"/>
-      <c r="E169" s="146"/>
+      <c r="C169" s="139"/>
+      <c r="D169" s="140"/>
+      <c r="E169" s="141"/>
       <c r="F169" s="151"/>
       <c r="G169" s="152"/>
       <c r="H169" s="152"/>
@@ -5344,13 +5368,13 @@
       <c r="M169" s="152"/>
       <c r="N169" s="152"/>
       <c r="O169" s="152"/>
-      <c r="P169" s="173"/>
+      <c r="P169" s="163"/>
     </row>
     <row r="170" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
-      <c r="C170" s="144"/>
-      <c r="D170" s="145"/>
-      <c r="E170" s="146"/>
+      <c r="C170" s="139"/>
+      <c r="D170" s="140"/>
+      <c r="E170" s="141"/>
       <c r="F170" s="151" t="s">
         <v>4</v>
       </c>
@@ -5363,36 +5387,36 @@
       <c r="M170" s="152"/>
       <c r="N170" s="152"/>
       <c r="O170" s="152"/>
-      <c r="P170" s="173"/>
+      <c r="P170" s="163"/>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
-      <c r="C171" s="144"/>
-      <c r="D171" s="145"/>
-      <c r="E171" s="146"/>
-      <c r="F171" s="101"/>
-      <c r="G171" s="102"/>
-      <c r="H171" s="102"/>
-      <c r="I171" s="102"/>
-      <c r="J171" s="102"/>
-      <c r="K171" s="102"/>
-      <c r="L171" s="102"/>
-      <c r="M171" s="102"/>
-      <c r="N171" s="102"/>
-      <c r="O171" s="102"/>
-      <c r="P171" s="103"/>
+      <c r="C171" s="139"/>
+      <c r="D171" s="140"/>
+      <c r="E171" s="141"/>
+      <c r="F171" s="148"/>
+      <c r="G171" s="149"/>
+      <c r="H171" s="149"/>
+      <c r="I171" s="149"/>
+      <c r="J171" s="149"/>
+      <c r="K171" s="149"/>
+      <c r="L171" s="149"/>
+      <c r="M171" s="149"/>
+      <c r="N171" s="149"/>
+      <c r="O171" s="149"/>
+      <c r="P171" s="150"/>
     </row>
     <row r="172" spans="2:16" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
-      <c r="C172" s="147"/>
-      <c r="D172" s="148"/>
-      <c r="E172" s="149"/>
-      <c r="F172" s="174"/>
-      <c r="G172" s="175"/>
-      <c r="H172" s="175"/>
-      <c r="I172" s="175"/>
-      <c r="J172" s="175"/>
-      <c r="K172" s="176"/>
+      <c r="C172" s="142"/>
+      <c r="D172" s="143"/>
+      <c r="E172" s="144"/>
+      <c r="F172" s="164"/>
+      <c r="G172" s="165"/>
+      <c r="H172" s="165"/>
+      <c r="I172" s="165"/>
+      <c r="J172" s="165"/>
+      <c r="K172" s="166"/>
       <c r="L172" s="8"/>
       <c r="M172" s="8"/>
       <c r="N172" s="8"/>
@@ -5401,47 +5425,47 @@
     </row>
     <row r="173" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
-      <c r="C173" s="143" t="s">
+      <c r="C173" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="105"/>
-      <c r="E173" s="106"/>
-      <c r="F173" s="98" t="s">
+      <c r="D173" s="137"/>
+      <c r="E173" s="138"/>
+      <c r="F173" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G173" s="99"/>
-      <c r="H173" s="99"/>
-      <c r="I173" s="99"/>
-      <c r="J173" s="99"/>
-      <c r="K173" s="99"/>
-      <c r="L173" s="99"/>
-      <c r="M173" s="99"/>
-      <c r="N173" s="99"/>
-      <c r="O173" s="99"/>
-      <c r="P173" s="100"/>
+      <c r="G173" s="146"/>
+      <c r="H173" s="146"/>
+      <c r="I173" s="146"/>
+      <c r="J173" s="146"/>
+      <c r="K173" s="146"/>
+      <c r="L173" s="146"/>
+      <c r="M173" s="146"/>
+      <c r="N173" s="146"/>
+      <c r="O173" s="146"/>
+      <c r="P173" s="147"/>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
-      <c r="C174" s="144"/>
-      <c r="D174" s="145"/>
-      <c r="E174" s="146"/>
-      <c r="F174" s="101"/>
-      <c r="G174" s="102"/>
-      <c r="H174" s="102"/>
-      <c r="I174" s="102"/>
-      <c r="J174" s="102"/>
-      <c r="K174" s="102"/>
-      <c r="L174" s="102"/>
-      <c r="M174" s="102"/>
-      <c r="N174" s="102"/>
-      <c r="O174" s="102"/>
-      <c r="P174" s="103"/>
+      <c r="C174" s="139"/>
+      <c r="D174" s="140"/>
+      <c r="E174" s="141"/>
+      <c r="F174" s="148"/>
+      <c r="G174" s="149"/>
+      <c r="H174" s="149"/>
+      <c r="I174" s="149"/>
+      <c r="J174" s="149"/>
+      <c r="K174" s="149"/>
+      <c r="L174" s="149"/>
+      <c r="M174" s="149"/>
+      <c r="N174" s="149"/>
+      <c r="O174" s="149"/>
+      <c r="P174" s="150"/>
     </row>
     <row r="175" spans="2:16" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
-      <c r="C175" s="147"/>
-      <c r="D175" s="148"/>
-      <c r="E175" s="149"/>
+      <c r="C175" s="142"/>
+      <c r="D175" s="143"/>
+      <c r="E175" s="144"/>
       <c r="F175" s="151"/>
       <c r="G175" s="152"/>
       <c r="H175" s="152"/>
@@ -5456,41 +5480,41 @@
     </row>
     <row r="176" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
-      <c r="C176" s="143" t="s">
+      <c r="C176" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="105"/>
-      <c r="E176" s="106"/>
-      <c r="F176" s="98" t="s">
+      <c r="D176" s="137"/>
+      <c r="E176" s="138"/>
+      <c r="F176" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="G176" s="99"/>
-      <c r="H176" s="99"/>
-      <c r="I176" s="99"/>
-      <c r="J176" s="99"/>
-      <c r="K176" s="99"/>
-      <c r="L176" s="99"/>
-      <c r="M176" s="99"/>
-      <c r="N176" s="99"/>
-      <c r="O176" s="99"/>
-      <c r="P176" s="100"/>
+      <c r="G176" s="146"/>
+      <c r="H176" s="146"/>
+      <c r="I176" s="146"/>
+      <c r="J176" s="146"/>
+      <c r="K176" s="146"/>
+      <c r="L176" s="146"/>
+      <c r="M176" s="146"/>
+      <c r="N176" s="146"/>
+      <c r="O176" s="146"/>
+      <c r="P176" s="147"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
       <c r="C177" s="17"/>
       <c r="D177" s="18"/>
       <c r="E177" s="19"/>
-      <c r="F177" s="101"/>
-      <c r="G177" s="102"/>
-      <c r="H177" s="102"/>
-      <c r="I177" s="102"/>
-      <c r="J177" s="102"/>
-      <c r="K177" s="102"/>
-      <c r="L177" s="102"/>
-      <c r="M177" s="102"/>
-      <c r="N177" s="102"/>
-      <c r="O177" s="102"/>
-      <c r="P177" s="103"/>
+      <c r="F177" s="148"/>
+      <c r="G177" s="149"/>
+      <c r="H177" s="149"/>
+      <c r="I177" s="149"/>
+      <c r="J177" s="149"/>
+      <c r="K177" s="149"/>
+      <c r="L177" s="149"/>
+      <c r="M177" s="149"/>
+      <c r="N177" s="149"/>
+      <c r="O177" s="149"/>
+      <c r="P177" s="150"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
@@ -5542,110 +5566,110 @@
     </row>
     <row r="181" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
-      <c r="C181" s="168" t="s">
+      <c r="C181" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="169"/>
-      <c r="E181" s="168" t="s">
+      <c r="D181" s="155"/>
+      <c r="E181" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="F181" s="170"/>
-      <c r="G181" s="170"/>
-      <c r="H181" s="170"/>
-      <c r="I181" s="170"/>
-      <c r="J181" s="169"/>
-      <c r="K181" s="168" t="s">
+      <c r="F181" s="156"/>
+      <c r="G181" s="156"/>
+      <c r="H181" s="156"/>
+      <c r="I181" s="156"/>
+      <c r="J181" s="155"/>
+      <c r="K181" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L181" s="170"/>
-      <c r="M181" s="170"/>
-      <c r="N181" s="170"/>
-      <c r="O181" s="170"/>
-      <c r="P181" s="171"/>
+      <c r="L181" s="156"/>
+      <c r="M181" s="156"/>
+      <c r="N181" s="156"/>
+      <c r="O181" s="156"/>
+      <c r="P181" s="157"/>
     </row>
     <row r="182" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
-      <c r="C182" s="108" t="s">
+      <c r="C182" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="109"/>
-      <c r="E182" s="110" t="s">
+      <c r="D182" s="113"/>
+      <c r="E182" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="F182" s="111"/>
-      <c r="G182" s="111"/>
-      <c r="H182" s="111"/>
-      <c r="I182" s="111"/>
-      <c r="J182" s="112"/>
-      <c r="K182" s="110" t="s">
+      <c r="F182" s="124"/>
+      <c r="G182" s="124"/>
+      <c r="H182" s="124"/>
+      <c r="I182" s="124"/>
+      <c r="J182" s="126"/>
+      <c r="K182" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="L182" s="111"/>
-      <c r="M182" s="111"/>
-      <c r="N182" s="111"/>
-      <c r="O182" s="111"/>
-      <c r="P182" s="120"/>
+      <c r="L182" s="124"/>
+      <c r="M182" s="124"/>
+      <c r="N182" s="124"/>
+      <c r="O182" s="124"/>
+      <c r="P182" s="125"/>
     </row>
     <row r="183" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="C183" s="20"/>
       <c r="D183" s="21"/>
-      <c r="E183" s="130"/>
-      <c r="F183" s="113"/>
-      <c r="G183" s="113"/>
-      <c r="H183" s="113"/>
-      <c r="I183" s="113"/>
-      <c r="J183" s="131"/>
-      <c r="K183" s="130" t="s">
+      <c r="E183" s="100"/>
+      <c r="F183" s="101"/>
+      <c r="G183" s="101"/>
+      <c r="H183" s="101"/>
+      <c r="I183" s="101"/>
+      <c r="J183" s="128"/>
+      <c r="K183" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="L183" s="113"/>
-      <c r="M183" s="113"/>
-      <c r="N183" s="113"/>
-      <c r="O183" s="113"/>
-      <c r="P183" s="121"/>
+      <c r="L183" s="101"/>
+      <c r="M183" s="101"/>
+      <c r="N183" s="101"/>
+      <c r="O183" s="101"/>
+      <c r="P183" s="102"/>
     </row>
     <row r="184" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="C184" s="22"/>
       <c r="D184" s="23"/>
-      <c r="E184" s="129"/>
-      <c r="F184" s="114"/>
-      <c r="G184" s="114"/>
-      <c r="H184" s="114"/>
-      <c r="I184" s="114"/>
-      <c r="J184" s="172"/>
-      <c r="K184" s="129" t="s">
+      <c r="E184" s="109"/>
+      <c r="F184" s="110"/>
+      <c r="G184" s="110"/>
+      <c r="H184" s="110"/>
+      <c r="I184" s="110"/>
+      <c r="J184" s="127"/>
+      <c r="K184" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="L184" s="114"/>
-      <c r="M184" s="114"/>
-      <c r="N184" s="114"/>
-      <c r="O184" s="114"/>
-      <c r="P184" s="134"/>
+      <c r="L184" s="110"/>
+      <c r="M184" s="110"/>
+      <c r="N184" s="110"/>
+      <c r="O184" s="110"/>
+      <c r="P184" s="111"/>
     </row>
     <row r="185" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
-      <c r="C185" s="108" t="s">
+      <c r="C185" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="109"/>
-      <c r="E185" s="110" t="s">
+      <c r="D185" s="113"/>
+      <c r="E185" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F185" s="111"/>
-      <c r="G185" s="111"/>
-      <c r="H185" s="111"/>
-      <c r="I185" s="111"/>
-      <c r="J185" s="112"/>
-      <c r="K185" s="110" t="s">
+      <c r="F185" s="124"/>
+      <c r="G185" s="124"/>
+      <c r="H185" s="124"/>
+      <c r="I185" s="124"/>
+      <c r="J185" s="126"/>
+      <c r="K185" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L185" s="111"/>
-      <c r="M185" s="111"/>
-      <c r="N185" s="111"/>
-      <c r="O185" s="111"/>
-      <c r="P185" s="120"/>
+      <c r="L185" s="124"/>
+      <c r="M185" s="124"/>
+      <c r="N185" s="124"/>
+      <c r="O185" s="124"/>
+      <c r="P185" s="125"/>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
@@ -5657,35 +5681,35 @@
       <c r="H186" s="27"/>
       <c r="I186" s="27"/>
       <c r="J186" s="28"/>
-      <c r="K186" s="165" t="s">
+      <c r="K186" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="L186" s="122"/>
-      <c r="M186" s="122"/>
-      <c r="N186" s="122"/>
-      <c r="O186" s="122"/>
-      <c r="P186" s="166"/>
+      <c r="L186" s="133"/>
+      <c r="M186" s="133"/>
+      <c r="N186" s="133"/>
+      <c r="O186" s="133"/>
+      <c r="P186" s="134"/>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="C187" s="24"/>
       <c r="D187" s="25"/>
-      <c r="E187" s="165" t="s">
+      <c r="E187" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F187" s="122"/>
-      <c r="G187" s="122"/>
-      <c r="H187" s="122"/>
-      <c r="I187" s="122"/>
-      <c r="J187" s="167"/>
-      <c r="K187" s="165" t="s">
+      <c r="F187" s="133"/>
+      <c r="G187" s="133"/>
+      <c r="H187" s="133"/>
+      <c r="I187" s="133"/>
+      <c r="J187" s="135"/>
+      <c r="K187" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L187" s="122"/>
-      <c r="M187" s="122"/>
-      <c r="N187" s="122"/>
-      <c r="O187" s="122"/>
-      <c r="P187" s="166"/>
+      <c r="L187" s="133"/>
+      <c r="M187" s="133"/>
+      <c r="N187" s="133"/>
+      <c r="O187" s="133"/>
+      <c r="P187" s="134"/>
     </row>
     <row r="188" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
@@ -5697,218 +5721,218 @@
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
       <c r="J188" s="31"/>
-      <c r="K188" s="129" t="s">
+      <c r="K188" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L188" s="114"/>
-      <c r="M188" s="114"/>
-      <c r="N188" s="114"/>
-      <c r="O188" s="114"/>
-      <c r="P188" s="134"/>
+      <c r="L188" s="110"/>
+      <c r="M188" s="110"/>
+      <c r="N188" s="110"/>
+      <c r="O188" s="110"/>
+      <c r="P188" s="111"/>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
-      <c r="C189" s="108" t="s">
+      <c r="C189" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D189" s="109"/>
-      <c r="E189" s="110" t="s">
+      <c r="D189" s="113"/>
+      <c r="E189" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="F189" s="111"/>
-      <c r="G189" s="111"/>
-      <c r="H189" s="111"/>
-      <c r="I189" s="111"/>
-      <c r="J189" s="112"/>
-      <c r="K189" s="110" t="s">
+      <c r="F189" s="124"/>
+      <c r="G189" s="124"/>
+      <c r="H189" s="124"/>
+      <c r="I189" s="124"/>
+      <c r="J189" s="126"/>
+      <c r="K189" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="L189" s="111"/>
-      <c r="M189" s="111"/>
-      <c r="N189" s="111"/>
-      <c r="O189" s="111"/>
-      <c r="P189" s="120"/>
+      <c r="L189" s="124"/>
+      <c r="M189" s="124"/>
+      <c r="N189" s="124"/>
+      <c r="O189" s="124"/>
+      <c r="P189" s="125"/>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="C190" s="22"/>
       <c r="D190" s="23"/>
-      <c r="E190" s="129" t="s">
+      <c r="E190" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F190" s="114"/>
-      <c r="G190" s="114"/>
-      <c r="H190" s="114"/>
-      <c r="I190" s="114"/>
-      <c r="J190" s="172"/>
-      <c r="K190" s="129"/>
-      <c r="L190" s="114"/>
-      <c r="M190" s="114"/>
-      <c r="N190" s="114"/>
-      <c r="O190" s="114"/>
-      <c r="P190" s="134"/>
+      <c r="F190" s="110"/>
+      <c r="G190" s="110"/>
+      <c r="H190" s="110"/>
+      <c r="I190" s="110"/>
+      <c r="J190" s="127"/>
+      <c r="K190" s="109"/>
+      <c r="L190" s="110"/>
+      <c r="M190" s="110"/>
+      <c r="N190" s="110"/>
+      <c r="O190" s="110"/>
+      <c r="P190" s="111"/>
     </row>
     <row r="191" spans="2:16" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
-      <c r="C191" s="108" t="s">
+      <c r="C191" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="109"/>
-      <c r="E191" s="110" t="s">
+      <c r="D191" s="113"/>
+      <c r="E191" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F191" s="111"/>
-      <c r="G191" s="111"/>
-      <c r="H191" s="111"/>
-      <c r="I191" s="111"/>
-      <c r="J191" s="112"/>
-      <c r="K191" s="110" t="s">
+      <c r="F191" s="124"/>
+      <c r="G191" s="124"/>
+      <c r="H191" s="124"/>
+      <c r="I191" s="124"/>
+      <c r="J191" s="126"/>
+      <c r="K191" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="L191" s="111"/>
-      <c r="M191" s="111"/>
-      <c r="N191" s="111"/>
-      <c r="O191" s="111"/>
-      <c r="P191" s="120"/>
+      <c r="L191" s="124"/>
+      <c r="M191" s="124"/>
+      <c r="N191" s="124"/>
+      <c r="O191" s="124"/>
+      <c r="P191" s="125"/>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="C192" s="20"/>
       <c r="D192" s="21"/>
-      <c r="E192" s="130" t="s">
+      <c r="E192" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="F192" s="113"/>
-      <c r="G192" s="113"/>
-      <c r="H192" s="113"/>
-      <c r="I192" s="113"/>
-      <c r="J192" s="131"/>
-      <c r="K192" s="130" t="s">
+      <c r="F192" s="101"/>
+      <c r="G192" s="101"/>
+      <c r="H192" s="101"/>
+      <c r="I192" s="101"/>
+      <c r="J192" s="128"/>
+      <c r="K192" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="L192" s="113"/>
-      <c r="M192" s="113"/>
-      <c r="N192" s="113"/>
-      <c r="O192" s="113"/>
-      <c r="P192" s="121"/>
+      <c r="L192" s="101"/>
+      <c r="M192" s="101"/>
+      <c r="N192" s="101"/>
+      <c r="O192" s="101"/>
+      <c r="P192" s="102"/>
     </row>
     <row r="193" spans="2:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="C193" s="22"/>
       <c r="D193" s="23"/>
-      <c r="E193" s="178"/>
-      <c r="F193" s="179"/>
-      <c r="G193" s="179"/>
-      <c r="H193" s="179"/>
-      <c r="I193" s="179"/>
-      <c r="J193" s="180"/>
-      <c r="K193" s="129" t="s">
+      <c r="E193" s="167"/>
+      <c r="F193" s="168"/>
+      <c r="G193" s="168"/>
+      <c r="H193" s="168"/>
+      <c r="I193" s="168"/>
+      <c r="J193" s="169"/>
+      <c r="K193" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="L193" s="114"/>
-      <c r="M193" s="114"/>
-      <c r="N193" s="114"/>
-      <c r="O193" s="114"/>
-      <c r="P193" s="134"/>
+      <c r="L193" s="110"/>
+      <c r="M193" s="110"/>
+      <c r="N193" s="110"/>
+      <c r="O193" s="110"/>
+      <c r="P193" s="111"/>
     </row>
     <row r="194" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
-      <c r="C194" s="108" t="s">
+      <c r="C194" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D194" s="109"/>
-      <c r="E194" s="110" t="s">
+      <c r="D194" s="113"/>
+      <c r="E194" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="F194" s="111"/>
-      <c r="G194" s="111"/>
-      <c r="H194" s="111"/>
-      <c r="I194" s="111"/>
-      <c r="J194" s="112"/>
-      <c r="K194" s="110" t="s">
+      <c r="F194" s="124"/>
+      <c r="G194" s="124"/>
+      <c r="H194" s="124"/>
+      <c r="I194" s="124"/>
+      <c r="J194" s="126"/>
+      <c r="K194" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="L194" s="111"/>
-      <c r="M194" s="111"/>
-      <c r="N194" s="111"/>
-      <c r="O194" s="111"/>
-      <c r="P194" s="120"/>
+      <c r="L194" s="124"/>
+      <c r="M194" s="124"/>
+      <c r="N194" s="124"/>
+      <c r="O194" s="124"/>
+      <c r="P194" s="125"/>
     </row>
     <row r="195" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="C195" s="20"/>
       <c r="D195" s="21"/>
-      <c r="E195" s="125"/>
-      <c r="F195" s="126"/>
-      <c r="G195" s="126"/>
-      <c r="H195" s="126"/>
-      <c r="I195" s="126"/>
-      <c r="J195" s="127"/>
-      <c r="K195" s="130" t="s">
+      <c r="E195" s="129"/>
+      <c r="F195" s="130"/>
+      <c r="G195" s="130"/>
+      <c r="H195" s="130"/>
+      <c r="I195" s="130"/>
+      <c r="J195" s="131"/>
+      <c r="K195" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="L195" s="113"/>
-      <c r="M195" s="113"/>
-      <c r="N195" s="113"/>
-      <c r="O195" s="113"/>
-      <c r="P195" s="121"/>
+      <c r="L195" s="101"/>
+      <c r="M195" s="101"/>
+      <c r="N195" s="101"/>
+      <c r="O195" s="101"/>
+      <c r="P195" s="102"/>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="C196" s="22"/>
       <c r="D196" s="23"/>
-      <c r="E196" s="129"/>
-      <c r="F196" s="114"/>
-      <c r="G196" s="114"/>
-      <c r="H196" s="114"/>
-      <c r="I196" s="114"/>
-      <c r="J196" s="172"/>
-      <c r="K196" s="129"/>
-      <c r="L196" s="114"/>
-      <c r="M196" s="114"/>
-      <c r="N196" s="114"/>
-      <c r="O196" s="114"/>
-      <c r="P196" s="134"/>
+      <c r="E196" s="109"/>
+      <c r="F196" s="110"/>
+      <c r="G196" s="110"/>
+      <c r="H196" s="110"/>
+      <c r="I196" s="110"/>
+      <c r="J196" s="127"/>
+      <c r="K196" s="109"/>
+      <c r="L196" s="110"/>
+      <c r="M196" s="110"/>
+      <c r="N196" s="110"/>
+      <c r="O196" s="110"/>
+      <c r="P196" s="111"/>
     </row>
     <row r="197" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
-      <c r="C197" s="108" t="s">
+      <c r="C197" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="D197" s="109"/>
-      <c r="E197" s="110" t="s">
+      <c r="D197" s="113"/>
+      <c r="E197" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="F197" s="111"/>
-      <c r="G197" s="111"/>
-      <c r="H197" s="111"/>
-      <c r="I197" s="111"/>
-      <c r="J197" s="112"/>
-      <c r="K197" s="110" t="s">
+      <c r="F197" s="124"/>
+      <c r="G197" s="124"/>
+      <c r="H197" s="124"/>
+      <c r="I197" s="124"/>
+      <c r="J197" s="126"/>
+      <c r="K197" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="L197" s="111"/>
-      <c r="M197" s="111"/>
-      <c r="N197" s="111"/>
-      <c r="O197" s="111"/>
-      <c r="P197" s="120"/>
+      <c r="L197" s="124"/>
+      <c r="M197" s="124"/>
+      <c r="N197" s="124"/>
+      <c r="O197" s="124"/>
+      <c r="P197" s="125"/>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="C198" s="22"/>
       <c r="D198" s="23"/>
-      <c r="E198" s="178"/>
-      <c r="F198" s="179"/>
-      <c r="G198" s="179"/>
-      <c r="H198" s="179"/>
-      <c r="I198" s="179"/>
-      <c r="J198" s="180"/>
-      <c r="K198" s="129"/>
-      <c r="L198" s="114"/>
-      <c r="M198" s="114"/>
-      <c r="N198" s="114"/>
-      <c r="O198" s="114"/>
-      <c r="P198" s="134"/>
+      <c r="E198" s="167"/>
+      <c r="F198" s="168"/>
+      <c r="G198" s="168"/>
+      <c r="H198" s="168"/>
+      <c r="I198" s="168"/>
+      <c r="J198" s="169"/>
+      <c r="K198" s="109"/>
+      <c r="L198" s="110"/>
+      <c r="M198" s="110"/>
+      <c r="N198" s="110"/>
+      <c r="O198" s="110"/>
+      <c r="P198" s="111"/>
     </row>
     <row r="199" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
@@ -5916,422 +5940,422 @@
         <v>38</v>
       </c>
       <c r="D199" s="33"/>
-      <c r="E199" s="110" t="s">
+      <c r="E199" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="F199" s="111"/>
-      <c r="G199" s="111"/>
-      <c r="H199" s="111"/>
-      <c r="I199" s="111"/>
-      <c r="J199" s="112"/>
-      <c r="K199" s="110" t="s">
+      <c r="F199" s="124"/>
+      <c r="G199" s="124"/>
+      <c r="H199" s="124"/>
+      <c r="I199" s="124"/>
+      <c r="J199" s="126"/>
+      <c r="K199" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L199" s="111"/>
-      <c r="M199" s="111"/>
-      <c r="N199" s="111"/>
-      <c r="O199" s="111"/>
-      <c r="P199" s="120"/>
+      <c r="L199" s="124"/>
+      <c r="M199" s="124"/>
+      <c r="N199" s="124"/>
+      <c r="O199" s="124"/>
+      <c r="P199" s="125"/>
     </row>
     <row r="200" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="C200" s="24"/>
       <c r="D200" s="25"/>
-      <c r="E200" s="130"/>
-      <c r="F200" s="113"/>
-      <c r="G200" s="113"/>
-      <c r="H200" s="113"/>
-      <c r="I200" s="113"/>
-      <c r="J200" s="131"/>
-      <c r="K200" s="130" t="s">
+      <c r="E200" s="100"/>
+      <c r="F200" s="101"/>
+      <c r="G200" s="101"/>
+      <c r="H200" s="101"/>
+      <c r="I200" s="101"/>
+      <c r="J200" s="128"/>
+      <c r="K200" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="L200" s="113"/>
-      <c r="M200" s="113"/>
-      <c r="N200" s="113"/>
-      <c r="O200" s="113"/>
-      <c r="P200" s="121"/>
+      <c r="L200" s="101"/>
+      <c r="M200" s="101"/>
+      <c r="N200" s="101"/>
+      <c r="O200" s="101"/>
+      <c r="P200" s="102"/>
     </row>
     <row r="201" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="C201" s="24"/>
       <c r="D201" s="25"/>
-      <c r="E201" s="130"/>
-      <c r="F201" s="113"/>
-      <c r="G201" s="113"/>
-      <c r="H201" s="113"/>
-      <c r="I201" s="113"/>
-      <c r="J201" s="131"/>
-      <c r="K201" s="181" t="s">
+      <c r="E201" s="100"/>
+      <c r="F201" s="101"/>
+      <c r="G201" s="101"/>
+      <c r="H201" s="101"/>
+      <c r="I201" s="101"/>
+      <c r="J201" s="128"/>
+      <c r="K201" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="L201" s="182"/>
-      <c r="M201" s="182"/>
-      <c r="N201" s="182"/>
-      <c r="O201" s="182"/>
-      <c r="P201" s="183"/>
+      <c r="L201" s="171"/>
+      <c r="M201" s="171"/>
+      <c r="N201" s="171"/>
+      <c r="O201" s="171"/>
+      <c r="P201" s="172"/>
     </row>
     <row r="202" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="C202" s="24"/>
       <c r="D202" s="25"/>
-      <c r="E202" s="130"/>
-      <c r="F202" s="113"/>
-      <c r="G202" s="113"/>
-      <c r="H202" s="113"/>
-      <c r="I202" s="113"/>
-      <c r="J202" s="131"/>
-      <c r="K202" s="181" t="s">
+      <c r="E202" s="100"/>
+      <c r="F202" s="101"/>
+      <c r="G202" s="101"/>
+      <c r="H202" s="101"/>
+      <c r="I202" s="101"/>
+      <c r="J202" s="128"/>
+      <c r="K202" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="L202" s="182"/>
-      <c r="M202" s="182"/>
-      <c r="N202" s="182"/>
-      <c r="O202" s="182"/>
-      <c r="P202" s="183"/>
+      <c r="L202" s="171"/>
+      <c r="M202" s="171"/>
+      <c r="N202" s="171"/>
+      <c r="O202" s="171"/>
+      <c r="P202" s="172"/>
     </row>
     <row r="203" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="C203" s="24"/>
       <c r="D203" s="25"/>
-      <c r="E203" s="130"/>
-      <c r="F203" s="113"/>
-      <c r="G203" s="113"/>
-      <c r="H203" s="113"/>
-      <c r="I203" s="113"/>
-      <c r="J203" s="131"/>
-      <c r="K203" s="181" t="s">
+      <c r="E203" s="100"/>
+      <c r="F203" s="101"/>
+      <c r="G203" s="101"/>
+      <c r="H203" s="101"/>
+      <c r="I203" s="101"/>
+      <c r="J203" s="128"/>
+      <c r="K203" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="L203" s="182"/>
-      <c r="M203" s="182"/>
-      <c r="N203" s="182"/>
-      <c r="O203" s="182"/>
-      <c r="P203" s="183"/>
+      <c r="L203" s="171"/>
+      <c r="M203" s="171"/>
+      <c r="N203" s="171"/>
+      <c r="O203" s="171"/>
+      <c r="P203" s="172"/>
     </row>
     <row r="204" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="C204" s="24"/>
       <c r="D204" s="25"/>
-      <c r="E204" s="130"/>
-      <c r="F204" s="113"/>
-      <c r="G204" s="113"/>
-      <c r="H204" s="113"/>
-      <c r="I204" s="113"/>
-      <c r="J204" s="131"/>
-      <c r="K204" s="181" t="s">
+      <c r="E204" s="100"/>
+      <c r="F204" s="101"/>
+      <c r="G204" s="101"/>
+      <c r="H204" s="101"/>
+      <c r="I204" s="101"/>
+      <c r="J204" s="128"/>
+      <c r="K204" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="L204" s="182"/>
-      <c r="M204" s="182"/>
-      <c r="N204" s="182"/>
-      <c r="O204" s="182"/>
-      <c r="P204" s="183"/>
+      <c r="L204" s="171"/>
+      <c r="M204" s="171"/>
+      <c r="N204" s="171"/>
+      <c r="O204" s="171"/>
+      <c r="P204" s="172"/>
     </row>
     <row r="205" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="C205" s="24"/>
       <c r="D205" s="25"/>
-      <c r="E205" s="130"/>
-      <c r="F205" s="113"/>
-      <c r="G205" s="113"/>
-      <c r="H205" s="113"/>
-      <c r="I205" s="113"/>
-      <c r="J205" s="131"/>
-      <c r="K205" s="181" t="s">
+      <c r="E205" s="100"/>
+      <c r="F205" s="101"/>
+      <c r="G205" s="101"/>
+      <c r="H205" s="101"/>
+      <c r="I205" s="101"/>
+      <c r="J205" s="128"/>
+      <c r="K205" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="L205" s="182"/>
-      <c r="M205" s="182"/>
-      <c r="N205" s="182"/>
-      <c r="O205" s="182"/>
-      <c r="P205" s="183"/>
+      <c r="L205" s="171"/>
+      <c r="M205" s="171"/>
+      <c r="N205" s="171"/>
+      <c r="O205" s="171"/>
+      <c r="P205" s="172"/>
     </row>
     <row r="206" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="C206" s="24"/>
       <c r="D206" s="25"/>
-      <c r="E206" s="130"/>
-      <c r="F206" s="113"/>
-      <c r="G206" s="113"/>
-      <c r="H206" s="113"/>
-      <c r="I206" s="113"/>
-      <c r="J206" s="131"/>
-      <c r="K206" s="181" t="s">
+      <c r="E206" s="100"/>
+      <c r="F206" s="101"/>
+      <c r="G206" s="101"/>
+      <c r="H206" s="101"/>
+      <c r="I206" s="101"/>
+      <c r="J206" s="128"/>
+      <c r="K206" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="L206" s="182"/>
-      <c r="M206" s="182"/>
-      <c r="N206" s="182"/>
-      <c r="O206" s="182"/>
-      <c r="P206" s="183"/>
+      <c r="L206" s="171"/>
+      <c r="M206" s="171"/>
+      <c r="N206" s="171"/>
+      <c r="O206" s="171"/>
+      <c r="P206" s="172"/>
     </row>
     <row r="207" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="C207" s="24"/>
       <c r="D207" s="25"/>
-      <c r="E207" s="130"/>
-      <c r="F207" s="113"/>
-      <c r="G207" s="113"/>
-      <c r="H207" s="113"/>
-      <c r="I207" s="113"/>
-      <c r="J207" s="131"/>
-      <c r="K207" s="181" t="s">
+      <c r="E207" s="100"/>
+      <c r="F207" s="101"/>
+      <c r="G207" s="101"/>
+      <c r="H207" s="101"/>
+      <c r="I207" s="101"/>
+      <c r="J207" s="128"/>
+      <c r="K207" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="L207" s="182"/>
-      <c r="M207" s="182"/>
-      <c r="N207" s="182"/>
-      <c r="O207" s="182"/>
-      <c r="P207" s="183"/>
+      <c r="L207" s="171"/>
+      <c r="M207" s="171"/>
+      <c r="N207" s="171"/>
+      <c r="O207" s="171"/>
+      <c r="P207" s="172"/>
     </row>
     <row r="208" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
-      <c r="C208" s="108" t="s">
+      <c r="C208" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="D208" s="109"/>
-      <c r="E208" s="110" t="s">
+      <c r="D208" s="113"/>
+      <c r="E208" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="F208" s="111"/>
-      <c r="G208" s="111"/>
-      <c r="H208" s="111"/>
-      <c r="I208" s="111"/>
-      <c r="J208" s="112"/>
-      <c r="K208" s="184" t="s">
+      <c r="F208" s="124"/>
+      <c r="G208" s="124"/>
+      <c r="H208" s="124"/>
+      <c r="I208" s="124"/>
+      <c r="J208" s="126"/>
+      <c r="K208" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="L208" s="185"/>
-      <c r="M208" s="185"/>
-      <c r="N208" s="185"/>
-      <c r="O208" s="185"/>
-      <c r="P208" s="186"/>
+      <c r="L208" s="174"/>
+      <c r="M208" s="174"/>
+      <c r="N208" s="174"/>
+      <c r="O208" s="174"/>
+      <c r="P208" s="175"/>
     </row>
     <row r="209" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
       <c r="C209" s="24"/>
       <c r="D209" s="25"/>
-      <c r="E209" s="130"/>
-      <c r="F209" s="113"/>
-      <c r="G209" s="113"/>
-      <c r="H209" s="113"/>
-      <c r="I209" s="113"/>
-      <c r="J209" s="131"/>
-      <c r="K209" s="181" t="s">
+      <c r="E209" s="100"/>
+      <c r="F209" s="101"/>
+      <c r="G209" s="101"/>
+      <c r="H209" s="101"/>
+      <c r="I209" s="101"/>
+      <c r="J209" s="128"/>
+      <c r="K209" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="L209" s="182"/>
-      <c r="M209" s="182"/>
-      <c r="N209" s="182"/>
-      <c r="O209" s="182"/>
-      <c r="P209" s="183"/>
+      <c r="L209" s="171"/>
+      <c r="M209" s="171"/>
+      <c r="N209" s="171"/>
+      <c r="O209" s="171"/>
+      <c r="P209" s="172"/>
     </row>
     <row r="210" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
       <c r="C210" s="34"/>
       <c r="D210" s="35"/>
-      <c r="E210" s="129"/>
-      <c r="F210" s="114"/>
-      <c r="G210" s="114"/>
-      <c r="H210" s="114"/>
-      <c r="I210" s="114"/>
-      <c r="J210" s="172"/>
-      <c r="K210" s="187" t="s">
+      <c r="E210" s="109"/>
+      <c r="F210" s="110"/>
+      <c r="G210" s="110"/>
+      <c r="H210" s="110"/>
+      <c r="I210" s="110"/>
+      <c r="J210" s="127"/>
+      <c r="K210" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="L210" s="188"/>
-      <c r="M210" s="188"/>
-      <c r="N210" s="188"/>
-      <c r="O210" s="188"/>
-      <c r="P210" s="189"/>
+      <c r="L210" s="177"/>
+      <c r="M210" s="177"/>
+      <c r="N210" s="177"/>
+      <c r="O210" s="177"/>
+      <c r="P210" s="178"/>
     </row>
     <row r="211" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
-      <c r="C211" s="108" t="s">
+      <c r="C211" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="D211" s="109"/>
-      <c r="E211" s="110" t="s">
+      <c r="D211" s="113"/>
+      <c r="E211" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F211" s="111"/>
-      <c r="G211" s="111"/>
-      <c r="H211" s="111"/>
-      <c r="I211" s="111"/>
-      <c r="J211" s="112"/>
-      <c r="K211" s="110" t="s">
+      <c r="F211" s="124"/>
+      <c r="G211" s="124"/>
+      <c r="H211" s="124"/>
+      <c r="I211" s="124"/>
+      <c r="J211" s="126"/>
+      <c r="K211" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="L211" s="111"/>
-      <c r="M211" s="111"/>
-      <c r="N211" s="111"/>
-      <c r="O211" s="111"/>
-      <c r="P211" s="120"/>
+      <c r="L211" s="124"/>
+      <c r="M211" s="124"/>
+      <c r="N211" s="124"/>
+      <c r="O211" s="124"/>
+      <c r="P211" s="125"/>
     </row>
     <row r="212" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
       <c r="C212" s="20"/>
       <c r="D212" s="21"/>
-      <c r="E212" s="130" t="s">
+      <c r="E212" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="F212" s="113"/>
-      <c r="G212" s="113"/>
-      <c r="H212" s="113"/>
-      <c r="I212" s="113"/>
-      <c r="J212" s="131"/>
-      <c r="K212" s="130" t="s">
+      <c r="F212" s="101"/>
+      <c r="G212" s="101"/>
+      <c r="H212" s="101"/>
+      <c r="I212" s="101"/>
+      <c r="J212" s="128"/>
+      <c r="K212" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="L212" s="113"/>
-      <c r="M212" s="113"/>
-      <c r="N212" s="113"/>
-      <c r="O212" s="113"/>
-      <c r="P212" s="121"/>
+      <c r="L212" s="101"/>
+      <c r="M212" s="101"/>
+      <c r="N212" s="101"/>
+      <c r="O212" s="101"/>
+      <c r="P212" s="102"/>
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
       <c r="C213" s="22"/>
       <c r="D213" s="23"/>
-      <c r="E213" s="178"/>
-      <c r="F213" s="179"/>
-      <c r="G213" s="179"/>
-      <c r="H213" s="179"/>
-      <c r="I213" s="179"/>
-      <c r="J213" s="180"/>
-      <c r="K213" s="129"/>
-      <c r="L213" s="114"/>
-      <c r="M213" s="114"/>
-      <c r="N213" s="114"/>
-      <c r="O213" s="114"/>
-      <c r="P213" s="134"/>
+      <c r="E213" s="167"/>
+      <c r="F213" s="168"/>
+      <c r="G213" s="168"/>
+      <c r="H213" s="168"/>
+      <c r="I213" s="168"/>
+      <c r="J213" s="169"/>
+      <c r="K213" s="109"/>
+      <c r="L213" s="110"/>
+      <c r="M213" s="110"/>
+      <c r="N213" s="110"/>
+      <c r="O213" s="110"/>
+      <c r="P213" s="111"/>
     </row>
     <row r="214" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
-      <c r="C214" s="108" t="s">
+      <c r="C214" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="D214" s="109"/>
-      <c r="E214" s="110" t="s">
+      <c r="D214" s="113"/>
+      <c r="E214" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="F214" s="111"/>
-      <c r="G214" s="111"/>
-      <c r="H214" s="111"/>
-      <c r="I214" s="111"/>
-      <c r="J214" s="112"/>
-      <c r="K214" s="110" t="s">
+      <c r="F214" s="124"/>
+      <c r="G214" s="124"/>
+      <c r="H214" s="124"/>
+      <c r="I214" s="124"/>
+      <c r="J214" s="126"/>
+      <c r="K214" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="L214" s="111"/>
-      <c r="M214" s="111"/>
-      <c r="N214" s="111"/>
-      <c r="O214" s="111"/>
-      <c r="P214" s="120"/>
+      <c r="L214" s="124"/>
+      <c r="M214" s="124"/>
+      <c r="N214" s="124"/>
+      <c r="O214" s="124"/>
+      <c r="P214" s="125"/>
     </row>
     <row r="215" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
       <c r="C215" s="20"/>
       <c r="D215" s="21"/>
-      <c r="E215" s="125"/>
-      <c r="F215" s="126"/>
-      <c r="G215" s="126"/>
-      <c r="H215" s="126"/>
-      <c r="I215" s="126"/>
-      <c r="J215" s="127"/>
-      <c r="K215" s="130" t="s">
+      <c r="E215" s="129"/>
+      <c r="F215" s="130"/>
+      <c r="G215" s="130"/>
+      <c r="H215" s="130"/>
+      <c r="I215" s="130"/>
+      <c r="J215" s="131"/>
+      <c r="K215" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="L215" s="113"/>
-      <c r="M215" s="113"/>
-      <c r="N215" s="113"/>
-      <c r="O215" s="113"/>
-      <c r="P215" s="121"/>
+      <c r="L215" s="101"/>
+      <c r="M215" s="101"/>
+      <c r="N215" s="101"/>
+      <c r="O215" s="101"/>
+      <c r="P215" s="102"/>
     </row>
     <row r="216" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
       <c r="C216" s="22"/>
       <c r="D216" s="23"/>
-      <c r="E216" s="129" t="s">
+      <c r="E216" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="F216" s="114"/>
-      <c r="G216" s="114"/>
-      <c r="H216" s="114"/>
-      <c r="I216" s="114"/>
-      <c r="J216" s="172"/>
-      <c r="K216" s="129" t="s">
+      <c r="F216" s="110"/>
+      <c r="G216" s="110"/>
+      <c r="H216" s="110"/>
+      <c r="I216" s="110"/>
+      <c r="J216" s="127"/>
+      <c r="K216" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="L216" s="114"/>
-      <c r="M216" s="114"/>
-      <c r="N216" s="114"/>
-      <c r="O216" s="114"/>
-      <c r="P216" s="134"/>
+      <c r="L216" s="110"/>
+      <c r="M216" s="110"/>
+      <c r="N216" s="110"/>
+      <c r="O216" s="110"/>
+      <c r="P216" s="111"/>
     </row>
     <row r="217" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
-      <c r="C217" s="108" t="s">
+      <c r="C217" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D217" s="109"/>
-      <c r="E217" s="110" t="s">
+      <c r="D217" s="113"/>
+      <c r="E217" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="F217" s="111"/>
-      <c r="G217" s="111"/>
-      <c r="H217" s="111"/>
-      <c r="I217" s="111"/>
-      <c r="J217" s="112"/>
-      <c r="K217" s="110" t="s">
+      <c r="F217" s="124"/>
+      <c r="G217" s="124"/>
+      <c r="H217" s="124"/>
+      <c r="I217" s="124"/>
+      <c r="J217" s="126"/>
+      <c r="K217" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L217" s="111"/>
-      <c r="M217" s="111"/>
-      <c r="N217" s="111"/>
-      <c r="O217" s="111"/>
-      <c r="P217" s="120"/>
+      <c r="L217" s="124"/>
+      <c r="M217" s="124"/>
+      <c r="N217" s="124"/>
+      <c r="O217" s="124"/>
+      <c r="P217" s="125"/>
     </row>
     <row r="218" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
       <c r="C218" s="20"/>
       <c r="D218" s="21"/>
-      <c r="E218" s="130" t="s">
+      <c r="E218" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="F218" s="113"/>
-      <c r="G218" s="113"/>
-      <c r="H218" s="113"/>
-      <c r="I218" s="113"/>
-      <c r="J218" s="131"/>
-      <c r="K218" s="130" t="s">
+      <c r="F218" s="101"/>
+      <c r="G218" s="101"/>
+      <c r="H218" s="101"/>
+      <c r="I218" s="101"/>
+      <c r="J218" s="128"/>
+      <c r="K218" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="L218" s="113"/>
-      <c r="M218" s="113"/>
-      <c r="N218" s="113"/>
-      <c r="O218" s="113"/>
-      <c r="P218" s="121"/>
+      <c r="L218" s="101"/>
+      <c r="M218" s="101"/>
+      <c r="N218" s="101"/>
+      <c r="O218" s="101"/>
+      <c r="P218" s="102"/>
     </row>
     <row r="219" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
       <c r="C219" s="22"/>
       <c r="D219" s="23"/>
-      <c r="E219" s="178"/>
-      <c r="F219" s="179"/>
-      <c r="G219" s="179"/>
-      <c r="H219" s="179"/>
-      <c r="I219" s="179"/>
-      <c r="J219" s="180"/>
-      <c r="K219" s="129" t="s">
+      <c r="E219" s="167"/>
+      <c r="F219" s="168"/>
+      <c r="G219" s="168"/>
+      <c r="H219" s="168"/>
+      <c r="I219" s="168"/>
+      <c r="J219" s="169"/>
+      <c r="K219" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="L219" s="114"/>
-      <c r="M219" s="114"/>
-      <c r="N219" s="114"/>
-      <c r="O219" s="114"/>
-      <c r="P219" s="134"/>
+      <c r="L219" s="110"/>
+      <c r="M219" s="110"/>
+      <c r="N219" s="110"/>
+      <c r="O219" s="110"/>
+      <c r="P219" s="111"/>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
@@ -6387,17 +6411,17 @@
     </row>
     <row r="225" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B225" s="7"/>
-      <c r="C225" s="177" t="s">
+      <c r="C225" s="158" t="s">
         <v>197</v>
       </c>
-      <c r="D225" s="177"/>
-      <c r="E225" s="177"/>
-      <c r="F225" s="177"/>
-      <c r="G225" s="177"/>
-      <c r="H225" s="177"/>
-      <c r="I225" s="177"/>
-      <c r="J225" s="177"/>
-      <c r="K225" s="177"/>
+      <c r="D225" s="158"/>
+      <c r="E225" s="158"/>
+      <c r="F225" s="158"/>
+      <c r="G225" s="158"/>
+      <c r="H225" s="158"/>
+      <c r="I225" s="158"/>
+      <c r="J225" s="158"/>
+      <c r="K225" s="158"/>
       <c r="L225" s="8"/>
       <c r="M225" s="8"/>
       <c r="N225" s="8"/>
@@ -6423,24 +6447,24 @@
     </row>
     <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" s="7"/>
-      <c r="C227" s="92" t="s">
+      <c r="C227" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="D227" s="92"/>
-      <c r="E227" s="92"/>
-      <c r="F227" s="93" t="s">
+      <c r="D227" s="159"/>
+      <c r="E227" s="159"/>
+      <c r="F227" s="160" t="s">
         <v>198</v>
       </c>
-      <c r="G227" s="94"/>
-      <c r="H227" s="94"/>
-      <c r="I227" s="94"/>
-      <c r="J227" s="94"/>
-      <c r="K227" s="94"/>
-      <c r="L227" s="94"/>
-      <c r="M227" s="94"/>
-      <c r="N227" s="94"/>
-      <c r="O227" s="94"/>
-      <c r="P227" s="95"/>
+      <c r="G227" s="161"/>
+      <c r="H227" s="161"/>
+      <c r="I227" s="161"/>
+      <c r="J227" s="161"/>
+      <c r="K227" s="161"/>
+      <c r="L227" s="161"/>
+      <c r="M227" s="161"/>
+      <c r="N227" s="161"/>
+      <c r="O227" s="161"/>
+      <c r="P227" s="162"/>
     </row>
     <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
@@ -6461,24 +6485,24 @@
     </row>
     <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
-      <c r="C229" s="92" t="s">
+      <c r="C229" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="D229" s="92"/>
-      <c r="E229" s="92"/>
-      <c r="F229" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="G229" s="94"/>
-      <c r="H229" s="94"/>
-      <c r="I229" s="94"/>
-      <c r="J229" s="94"/>
-      <c r="K229" s="94"/>
-      <c r="L229" s="94"/>
-      <c r="M229" s="94"/>
-      <c r="N229" s="94"/>
-      <c r="O229" s="94"/>
-      <c r="P229" s="95"/>
+      <c r="D229" s="159"/>
+      <c r="E229" s="159"/>
+      <c r="F229" s="160" t="s">
+        <v>217</v>
+      </c>
+      <c r="G229" s="161"/>
+      <c r="H229" s="161"/>
+      <c r="I229" s="161"/>
+      <c r="J229" s="161"/>
+      <c r="K229" s="161"/>
+      <c r="L229" s="161"/>
+      <c r="M229" s="161"/>
+      <c r="N229" s="161"/>
+      <c r="O229" s="161"/>
+      <c r="P229" s="162"/>
     </row>
     <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" s="7"/>
@@ -6499,30 +6523,30 @@
     </row>
     <row r="231" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
-      <c r="C231" s="143" t="s">
+      <c r="C231" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="D231" s="105"/>
-      <c r="E231" s="106"/>
-      <c r="F231" s="98" t="s">
+      <c r="D231" s="137"/>
+      <c r="E231" s="138"/>
+      <c r="F231" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="G231" s="99"/>
-      <c r="H231" s="99"/>
-      <c r="I231" s="99"/>
-      <c r="J231" s="99"/>
-      <c r="K231" s="99"/>
-      <c r="L231" s="99"/>
-      <c r="M231" s="99"/>
-      <c r="N231" s="99"/>
-      <c r="O231" s="99"/>
-      <c r="P231" s="100"/>
+      <c r="G231" s="146"/>
+      <c r="H231" s="146"/>
+      <c r="I231" s="146"/>
+      <c r="J231" s="146"/>
+      <c r="K231" s="146"/>
+      <c r="L231" s="146"/>
+      <c r="M231" s="146"/>
+      <c r="N231" s="146"/>
+      <c r="O231" s="146"/>
+      <c r="P231" s="147"/>
     </row>
     <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B232" s="7"/>
-      <c r="C232" s="144"/>
-      <c r="D232" s="145"/>
-      <c r="E232" s="146"/>
+      <c r="C232" s="139"/>
+      <c r="D232" s="140"/>
+      <c r="E232" s="141"/>
       <c r="F232" s="151"/>
       <c r="G232" s="152"/>
       <c r="H232" s="152"/>
@@ -6533,13 +6557,13 @@
       <c r="M232" s="152"/>
       <c r="N232" s="152"/>
       <c r="O232" s="152"/>
-      <c r="P232" s="173"/>
+      <c r="P232" s="163"/>
     </row>
     <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233" s="7"/>
-      <c r="C233" s="144"/>
-      <c r="D233" s="145"/>
-      <c r="E233" s="146"/>
+      <c r="C233" s="139"/>
+      <c r="D233" s="140"/>
+      <c r="E233" s="141"/>
       <c r="F233" s="151" t="s">
         <v>4</v>
       </c>
@@ -6552,36 +6576,36 @@
       <c r="M233" s="152"/>
       <c r="N233" s="152"/>
       <c r="O233" s="152"/>
-      <c r="P233" s="173"/>
+      <c r="P233" s="163"/>
     </row>
     <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
-      <c r="C234" s="144"/>
-      <c r="D234" s="145"/>
-      <c r="E234" s="146"/>
-      <c r="F234" s="101"/>
-      <c r="G234" s="102"/>
-      <c r="H234" s="102"/>
-      <c r="I234" s="102"/>
-      <c r="J234" s="102"/>
-      <c r="K234" s="102"/>
-      <c r="L234" s="102"/>
-      <c r="M234" s="102"/>
-      <c r="N234" s="102"/>
-      <c r="O234" s="102"/>
-      <c r="P234" s="103"/>
+      <c r="C234" s="139"/>
+      <c r="D234" s="140"/>
+      <c r="E234" s="141"/>
+      <c r="F234" s="148"/>
+      <c r="G234" s="149"/>
+      <c r="H234" s="149"/>
+      <c r="I234" s="149"/>
+      <c r="J234" s="149"/>
+      <c r="K234" s="149"/>
+      <c r="L234" s="149"/>
+      <c r="M234" s="149"/>
+      <c r="N234" s="149"/>
+      <c r="O234" s="149"/>
+      <c r="P234" s="150"/>
     </row>
     <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
-      <c r="C235" s="147"/>
-      <c r="D235" s="148"/>
-      <c r="E235" s="149"/>
-      <c r="F235" s="174"/>
-      <c r="G235" s="175"/>
-      <c r="H235" s="175"/>
-      <c r="I235" s="175"/>
-      <c r="J235" s="175"/>
-      <c r="K235" s="176"/>
+      <c r="C235" s="142"/>
+      <c r="D235" s="143"/>
+      <c r="E235" s="144"/>
+      <c r="F235" s="164"/>
+      <c r="G235" s="165"/>
+      <c r="H235" s="165"/>
+      <c r="I235" s="165"/>
+      <c r="J235" s="165"/>
+      <c r="K235" s="166"/>
       <c r="L235" s="8"/>
       <c r="M235" s="8"/>
       <c r="N235" s="8"/>
@@ -6590,47 +6614,47 @@
     </row>
     <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
-      <c r="C236" s="143" t="s">
+      <c r="C236" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D236" s="105"/>
-      <c r="E236" s="106"/>
-      <c r="F236" s="98" t="s">
+      <c r="D236" s="137"/>
+      <c r="E236" s="138"/>
+      <c r="F236" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G236" s="99"/>
-      <c r="H236" s="99"/>
-      <c r="I236" s="99"/>
-      <c r="J236" s="99"/>
-      <c r="K236" s="99"/>
-      <c r="L236" s="99"/>
-      <c r="M236" s="99"/>
-      <c r="N236" s="99"/>
-      <c r="O236" s="99"/>
-      <c r="P236" s="100"/>
+      <c r="G236" s="146"/>
+      <c r="H236" s="146"/>
+      <c r="I236" s="146"/>
+      <c r="J236" s="146"/>
+      <c r="K236" s="146"/>
+      <c r="L236" s="146"/>
+      <c r="M236" s="146"/>
+      <c r="N236" s="146"/>
+      <c r="O236" s="146"/>
+      <c r="P236" s="147"/>
     </row>
     <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
-      <c r="C237" s="144"/>
-      <c r="D237" s="145"/>
-      <c r="E237" s="146"/>
-      <c r="F237" s="101"/>
-      <c r="G237" s="102"/>
-      <c r="H237" s="102"/>
-      <c r="I237" s="102"/>
-      <c r="J237" s="102"/>
-      <c r="K237" s="102"/>
-      <c r="L237" s="102"/>
-      <c r="M237" s="102"/>
-      <c r="N237" s="102"/>
-      <c r="O237" s="102"/>
-      <c r="P237" s="103"/>
+      <c r="C237" s="139"/>
+      <c r="D237" s="140"/>
+      <c r="E237" s="141"/>
+      <c r="F237" s="148"/>
+      <c r="G237" s="149"/>
+      <c r="H237" s="149"/>
+      <c r="I237" s="149"/>
+      <c r="J237" s="149"/>
+      <c r="K237" s="149"/>
+      <c r="L237" s="149"/>
+      <c r="M237" s="149"/>
+      <c r="N237" s="149"/>
+      <c r="O237" s="149"/>
+      <c r="P237" s="150"/>
     </row>
     <row r="238" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
-      <c r="C238" s="147"/>
-      <c r="D238" s="148"/>
-      <c r="E238" s="149"/>
+      <c r="C238" s="142"/>
+      <c r="D238" s="143"/>
+      <c r="E238" s="144"/>
       <c r="F238" s="151"/>
       <c r="G238" s="152"/>
       <c r="H238" s="152"/>
@@ -6645,41 +6669,41 @@
     </row>
     <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
-      <c r="C239" s="143" t="s">
+      <c r="C239" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="105"/>
-      <c r="E239" s="106"/>
-      <c r="F239" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="G239" s="99"/>
-      <c r="H239" s="99"/>
-      <c r="I239" s="99"/>
-      <c r="J239" s="99"/>
-      <c r="K239" s="99"/>
-      <c r="L239" s="99"/>
-      <c r="M239" s="99"/>
-      <c r="N239" s="99"/>
-      <c r="O239" s="99"/>
-      <c r="P239" s="100"/>
+      <c r="D239" s="137"/>
+      <c r="E239" s="138"/>
+      <c r="F239" s="145" t="s">
+        <v>199</v>
+      </c>
+      <c r="G239" s="146"/>
+      <c r="H239" s="146"/>
+      <c r="I239" s="146"/>
+      <c r="J239" s="146"/>
+      <c r="K239" s="146"/>
+      <c r="L239" s="146"/>
+      <c r="M239" s="146"/>
+      <c r="N239" s="146"/>
+      <c r="O239" s="146"/>
+      <c r="P239" s="147"/>
     </row>
     <row r="240" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
       <c r="C240" s="78"/>
       <c r="D240" s="79"/>
       <c r="E240" s="80"/>
-      <c r="F240" s="101"/>
-      <c r="G240" s="102"/>
-      <c r="H240" s="102"/>
-      <c r="I240" s="102"/>
-      <c r="J240" s="102"/>
-      <c r="K240" s="102"/>
-      <c r="L240" s="102"/>
-      <c r="M240" s="102"/>
-      <c r="N240" s="102"/>
-      <c r="O240" s="102"/>
-      <c r="P240" s="103"/>
+      <c r="F240" s="148"/>
+      <c r="G240" s="149"/>
+      <c r="H240" s="149"/>
+      <c r="I240" s="149"/>
+      <c r="J240" s="149"/>
+      <c r="K240" s="149"/>
+      <c r="L240" s="149"/>
+      <c r="M240" s="149"/>
+      <c r="N240" s="149"/>
+      <c r="O240" s="149"/>
+      <c r="P240" s="150"/>
     </row>
     <row r="241" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
@@ -6734,87 +6758,87 @@
     </row>
     <row r="244" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
-      <c r="C244" s="168" t="s">
+      <c r="C244" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D244" s="169"/>
-      <c r="E244" s="168" t="s">
+      <c r="D244" s="155"/>
+      <c r="E244" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="F244" s="170"/>
-      <c r="G244" s="170"/>
-      <c r="H244" s="170"/>
-      <c r="I244" s="170"/>
-      <c r="J244" s="169"/>
-      <c r="K244" s="168" t="s">
+      <c r="F244" s="156"/>
+      <c r="G244" s="156"/>
+      <c r="H244" s="156"/>
+      <c r="I244" s="156"/>
+      <c r="J244" s="155"/>
+      <c r="K244" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="L244" s="170"/>
-      <c r="M244" s="170"/>
-      <c r="N244" s="170"/>
-      <c r="O244" s="170"/>
-      <c r="P244" s="171"/>
+      <c r="L244" s="156"/>
+      <c r="M244" s="156"/>
+      <c r="N244" s="156"/>
+      <c r="O244" s="156"/>
+      <c r="P244" s="157"/>
     </row>
     <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
-      <c r="C245" s="108" t="s">
+      <c r="C245" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D245" s="109"/>
-      <c r="E245" s="110" t="s">
+      <c r="D245" s="113"/>
+      <c r="E245" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F245" s="111"/>
-      <c r="G245" s="111"/>
-      <c r="H245" s="111"/>
-      <c r="I245" s="111"/>
-      <c r="J245" s="112"/>
-      <c r="K245" s="110" t="s">
+      <c r="F245" s="115"/>
+      <c r="G245" s="115"/>
+      <c r="H245" s="115"/>
+      <c r="I245" s="115"/>
+      <c r="J245" s="116"/>
+      <c r="K245" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="L245" s="111"/>
-      <c r="M245" s="111"/>
-      <c r="N245" s="111"/>
-      <c r="O245" s="111"/>
-      <c r="P245" s="120"/>
+      <c r="L245" s="124"/>
+      <c r="M245" s="124"/>
+      <c r="N245" s="124"/>
+      <c r="O245" s="124"/>
+      <c r="P245" s="125"/>
     </row>
     <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
       <c r="C246" s="20"/>
       <c r="D246" s="21"/>
-      <c r="E246" s="130"/>
-      <c r="F246" s="113"/>
-      <c r="G246" s="113"/>
-      <c r="H246" s="113"/>
-      <c r="I246" s="113"/>
-      <c r="J246" s="131"/>
-      <c r="K246" s="130" t="s">
+      <c r="E246" s="117"/>
+      <c r="F246" s="118"/>
+      <c r="G246" s="118"/>
+      <c r="H246" s="118"/>
+      <c r="I246" s="118"/>
+      <c r="J246" s="119"/>
+      <c r="K246" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="L246" s="113"/>
-      <c r="M246" s="113"/>
-      <c r="N246" s="113"/>
-      <c r="O246" s="113"/>
-      <c r="P246" s="121"/>
+      <c r="L246" s="101"/>
+      <c r="M246" s="101"/>
+      <c r="N246" s="101"/>
+      <c r="O246" s="101"/>
+      <c r="P246" s="102"/>
     </row>
     <row r="247" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
       <c r="C247" s="86"/>
       <c r="D247" s="87"/>
-      <c r="E247" s="129"/>
-      <c r="F247" s="114"/>
-      <c r="G247" s="114"/>
-      <c r="H247" s="114"/>
-      <c r="I247" s="114"/>
-      <c r="J247" s="172"/>
-      <c r="K247" s="130" t="s">
+      <c r="E247" s="120"/>
+      <c r="F247" s="121"/>
+      <c r="G247" s="121"/>
+      <c r="H247" s="121"/>
+      <c r="I247" s="121"/>
+      <c r="J247" s="122"/>
+      <c r="K247" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="L247" s="113"/>
-      <c r="M247" s="113"/>
-      <c r="N247" s="113"/>
-      <c r="O247" s="113"/>
-      <c r="P247" s="121"/>
+      <c r="L247" s="101"/>
+      <c r="M247" s="101"/>
+      <c r="N247" s="101"/>
+      <c r="O247" s="101"/>
+      <c r="P247" s="102"/>
     </row>
     <row r="248" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
@@ -6826,35 +6850,35 @@
       <c r="H248" s="69"/>
       <c r="I248" s="69"/>
       <c r="J248" s="70"/>
-      <c r="K248" s="129"/>
-      <c r="L248" s="114"/>
-      <c r="M248" s="114"/>
-      <c r="N248" s="114"/>
-      <c r="O248" s="114"/>
-      <c r="P248" s="134"/>
+      <c r="K248" s="109"/>
+      <c r="L248" s="110"/>
+      <c r="M248" s="110"/>
+      <c r="N248" s="110"/>
+      <c r="O248" s="110"/>
+      <c r="P248" s="111"/>
     </row>
     <row r="249" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
-      <c r="C249" s="108" t="s">
+      <c r="C249" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D249" s="109"/>
-      <c r="E249" s="110" t="s">
+      <c r="D249" s="113"/>
+      <c r="E249" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F249" s="111"/>
-      <c r="G249" s="111"/>
-      <c r="H249" s="111"/>
-      <c r="I249" s="111"/>
-      <c r="J249" s="112"/>
-      <c r="K249" s="110" t="s">
+      <c r="F249" s="124"/>
+      <c r="G249" s="124"/>
+      <c r="H249" s="124"/>
+      <c r="I249" s="124"/>
+      <c r="J249" s="126"/>
+      <c r="K249" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="L249" s="111"/>
-      <c r="M249" s="111"/>
-      <c r="N249" s="111"/>
-      <c r="O249" s="111"/>
-      <c r="P249" s="120"/>
+      <c r="L249" s="124"/>
+      <c r="M249" s="124"/>
+      <c r="N249" s="124"/>
+      <c r="O249" s="124"/>
+      <c r="P249" s="125"/>
     </row>
     <row r="250" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
@@ -6866,35 +6890,35 @@
       <c r="H250" s="75"/>
       <c r="I250" s="75"/>
       <c r="J250" s="76"/>
-      <c r="K250" s="165" t="s">
+      <c r="K250" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="L250" s="122"/>
-      <c r="M250" s="122"/>
-      <c r="N250" s="122"/>
-      <c r="O250" s="122"/>
-      <c r="P250" s="166"/>
+      <c r="L250" s="133"/>
+      <c r="M250" s="133"/>
+      <c r="N250" s="133"/>
+      <c r="O250" s="133"/>
+      <c r="P250" s="134"/>
     </row>
     <row r="251" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B251" s="7"/>
       <c r="C251" s="24"/>
       <c r="D251" s="25"/>
-      <c r="E251" s="165" t="s">
+      <c r="E251" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="F251" s="122"/>
-      <c r="G251" s="122"/>
-      <c r="H251" s="122"/>
-      <c r="I251" s="122"/>
-      <c r="J251" s="167"/>
-      <c r="K251" s="165" t="s">
+      <c r="F251" s="133"/>
+      <c r="G251" s="133"/>
+      <c r="H251" s="133"/>
+      <c r="I251" s="133"/>
+      <c r="J251" s="135"/>
+      <c r="K251" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="L251" s="122"/>
-      <c r="M251" s="122"/>
-      <c r="N251" s="122"/>
-      <c r="O251" s="122"/>
-      <c r="P251" s="166"/>
+      <c r="L251" s="133"/>
+      <c r="M251" s="133"/>
+      <c r="N251" s="133"/>
+      <c r="O251" s="133"/>
+      <c r="P251" s="134"/>
     </row>
     <row r="252" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B252" s="7"/>
@@ -6906,119 +6930,119 @@
       <c r="H252" s="85"/>
       <c r="I252" s="85"/>
       <c r="J252" s="31"/>
-      <c r="K252" s="129" t="s">
+      <c r="K252" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L252" s="114"/>
-      <c r="M252" s="114"/>
-      <c r="N252" s="114"/>
-      <c r="O252" s="114"/>
-      <c r="P252" s="134"/>
+      <c r="L252" s="110"/>
+      <c r="M252" s="110"/>
+      <c r="N252" s="110"/>
+      <c r="O252" s="110"/>
+      <c r="P252" s="111"/>
     </row>
     <row r="253" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B253" s="7"/>
-      <c r="C253" s="108" t="s">
+      <c r="C253" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D253" s="109"/>
-      <c r="E253" s="110" t="s">
+      <c r="D253" s="113"/>
+      <c r="E253" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="F253" s="111"/>
-      <c r="G253" s="111"/>
-      <c r="H253" s="111"/>
-      <c r="I253" s="111"/>
-      <c r="J253" s="112"/>
-      <c r="K253" s="110" t="s">
+      <c r="F253" s="124"/>
+      <c r="G253" s="124"/>
+      <c r="H253" s="124"/>
+      <c r="I253" s="124"/>
+      <c r="J253" s="126"/>
+      <c r="K253" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="L253" s="111"/>
-      <c r="M253" s="111"/>
-      <c r="N253" s="111"/>
-      <c r="O253" s="111"/>
-      <c r="P253" s="120"/>
+      <c r="L253" s="124"/>
+      <c r="M253" s="124"/>
+      <c r="N253" s="124"/>
+      <c r="O253" s="124"/>
+      <c r="P253" s="125"/>
     </row>
     <row r="254" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B254" s="7"/>
       <c r="C254" s="86"/>
       <c r="D254" s="87"/>
-      <c r="E254" s="129" t="s">
+      <c r="E254" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F254" s="114"/>
-      <c r="G254" s="114"/>
-      <c r="H254" s="114"/>
-      <c r="I254" s="114"/>
-      <c r="J254" s="172"/>
-      <c r="K254" s="129"/>
-      <c r="L254" s="114"/>
-      <c r="M254" s="114"/>
-      <c r="N254" s="114"/>
-      <c r="O254" s="114"/>
-      <c r="P254" s="134"/>
+      <c r="F254" s="110"/>
+      <c r="G254" s="110"/>
+      <c r="H254" s="110"/>
+      <c r="I254" s="110"/>
+      <c r="J254" s="127"/>
+      <c r="K254" s="109"/>
+      <c r="L254" s="110"/>
+      <c r="M254" s="110"/>
+      <c r="N254" s="110"/>
+      <c r="O254" s="110"/>
+      <c r="P254" s="111"/>
     </row>
     <row r="255" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="7"/>
-      <c r="C255" s="108" t="s">
+      <c r="C255" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D255" s="109"/>
-      <c r="E255" s="110" t="s">
+      <c r="D255" s="113"/>
+      <c r="E255" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F255" s="111"/>
-      <c r="G255" s="111"/>
-      <c r="H255" s="111"/>
-      <c r="I255" s="111"/>
-      <c r="J255" s="112"/>
-      <c r="K255" s="110" t="s">
+      <c r="F255" s="124"/>
+      <c r="G255" s="124"/>
+      <c r="H255" s="124"/>
+      <c r="I255" s="124"/>
+      <c r="J255" s="126"/>
+      <c r="K255" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="L255" s="111"/>
-      <c r="M255" s="111"/>
-      <c r="N255" s="111"/>
-      <c r="O255" s="111"/>
-      <c r="P255" s="120"/>
+      <c r="L255" s="115"/>
+      <c r="M255" s="115"/>
+      <c r="N255" s="115"/>
+      <c r="O255" s="115"/>
+      <c r="P255" s="216"/>
     </row>
     <row r="256" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B256" s="7"/>
       <c r="C256" s="20"/>
       <c r="D256" s="21"/>
-      <c r="E256" s="130" t="s">
+      <c r="E256" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="F256" s="113"/>
-      <c r="G256" s="113"/>
-      <c r="H256" s="113"/>
-      <c r="I256" s="113"/>
-      <c r="J256" s="131"/>
-      <c r="K256" s="130" t="s">
+      <c r="F256" s="101"/>
+      <c r="G256" s="101"/>
+      <c r="H256" s="101"/>
+      <c r="I256" s="101"/>
+      <c r="J256" s="128"/>
+      <c r="K256" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="L256" s="113"/>
-      <c r="M256" s="113"/>
-      <c r="N256" s="113"/>
-      <c r="O256" s="113"/>
-      <c r="P256" s="121"/>
+      <c r="L256" s="101"/>
+      <c r="M256" s="101"/>
+      <c r="N256" s="101"/>
+      <c r="O256" s="101"/>
+      <c r="P256" s="102"/>
     </row>
     <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257" s="7"/>
       <c r="C257" s="20"/>
       <c r="D257" s="21"/>
-      <c r="E257" s="125"/>
-      <c r="F257" s="126"/>
-      <c r="G257" s="126"/>
-      <c r="H257" s="126"/>
-      <c r="I257" s="126"/>
-      <c r="J257" s="127"/>
-      <c r="K257" s="130" t="s">
-        <v>201</v>
-      </c>
-      <c r="L257" s="113"/>
-      <c r="M257" s="113"/>
-      <c r="N257" s="113"/>
-      <c r="O257" s="113"/>
-      <c r="P257" s="121"/>
+      <c r="E257" s="129"/>
+      <c r="F257" s="130"/>
+      <c r="G257" s="130"/>
+      <c r="H257" s="130"/>
+      <c r="I257" s="130"/>
+      <c r="J257" s="131"/>
+      <c r="K257" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="L257" s="101"/>
+      <c r="M257" s="101"/>
+      <c r="N257" s="101"/>
+      <c r="O257" s="101"/>
+      <c r="P257" s="102"/>
     </row>
     <row r="258" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B258" s="7"/>
@@ -7030,14 +7054,14 @@
       <c r="H258" s="72"/>
       <c r="I258" s="72"/>
       <c r="J258" s="73"/>
-      <c r="K258" s="130" t="s">
-        <v>202</v>
-      </c>
-      <c r="L258" s="113"/>
-      <c r="M258" s="113"/>
-      <c r="N258" s="113"/>
-      <c r="O258" s="113"/>
-      <c r="P258" s="121"/>
+      <c r="K258" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="L258" s="101"/>
+      <c r="M258" s="101"/>
+      <c r="N258" s="101"/>
+      <c r="O258" s="101"/>
+      <c r="P258" s="102"/>
     </row>
     <row r="259" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B259" s="7"/>
@@ -7049,115 +7073,113 @@
       <c r="H259" s="72"/>
       <c r="I259" s="72"/>
       <c r="J259" s="73"/>
-      <c r="K259" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="L259" s="114"/>
-      <c r="M259" s="114"/>
-      <c r="N259" s="114"/>
-      <c r="O259" s="114"/>
-      <c r="P259" s="134"/>
+      <c r="K259" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="L259" s="110"/>
+      <c r="M259" s="110"/>
+      <c r="N259" s="110"/>
+      <c r="O259" s="110"/>
+      <c r="P259" s="111"/>
     </row>
     <row r="260" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B260" s="7"/>
-      <c r="C260" s="108" t="s">
+      <c r="C260" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D260" s="109"/>
-      <c r="E260" s="190" t="s">
+      <c r="D260" s="113"/>
+      <c r="E260" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="F260" s="115"/>
+      <c r="G260" s="115"/>
+      <c r="H260" s="115"/>
+      <c r="I260" s="115"/>
+      <c r="J260" s="116"/>
+      <c r="K260" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="F260" s="191"/>
-      <c r="G260" s="191"/>
-      <c r="H260" s="191"/>
-      <c r="I260" s="191"/>
-      <c r="J260" s="192"/>
-      <c r="K260" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="L260" s="111"/>
-      <c r="M260" s="111"/>
-      <c r="N260" s="111"/>
-      <c r="O260" s="111"/>
-      <c r="P260" s="120"/>
+      <c r="L260" s="124"/>
+      <c r="M260" s="124"/>
+      <c r="N260" s="124"/>
+      <c r="O260" s="124"/>
+      <c r="P260" s="125"/>
     </row>
     <row r="261" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B261" s="7"/>
       <c r="C261" s="20"/>
       <c r="D261" s="21"/>
-      <c r="E261" s="193"/>
-      <c r="F261" s="194"/>
-      <c r="G261" s="194"/>
-      <c r="H261" s="194"/>
-      <c r="I261" s="194"/>
-      <c r="J261" s="195"/>
-      <c r="K261" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="L261" s="113"/>
-      <c r="M261" s="113"/>
-      <c r="N261" s="113"/>
-      <c r="O261" s="113"/>
-      <c r="P261" s="121"/>
+      <c r="E261" s="117"/>
+      <c r="F261" s="118"/>
+      <c r="G261" s="118"/>
+      <c r="H261" s="118"/>
+      <c r="I261" s="118"/>
+      <c r="J261" s="119"/>
+      <c r="K261" s="100" t="s">
+        <v>205</v>
+      </c>
+      <c r="L261" s="101"/>
+      <c r="M261" s="101"/>
+      <c r="N261" s="101"/>
+      <c r="O261" s="101"/>
+      <c r="P261" s="102"/>
     </row>
     <row r="262" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B262" s="7"/>
       <c r="C262" s="86"/>
       <c r="D262" s="87"/>
-      <c r="E262" s="196"/>
-      <c r="F262" s="197"/>
-      <c r="G262" s="197"/>
-      <c r="H262" s="197"/>
-      <c r="I262" s="197"/>
-      <c r="J262" s="198"/>
-      <c r="K262" s="129"/>
-      <c r="L262" s="114"/>
-      <c r="M262" s="114"/>
-      <c r="N262" s="114"/>
-      <c r="O262" s="114"/>
-      <c r="P262" s="134"/>
+      <c r="E262" s="120"/>
+      <c r="F262" s="121"/>
+      <c r="G262" s="121"/>
+      <c r="H262" s="121"/>
+      <c r="I262" s="121"/>
+      <c r="J262" s="122"/>
+      <c r="K262" s="109"/>
+      <c r="L262" s="110"/>
+      <c r="M262" s="110"/>
+      <c r="N262" s="110"/>
+      <c r="O262" s="110"/>
+      <c r="P262" s="111"/>
     </row>
     <row r="263" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B263" s="7"/>
-      <c r="C263" s="108" t="s">
+      <c r="C263" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="D263" s="109"/>
-      <c r="E263" s="110" t="s">
-        <v>207</v>
-      </c>
-      <c r="F263" s="111"/>
-      <c r="G263" s="111"/>
-      <c r="H263" s="111"/>
-      <c r="I263" s="111"/>
-      <c r="J263" s="112"/>
-      <c r="K263" s="110" t="s">
+      <c r="D263" s="113"/>
+      <c r="E263" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="F263" s="124"/>
+      <c r="G263" s="124"/>
+      <c r="H263" s="124"/>
+      <c r="I263" s="124"/>
+      <c r="J263" s="126"/>
+      <c r="K263" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="L263" s="111"/>
-      <c r="M263" s="111"/>
-      <c r="N263" s="111"/>
-      <c r="O263" s="111"/>
-      <c r="P263" s="120"/>
+      <c r="L263" s="124"/>
+      <c r="M263" s="124"/>
+      <c r="N263" s="124"/>
+      <c r="O263" s="124"/>
+      <c r="P263" s="125"/>
     </row>
     <row r="264" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B264" s="7"/>
       <c r="C264" s="20"/>
       <c r="D264" s="21"/>
-      <c r="E264" s="68"/>
-      <c r="F264" s="69"/>
-      <c r="G264" s="69"/>
-      <c r="H264" s="69"/>
-      <c r="I264" s="69"/>
-      <c r="J264" s="70"/>
-      <c r="K264" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="L264" s="113"/>
-      <c r="M264" s="113"/>
-      <c r="N264" s="113"/>
-      <c r="O264" s="113"/>
-      <c r="P264" s="121"/>
+      <c r="E264" s="91"/>
+      <c r="F264" s="89"/>
+      <c r="G264" s="89"/>
+      <c r="H264" s="89"/>
+      <c r="I264" s="89"/>
+      <c r="J264" s="92"/>
+      <c r="K264" s="91"/>
+      <c r="L264" s="89"/>
+      <c r="M264" s="89"/>
+      <c r="N264" s="89"/>
+      <c r="O264" s="89"/>
+      <c r="P264" s="90"/>
     </row>
     <row r="265" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B265" s="7"/>
@@ -7169,14 +7191,14 @@
       <c r="H265" s="69"/>
       <c r="I265" s="69"/>
       <c r="J265" s="70"/>
-      <c r="K265" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="L265" s="113"/>
-      <c r="M265" s="113"/>
-      <c r="N265" s="113"/>
-      <c r="O265" s="113"/>
-      <c r="P265" s="121"/>
+      <c r="K265" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="L265" s="101"/>
+      <c r="M265" s="101"/>
+      <c r="N265" s="101"/>
+      <c r="O265" s="101"/>
+      <c r="P265" s="102"/>
     </row>
     <row r="266" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B266" s="7"/>
@@ -7188,14 +7210,14 @@
       <c r="H266" s="69"/>
       <c r="I266" s="69"/>
       <c r="J266" s="70"/>
-      <c r="K266" s="130" t="s">
-        <v>209</v>
-      </c>
-      <c r="L266" s="113"/>
-      <c r="M266" s="113"/>
-      <c r="N266" s="113"/>
-      <c r="O266" s="113"/>
-      <c r="P266" s="121"/>
+      <c r="K266" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="L266" s="101"/>
+      <c r="M266" s="101"/>
+      <c r="N266" s="101"/>
+      <c r="O266" s="101"/>
+      <c r="P266" s="102"/>
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B267" s="7"/>
@@ -7207,14 +7229,14 @@
       <c r="H267" s="69"/>
       <c r="I267" s="69"/>
       <c r="J267" s="70"/>
-      <c r="K267" s="199" t="s">
-        <v>210</v>
-      </c>
-      <c r="L267" s="200"/>
-      <c r="M267" s="200"/>
-      <c r="N267" s="200"/>
-      <c r="O267" s="200"/>
-      <c r="P267" s="201"/>
+      <c r="K267" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="L267" s="101"/>
+      <c r="M267" s="101"/>
+      <c r="N267" s="101"/>
+      <c r="O267" s="101"/>
+      <c r="P267" s="102"/>
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B268" s="7"/>
@@ -7226,14 +7248,14 @@
       <c r="H268" s="69"/>
       <c r="I268" s="69"/>
       <c r="J268" s="70"/>
-      <c r="K268" s="199" t="s">
-        <v>211</v>
-      </c>
-      <c r="L268" s="200"/>
-      <c r="M268" s="200"/>
-      <c r="N268" s="200"/>
-      <c r="O268" s="200"/>
-      <c r="P268" s="201"/>
+      <c r="K268" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="L268" s="107"/>
+      <c r="M268" s="107"/>
+      <c r="N268" s="107"/>
+      <c r="O268" s="107"/>
+      <c r="P268" s="108"/>
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B269" s="7"/>
@@ -7245,14 +7267,14 @@
       <c r="H269" s="69"/>
       <c r="I269" s="69"/>
       <c r="J269" s="70"/>
-      <c r="K269" s="199" t="s">
-        <v>212</v>
-      </c>
-      <c r="L269" s="200"/>
-      <c r="M269" s="200"/>
-      <c r="N269" s="200"/>
-      <c r="O269" s="200"/>
-      <c r="P269" s="201"/>
+      <c r="K269" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="L269" s="107"/>
+      <c r="M269" s="107"/>
+      <c r="N269" s="107"/>
+      <c r="O269" s="107"/>
+      <c r="P269" s="108"/>
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B270" s="7"/>
@@ -7264,14 +7286,14 @@
       <c r="H270" s="69"/>
       <c r="I270" s="69"/>
       <c r="J270" s="70"/>
-      <c r="K270" s="199" t="s">
-        <v>213</v>
-      </c>
-      <c r="L270" s="200"/>
-      <c r="M270" s="200"/>
-      <c r="N270" s="200"/>
-      <c r="O270" s="200"/>
-      <c r="P270" s="201"/>
+      <c r="K270" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="L270" s="107"/>
+      <c r="M270" s="107"/>
+      <c r="N270" s="107"/>
+      <c r="O270" s="107"/>
+      <c r="P270" s="108"/>
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B271" s="7"/>
@@ -7283,14 +7305,14 @@
       <c r="H271" s="69"/>
       <c r="I271" s="69"/>
       <c r="J271" s="70"/>
-      <c r="K271" s="199" t="s">
-        <v>214</v>
-      </c>
-      <c r="L271" s="200"/>
-      <c r="M271" s="200"/>
-      <c r="N271" s="200"/>
-      <c r="O271" s="200"/>
-      <c r="P271" s="201"/>
+      <c r="K271" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="L271" s="107"/>
+      <c r="M271" s="107"/>
+      <c r="N271" s="107"/>
+      <c r="O271" s="107"/>
+      <c r="P271" s="108"/>
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272" s="7"/>
@@ -7302,14 +7324,14 @@
       <c r="H272" s="69"/>
       <c r="I272" s="69"/>
       <c r="J272" s="70"/>
-      <c r="K272" s="199" t="s">
-        <v>215</v>
-      </c>
-      <c r="L272" s="200"/>
-      <c r="M272" s="200"/>
-      <c r="N272" s="200"/>
-      <c r="O272" s="200"/>
-      <c r="P272" s="201"/>
+      <c r="K272" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="L272" s="107"/>
+      <c r="M272" s="107"/>
+      <c r="N272" s="107"/>
+      <c r="O272" s="107"/>
+      <c r="P272" s="108"/>
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
@@ -7321,416 +7343,116 @@
       <c r="H273" s="69"/>
       <c r="I273" s="69"/>
       <c r="J273" s="70"/>
-      <c r="K273" s="130" t="s">
-        <v>216</v>
-      </c>
-      <c r="L273" s="113"/>
-      <c r="M273" s="113"/>
-      <c r="N273" s="113"/>
-      <c r="O273" s="113"/>
-      <c r="P273" s="121"/>
+      <c r="K273" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="L273" s="107"/>
+      <c r="M273" s="107"/>
+      <c r="N273" s="107"/>
+      <c r="O273" s="107"/>
+      <c r="P273" s="108"/>
     </row>
     <row r="274" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
       <c r="C274" s="20"/>
       <c r="D274" s="21"/>
-      <c r="E274" s="68"/>
-      <c r="F274" s="69"/>
-      <c r="G274" s="69"/>
-      <c r="H274" s="69"/>
-      <c r="I274" s="69"/>
-      <c r="J274" s="70"/>
-      <c r="K274" s="130" t="s">
-        <v>217</v>
-      </c>
-      <c r="L274" s="113"/>
-      <c r="M274" s="113"/>
-      <c r="N274" s="113"/>
-      <c r="O274" s="113"/>
-      <c r="P274" s="121"/>
+      <c r="E274" s="91"/>
+      <c r="F274" s="89"/>
+      <c r="G274" s="89"/>
+      <c r="H274" s="89"/>
+      <c r="I274" s="89"/>
+      <c r="J274" s="92"/>
+      <c r="K274" s="93"/>
+      <c r="L274" s="94"/>
+      <c r="M274" s="94"/>
+      <c r="N274" s="94"/>
+      <c r="O274" s="94"/>
+      <c r="P274" s="95"/>
     </row>
     <row r="275" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B275" s="7"/>
       <c r="C275" s="20"/>
       <c r="D275" s="21"/>
-      <c r="E275" s="69"/>
+      <c r="E275" s="68"/>
       <c r="F275" s="69"/>
       <c r="G275" s="69"/>
       <c r="H275" s="69"/>
       <c r="I275" s="69"/>
       <c r="J275" s="70"/>
-      <c r="K275" s="130"/>
-      <c r="L275" s="113"/>
-      <c r="M275" s="113"/>
-      <c r="N275" s="113"/>
-      <c r="O275" s="113"/>
-      <c r="P275" s="121"/>
-    </row>
-    <row r="276" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="36"/>
-      <c r="C276" s="202"/>
-      <c r="D276" s="203"/>
-      <c r="E276" s="204"/>
-      <c r="F276" s="204"/>
-      <c r="G276" s="204"/>
-      <c r="H276" s="204"/>
-      <c r="I276" s="204"/>
-      <c r="J276" s="205"/>
-      <c r="K276" s="206"/>
-      <c r="L276" s="207"/>
-      <c r="M276" s="207"/>
-      <c r="N276" s="207"/>
-      <c r="O276" s="207"/>
-      <c r="P276" s="208"/>
-    </row>
-    <row r="277" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="K275" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="L275" s="101"/>
+      <c r="M275" s="101"/>
+      <c r="N275" s="101"/>
+      <c r="O275" s="101"/>
+      <c r="P275" s="102"/>
+    </row>
+    <row r="276" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B276" s="7"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="68"/>
+      <c r="F276" s="69"/>
+      <c r="G276" s="69"/>
+      <c r="H276" s="69"/>
+      <c r="I276" s="69"/>
+      <c r="J276" s="70"/>
+      <c r="K276" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="L276" s="101"/>
+      <c r="M276" s="101"/>
+      <c r="N276" s="101"/>
+      <c r="O276" s="101"/>
+      <c r="P276" s="102"/>
+    </row>
+    <row r="277" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B277" s="7"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="69"/>
+      <c r="F277" s="69"/>
+      <c r="G277" s="69"/>
+      <c r="H277" s="69"/>
+      <c r="I277" s="69"/>
+      <c r="J277" s="70"/>
+      <c r="K277" s="100"/>
+      <c r="L277" s="101"/>
+      <c r="M277" s="101"/>
+      <c r="N277" s="101"/>
+      <c r="O277" s="101"/>
+      <c r="P277" s="102"/>
+    </row>
+    <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="36"/>
+      <c r="C278" s="96"/>
+      <c r="D278" s="97"/>
+      <c r="E278" s="98"/>
+      <c r="F278" s="98"/>
+      <c r="G278" s="98"/>
+      <c r="H278" s="98"/>
+      <c r="I278" s="98"/>
+      <c r="J278" s="99"/>
+      <c r="K278" s="103"/>
+      <c r="L278" s="104"/>
+      <c r="M278" s="104"/>
+      <c r="N278" s="104"/>
+      <c r="O278" s="104"/>
+      <c r="P278" s="105"/>
+    </row>
+    <row r="279" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="378">
-    <mergeCell ref="K273:P273"/>
-    <mergeCell ref="K274:P276"/>
-    <mergeCell ref="K264:P264"/>
-    <mergeCell ref="K265:P265"/>
-    <mergeCell ref="K266:P266"/>
-    <mergeCell ref="K267:P267"/>
-    <mergeCell ref="K268:P268"/>
-    <mergeCell ref="K269:P269"/>
-    <mergeCell ref="K270:P270"/>
-    <mergeCell ref="K271:P271"/>
-    <mergeCell ref="K272:P272"/>
-    <mergeCell ref="K258:P258"/>
-    <mergeCell ref="K259:P259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="E260:J262"/>
-    <mergeCell ref="K260:P260"/>
-    <mergeCell ref="K261:P262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E263:J263"/>
-    <mergeCell ref="K263:P263"/>
-    <mergeCell ref="E254:J254"/>
-    <mergeCell ref="K254:P254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="E255:J255"/>
-    <mergeCell ref="K255:P255"/>
-    <mergeCell ref="E256:J256"/>
-    <mergeCell ref="K256:P256"/>
-    <mergeCell ref="E257:J257"/>
-    <mergeCell ref="K257:P257"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="E249:J249"/>
-    <mergeCell ref="K249:P249"/>
-    <mergeCell ref="K250:P250"/>
-    <mergeCell ref="E251:J251"/>
-    <mergeCell ref="K251:P251"/>
-    <mergeCell ref="K252:P252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="E253:J253"/>
-    <mergeCell ref="K253:P253"/>
-    <mergeCell ref="C236:E238"/>
-    <mergeCell ref="F236:P237"/>
-    <mergeCell ref="F238:K238"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="F239:P240"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="E244:J244"/>
-    <mergeCell ref="K244:P244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="E245:J247"/>
-    <mergeCell ref="K245:P245"/>
-    <mergeCell ref="K246:P246"/>
-    <mergeCell ref="K247:P248"/>
-    <mergeCell ref="C225:K225"/>
-    <mergeCell ref="C227:E227"/>
-    <mergeCell ref="F227:P227"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:P229"/>
-    <mergeCell ref="C231:E235"/>
-    <mergeCell ref="F231:P232"/>
-    <mergeCell ref="F233:P234"/>
-    <mergeCell ref="F235:K235"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="E217:J217"/>
-    <mergeCell ref="K217:P217"/>
-    <mergeCell ref="E218:J218"/>
-    <mergeCell ref="K218:P218"/>
-    <mergeCell ref="E219:J219"/>
-    <mergeCell ref="K219:P219"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:J214"/>
-    <mergeCell ref="K214:P214"/>
-    <mergeCell ref="E215:J215"/>
-    <mergeCell ref="K215:P215"/>
-    <mergeCell ref="E216:J216"/>
-    <mergeCell ref="K216:P216"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:J211"/>
-    <mergeCell ref="K211:P211"/>
-    <mergeCell ref="E212:J212"/>
-    <mergeCell ref="K212:P212"/>
-    <mergeCell ref="E213:J213"/>
-    <mergeCell ref="K213:P213"/>
-    <mergeCell ref="K203:P203"/>
-    <mergeCell ref="K204:P204"/>
-    <mergeCell ref="K205:P205"/>
-    <mergeCell ref="K206:P206"/>
-    <mergeCell ref="K207:P207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:J210"/>
-    <mergeCell ref="K208:P208"/>
-    <mergeCell ref="K209:P209"/>
-    <mergeCell ref="K210:P210"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:J197"/>
-    <mergeCell ref="K197:P197"/>
-    <mergeCell ref="E198:J198"/>
-    <mergeCell ref="K198:P198"/>
-    <mergeCell ref="E199:J207"/>
-    <mergeCell ref="K199:P199"/>
-    <mergeCell ref="K200:P200"/>
-    <mergeCell ref="K201:P201"/>
-    <mergeCell ref="K202:P202"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:J194"/>
-    <mergeCell ref="K194:P194"/>
-    <mergeCell ref="E195:J195"/>
-    <mergeCell ref="K195:P195"/>
-    <mergeCell ref="E196:J196"/>
-    <mergeCell ref="K196:P196"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="E191:J191"/>
-    <mergeCell ref="K191:P191"/>
-    <mergeCell ref="E192:J192"/>
-    <mergeCell ref="K192:P192"/>
-    <mergeCell ref="E193:J193"/>
-    <mergeCell ref="K193:P193"/>
-    <mergeCell ref="K188:P188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:J189"/>
-    <mergeCell ref="K189:P189"/>
-    <mergeCell ref="E190:J190"/>
-    <mergeCell ref="K190:P190"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:J185"/>
-    <mergeCell ref="K185:P185"/>
-    <mergeCell ref="K186:P186"/>
-    <mergeCell ref="E187:J187"/>
-    <mergeCell ref="K187:P187"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="F176:P177"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:J181"/>
-    <mergeCell ref="K181:P181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:J184"/>
-    <mergeCell ref="K182:P182"/>
-    <mergeCell ref="K183:P183"/>
-    <mergeCell ref="K184:P184"/>
-    <mergeCell ref="C168:E172"/>
-    <mergeCell ref="F168:P169"/>
-    <mergeCell ref="F170:P171"/>
-    <mergeCell ref="F172:K172"/>
-    <mergeCell ref="C173:E175"/>
-    <mergeCell ref="F173:P174"/>
-    <mergeCell ref="F175:K175"/>
-    <mergeCell ref="E157:J157"/>
-    <mergeCell ref="K157:P157"/>
-    <mergeCell ref="C162:K162"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="F164:P164"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="F166:P166"/>
-    <mergeCell ref="K153:P153"/>
-    <mergeCell ref="E154:J154"/>
-    <mergeCell ref="K154:P154"/>
-    <mergeCell ref="K155:P155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:J156"/>
-    <mergeCell ref="K156:P156"/>
-    <mergeCell ref="K150:P150"/>
-    <mergeCell ref="E151:J151"/>
-    <mergeCell ref="K151:P151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:J152"/>
-    <mergeCell ref="K152:P152"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:J146"/>
-    <mergeCell ref="K146:P146"/>
-    <mergeCell ref="K147:P147"/>
-    <mergeCell ref="K148:N148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:J149"/>
-    <mergeCell ref="K149:P149"/>
-    <mergeCell ref="K143:P143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:J144"/>
-    <mergeCell ref="K144:P144"/>
-    <mergeCell ref="E145:J145"/>
-    <mergeCell ref="K145:P145"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:J140"/>
-    <mergeCell ref="K140:P140"/>
-    <mergeCell ref="K141:P141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="E142:J142"/>
-    <mergeCell ref="K142:P142"/>
-    <mergeCell ref="F133:K133"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:J136"/>
-    <mergeCell ref="K136:P136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:J139"/>
-    <mergeCell ref="K137:P137"/>
-    <mergeCell ref="K138:P138"/>
-    <mergeCell ref="K139:P139"/>
-    <mergeCell ref="C129:E131"/>
-    <mergeCell ref="F129:K129"/>
-    <mergeCell ref="F130:K130"/>
-    <mergeCell ref="F131:K131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="F132:K132"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="F122:K122"/>
-    <mergeCell ref="C124:E128"/>
-    <mergeCell ref="F124:K125"/>
-    <mergeCell ref="F126:K126"/>
-    <mergeCell ref="F127:K127"/>
-    <mergeCell ref="F128:K128"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:J116"/>
-    <mergeCell ref="K116:N116"/>
-    <mergeCell ref="C118:K118"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="F120:K120"/>
-    <mergeCell ref="K112:N112"/>
-    <mergeCell ref="K113:N113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="K114:N114"/>
-    <mergeCell ref="K115:P115"/>
-    <mergeCell ref="E107:J107"/>
-    <mergeCell ref="K107:N107"/>
-    <mergeCell ref="K108:N108"/>
-    <mergeCell ref="K109:N109"/>
-    <mergeCell ref="K110:N110"/>
-    <mergeCell ref="K111:N111"/>
-    <mergeCell ref="K103:N103"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:J106"/>
-    <mergeCell ref="K106:N106"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="K101:N101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="K97:N97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="K90:P90"/>
-    <mergeCell ref="K91:P91"/>
-    <mergeCell ref="K92:P92"/>
-    <mergeCell ref="K93:P93"/>
-    <mergeCell ref="K94:P94"/>
-    <mergeCell ref="K95:P95"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:P87"/>
-    <mergeCell ref="K88:P88"/>
-    <mergeCell ref="K89:P89"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:J83"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:P85"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:P80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:P77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="E73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:P74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:J75"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:J72"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K52:P52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="E13:P13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="E60:J60"/>
@@ -7755,15 +7477,351 @@
     <mergeCell ref="K24:N24"/>
     <mergeCell ref="K25:N25"/>
     <mergeCell ref="K26:N26"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K52:P52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:P74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:J72"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:P80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="E76:J76"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:P77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:P87"/>
+    <mergeCell ref="K88:P88"/>
+    <mergeCell ref="K89:P89"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:J83"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:P85"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="K96:N96"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="K90:P90"/>
+    <mergeCell ref="K91:P91"/>
+    <mergeCell ref="K92:P92"/>
+    <mergeCell ref="K93:P93"/>
+    <mergeCell ref="K94:P94"/>
+    <mergeCell ref="K95:P95"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="K106:N106"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="K102:N102"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="K107:N107"/>
+    <mergeCell ref="K108:N108"/>
+    <mergeCell ref="K109:N109"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="K111:N111"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:J116"/>
+    <mergeCell ref="K116:N116"/>
+    <mergeCell ref="C118:K118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F120:K120"/>
+    <mergeCell ref="K112:N112"/>
+    <mergeCell ref="K113:N113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="K114:N114"/>
+    <mergeCell ref="K115:P115"/>
+    <mergeCell ref="C129:E131"/>
+    <mergeCell ref="F129:K129"/>
+    <mergeCell ref="F130:K130"/>
+    <mergeCell ref="F131:K131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="F132:K132"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="F122:K122"/>
+    <mergeCell ref="C124:E128"/>
+    <mergeCell ref="F124:K125"/>
+    <mergeCell ref="F126:K126"/>
+    <mergeCell ref="F127:K127"/>
+    <mergeCell ref="F128:K128"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:J140"/>
+    <mergeCell ref="K140:P140"/>
+    <mergeCell ref="K141:P141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:J142"/>
+    <mergeCell ref="K142:P142"/>
+    <mergeCell ref="F133:K133"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:J136"/>
+    <mergeCell ref="K136:P136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:J139"/>
+    <mergeCell ref="K137:P137"/>
+    <mergeCell ref="K138:P138"/>
+    <mergeCell ref="K139:P139"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:J146"/>
+    <mergeCell ref="K146:P146"/>
+    <mergeCell ref="K147:P147"/>
+    <mergeCell ref="K148:N148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:J149"/>
+    <mergeCell ref="K149:P149"/>
+    <mergeCell ref="K143:P143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:J144"/>
+    <mergeCell ref="K144:P144"/>
+    <mergeCell ref="E145:J145"/>
+    <mergeCell ref="K145:P145"/>
+    <mergeCell ref="K153:P153"/>
+    <mergeCell ref="E154:J154"/>
+    <mergeCell ref="K154:P154"/>
+    <mergeCell ref="K155:P155"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:J156"/>
+    <mergeCell ref="K156:P156"/>
+    <mergeCell ref="K150:P150"/>
+    <mergeCell ref="E151:J151"/>
+    <mergeCell ref="K151:P151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:J152"/>
+    <mergeCell ref="K152:P152"/>
+    <mergeCell ref="C168:E172"/>
+    <mergeCell ref="F168:P169"/>
+    <mergeCell ref="F170:P171"/>
+    <mergeCell ref="F172:K172"/>
+    <mergeCell ref="C173:E175"/>
+    <mergeCell ref="F173:P174"/>
+    <mergeCell ref="F175:K175"/>
+    <mergeCell ref="E157:J157"/>
+    <mergeCell ref="K157:P157"/>
+    <mergeCell ref="C162:K162"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="F164:P164"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="F166:P166"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="F176:P177"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:J181"/>
+    <mergeCell ref="K181:P181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:J184"/>
+    <mergeCell ref="K182:P182"/>
+    <mergeCell ref="K183:P183"/>
+    <mergeCell ref="K184:P184"/>
+    <mergeCell ref="K188:P188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:J189"/>
+    <mergeCell ref="K189:P189"/>
+    <mergeCell ref="E190:J190"/>
+    <mergeCell ref="K190:P190"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:J185"/>
+    <mergeCell ref="K185:P185"/>
+    <mergeCell ref="K186:P186"/>
+    <mergeCell ref="E187:J187"/>
+    <mergeCell ref="K187:P187"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:J194"/>
+    <mergeCell ref="K194:P194"/>
+    <mergeCell ref="E195:J195"/>
+    <mergeCell ref="K195:P195"/>
+    <mergeCell ref="E196:J196"/>
+    <mergeCell ref="K196:P196"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="E191:J191"/>
+    <mergeCell ref="K191:P191"/>
+    <mergeCell ref="E192:J192"/>
+    <mergeCell ref="K192:P192"/>
+    <mergeCell ref="E193:J193"/>
+    <mergeCell ref="K193:P193"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:J197"/>
+    <mergeCell ref="K197:P197"/>
+    <mergeCell ref="E198:J198"/>
+    <mergeCell ref="K198:P198"/>
+    <mergeCell ref="E199:J207"/>
+    <mergeCell ref="K199:P199"/>
+    <mergeCell ref="K200:P200"/>
+    <mergeCell ref="K201:P201"/>
+    <mergeCell ref="K202:P202"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:J211"/>
+    <mergeCell ref="K211:P211"/>
+    <mergeCell ref="E212:J212"/>
+    <mergeCell ref="K212:P212"/>
+    <mergeCell ref="E213:J213"/>
+    <mergeCell ref="K213:P213"/>
+    <mergeCell ref="K203:P203"/>
+    <mergeCell ref="K204:P204"/>
+    <mergeCell ref="K205:P205"/>
+    <mergeCell ref="K206:P206"/>
+    <mergeCell ref="K207:P207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:J210"/>
+    <mergeCell ref="K208:P208"/>
+    <mergeCell ref="K209:P209"/>
+    <mergeCell ref="K210:P210"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="E217:J217"/>
+    <mergeCell ref="K217:P217"/>
+    <mergeCell ref="E218:J218"/>
+    <mergeCell ref="K218:P218"/>
+    <mergeCell ref="E219:J219"/>
+    <mergeCell ref="K219:P219"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:J214"/>
+    <mergeCell ref="K214:P214"/>
+    <mergeCell ref="E215:J215"/>
+    <mergeCell ref="K215:P215"/>
+    <mergeCell ref="E216:J216"/>
+    <mergeCell ref="K216:P216"/>
+    <mergeCell ref="C225:K225"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="F227:P227"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:P229"/>
+    <mergeCell ref="C231:E235"/>
+    <mergeCell ref="F231:P232"/>
+    <mergeCell ref="F233:P234"/>
+    <mergeCell ref="F235:K235"/>
+    <mergeCell ref="C236:E238"/>
+    <mergeCell ref="F236:P237"/>
+    <mergeCell ref="F238:K238"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="F239:P240"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="E244:J244"/>
+    <mergeCell ref="K244:P244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="E245:J247"/>
+    <mergeCell ref="K245:P245"/>
+    <mergeCell ref="K246:P246"/>
+    <mergeCell ref="K247:P248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="E249:J249"/>
+    <mergeCell ref="K249:P249"/>
+    <mergeCell ref="K250:P250"/>
+    <mergeCell ref="E251:J251"/>
+    <mergeCell ref="K251:P251"/>
+    <mergeCell ref="K252:P252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="E253:J253"/>
+    <mergeCell ref="K253:P253"/>
+    <mergeCell ref="E254:J254"/>
+    <mergeCell ref="K254:P254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="E255:J255"/>
+    <mergeCell ref="K255:P255"/>
+    <mergeCell ref="E256:J256"/>
+    <mergeCell ref="K256:P256"/>
+    <mergeCell ref="E257:J257"/>
+    <mergeCell ref="K257:P257"/>
+    <mergeCell ref="K258:P258"/>
+    <mergeCell ref="K259:P259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="E260:J262"/>
+    <mergeCell ref="K260:P260"/>
+    <mergeCell ref="K261:P262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E263:J263"/>
+    <mergeCell ref="K263:P263"/>
+    <mergeCell ref="K275:P275"/>
+    <mergeCell ref="K276:P278"/>
+    <mergeCell ref="K265:P265"/>
+    <mergeCell ref="K266:P266"/>
+    <mergeCell ref="K267:P267"/>
+    <mergeCell ref="K268:P268"/>
+    <mergeCell ref="K269:P269"/>
+    <mergeCell ref="K270:P270"/>
+    <mergeCell ref="K271:P271"/>
+    <mergeCell ref="K272:P272"/>
+    <mergeCell ref="K273:P273"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
